--- a/Application Bs4/Data/TriangleRgle.xlsx
+++ b/Application Bs4/Data/TriangleRgle.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdouloudoussdiakite/Desktop/PFE/Risk based solvency/Application Bs4/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B175FFDA-4907-A540-A0AB-608E14A39B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15F7843-4C99-8B40-A028-D69A09AD98AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="triangle" sheetId="1" r:id="rId1"/>
     <sheet name="Cumulative Somme" sheetId="2" r:id="rId2"/>
     <sheet name="fdi" sheetId="3" r:id="rId3"/>
     <sheet name="fdc" sheetId="4" r:id="rId4"/>
-    <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
+    <sheet name="Reglements  futurs" sheetId="5" r:id="rId5"/>
+    <sheet name="Feuil5" sheetId="10" r:id="rId6"/>
+    <sheet name="Triangle décumulé" sheetId="7" r:id="rId7"/>
+    <sheet name="Reserve" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,23 +39,81 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{B92093ED-BD41-A048-831D-5B4197179A66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Abdoul:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Facteurs cumulés
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>fdc</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>PSAP</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>1/F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="#\ ##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#\ ##0.00"/>
+    <numFmt numFmtId="169" formatCode="#\ ###\ ##0.00"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.0000_)\ _M_A_D_ ;_ * \(#,##0.0000\)\ _M_A_D_ ;_ * &quot;-&quot;????_)\ _M_A_D_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +135,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,24 +217,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -462,15 +566,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L12"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -506,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -543,8 +647,19 @@
       <c r="L2" s="8">
         <v>69073.142739999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="10">
+        <f>SUM(B2:L2)</f>
+        <v>520915.15974999993</v>
+      </c>
+      <c r="O2">
+        <v>520915.15974999993</v>
+      </c>
+      <c r="Q2">
+        <f>M2/O2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -581,8 +696,19 @@
       <c r="L3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M12" si="0">SUM(B3:L3)</f>
+        <v>428747.36074000003</v>
+      </c>
+      <c r="O3">
+        <v>494105.88594069087</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q12" si="1">M3/O3</f>
+        <v>0.86772364576013972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -619,8 +745,19 @@
       <c r="L4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="10">
+        <f t="shared" si="0"/>
+        <v>346325.68111</v>
+      </c>
+      <c r="O4">
+        <v>460757.69920277654</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>0.7516438286527346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -657,8 +794,19 @@
       <c r="L5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="10">
+        <f t="shared" si="0"/>
+        <v>358428.40081999998</v>
+      </c>
+      <c r="O5">
+        <v>560420.17664962728</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0.63957083587318475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -695,8 +843,19 @@
       <c r="L6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="10">
+        <f t="shared" si="0"/>
+        <v>313153.59048000001</v>
+      </c>
+      <c r="O6">
+        <v>613252.78126777685</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0.51064357153442974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -733,8 +892,19 @@
       <c r="L7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="10">
+        <f t="shared" si="0"/>
+        <v>162306.04853999999</v>
+      </c>
+      <c r="O7">
+        <v>396349.58555834746</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0.40950225370200766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -771,8 +941,19 @@
       <c r="L8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="10">
+        <f t="shared" si="0"/>
+        <v>159930.90086999998</v>
+      </c>
+      <c r="O8">
+        <v>538046.26194706874</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0.29724377285188436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -809,8 +990,19 @@
       <c r="L9" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="10">
+        <f t="shared" si="0"/>
+        <v>137029.20567</v>
+      </c>
+      <c r="O9">
+        <v>698476.30514951074</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0.19618304108493489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -847,8 +1039,19 @@
       <c r="L10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="10">
+        <f t="shared" si="0"/>
+        <v>79596.056849999994</v>
+      </c>
+      <c r="O10">
+        <v>694961.31741089746</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0.11453307523149327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -885,8 +1088,19 @@
       <c r="L11" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="10">
+        <f t="shared" si="0"/>
+        <v>26134.784199999987</v>
+      </c>
+      <c r="O11">
+        <v>577100.68714350893</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>4.5286350860817795E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -923,9 +1137,39 @@
       <c r="L12" s="8">
         <v>0</v>
       </c>
+      <c r="M12" s="10">
+        <f t="shared" si="0"/>
+        <v>5818.6407599999984</v>
+      </c>
+      <c r="O12">
+        <v>592963.73937458463</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>9.8128104192966008E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C15" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="M2:M12" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -933,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B90093-19E7-FE42-A77C-3B1A0DA36EB9}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -987,34 +1231,34 @@
         <v>3504</v>
       </c>
       <c r="C2" s="8">
-        <v>21342.653549999995</v>
+        <v>17838.653549999995</v>
       </c>
       <c r="D2" s="8">
-        <v>51104.786649999995</v>
+        <v>29762.133099999995</v>
       </c>
       <c r="E2" s="8">
-        <v>88458.919749999986</v>
+        <v>37354.133099999992</v>
       </c>
       <c r="F2" s="8">
-        <v>136572.05284999998</v>
+        <v>48113.133099999992</v>
       </c>
       <c r="G2" s="8">
-        <v>190860.97243999998</v>
+        <v>54288.91958999999</v>
       </c>
       <c r="H2" s="8">
-        <v>251851.89202999999</v>
+        <v>60990.91958999999</v>
       </c>
       <c r="I2" s="8">
-        <v>316805.81161999999</v>
+        <v>64953.91958999999</v>
       </c>
       <c r="J2" s="8">
-        <v>383880.87426999997</v>
+        <v>67075.062649999993</v>
       </c>
       <c r="K2" s="8">
-        <v>451842.01700999995</v>
+        <v>67961.142739999996</v>
       </c>
       <c r="L2" s="8">
-        <v>520915.15974999993</v>
+        <v>69073.142739999996</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1025,33 +1269,35 @@
         <v>4774.2421799999993</v>
       </c>
       <c r="C3" s="8">
-        <v>19000.09345</v>
+        <v>14225.851269999999</v>
       </c>
       <c r="D3" s="8">
-        <v>43891.94472</v>
+        <v>24891.851269999999</v>
       </c>
       <c r="E3" s="8">
-        <v>82343.795989999999</v>
+        <v>38451.851269999999</v>
       </c>
       <c r="F3" s="8">
-        <v>127949.77468</v>
+        <v>45605.978690000004</v>
       </c>
       <c r="G3" s="8">
-        <v>182169.75336999999</v>
+        <v>54219.978690000004</v>
       </c>
       <c r="H3" s="8">
-        <v>239781.73206000001</v>
+        <v>57611.978690000004</v>
       </c>
       <c r="I3" s="8">
-        <v>301534.29162999999</v>
+        <v>61752.559570000005</v>
       </c>
       <c r="J3" s="8">
-        <v>364441.03437000001</v>
+        <v>62906.742740000002</v>
       </c>
       <c r="K3" s="8">
-        <v>428747.36074000003</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>64306.326370000002</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -1061,31 +1307,35 @@
         <v>3821.9183899999998</v>
       </c>
       <c r="C4" s="8">
-        <v>16311.836779999998</v>
+        <v>12489.918389999999</v>
       </c>
       <c r="D4" s="8">
-        <v>44596.755169999997</v>
+        <v>28284.918389999999</v>
       </c>
       <c r="E4" s="8">
-        <v>84379.382619999989</v>
+        <v>39782.62745</v>
       </c>
       <c r="F4" s="8">
-        <v>130865.01006999999</v>
+        <v>46485.62745</v>
       </c>
       <c r="G4" s="8">
-        <v>182294.63751999999</v>
+        <v>51429.62745</v>
       </c>
       <c r="H4" s="8">
-        <v>235756.68312999999</v>
+        <v>53462.045610000001</v>
       </c>
       <c r="I4" s="8">
-        <v>290554.67086000001</v>
+        <v>54797.987730000001</v>
       </c>
       <c r="J4" s="8">
-        <v>346325.68111</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+        <v>55771.010249999999</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1095,29 +1345,35 @@
         <v>4074</v>
       </c>
       <c r="C5" s="8">
-        <v>23095</v>
+        <v>19021</v>
       </c>
       <c r="D5" s="8">
-        <v>58824</v>
+        <v>35729</v>
       </c>
       <c r="E5" s="8">
-        <v>109689</v>
+        <v>50865</v>
       </c>
       <c r="F5" s="8">
-        <v>168106</v>
+        <v>58417</v>
       </c>
       <c r="G5" s="8">
-        <v>230244.26887999999</v>
+        <v>62138.268880000003</v>
       </c>
       <c r="H5" s="8">
-        <v>293754.83184</v>
+        <v>63510.562960000003</v>
       </c>
       <c r="I5" s="8">
-        <v>358428.40081999998</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+        <v>64673.568980000004</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1127,27 +1383,35 @@
         <v>5070</v>
       </c>
       <c r="C6" s="8">
-        <v>24582</v>
+        <v>19512</v>
       </c>
       <c r="D6" s="8">
-        <v>66142</v>
+        <v>41560</v>
       </c>
       <c r="E6" s="8">
-        <v>118059</v>
+        <v>51917</v>
       </c>
       <c r="F6" s="8">
-        <v>177227.44096000001</v>
+        <v>59168.44096</v>
       </c>
       <c r="G6" s="8">
-        <v>243506.03072000001</v>
+        <v>66278.589760000003</v>
       </c>
       <c r="H6" s="8">
-        <v>313153.59048000001</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+        <v>69647.559760000004</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1157,25 +1421,35 @@
         <v>3817</v>
       </c>
       <c r="C7" s="8">
-        <v>21757</v>
+        <v>17940</v>
       </c>
       <c r="D7" s="8">
-        <v>49096</v>
+        <v>27339</v>
       </c>
       <c r="E7" s="8">
-        <v>82762.672059999997</v>
+        <v>33666.672059999997</v>
       </c>
       <c r="F7" s="8">
-        <v>120656.63357999999</v>
+        <v>37893.961519999997</v>
       </c>
       <c r="G7" s="8">
-        <v>162306.04853999999</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+        <v>41649.414959999995</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1185,23 +1459,35 @@
         <v>7838</v>
       </c>
       <c r="C8" s="8">
-        <v>31594</v>
+        <v>23756</v>
       </c>
       <c r="D8" s="8">
-        <v>66083.852959999989</v>
+        <v>34489.852959999997</v>
       </c>
       <c r="E8" s="8">
-        <v>108749.12628999999</v>
+        <v>42665.273329999996</v>
       </c>
       <c r="F8" s="8">
-        <v>159930.90086999998</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+        <v>51181.774579999998</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1211,21 +1497,35 @@
         <v>7690</v>
       </c>
       <c r="C9" s="8">
-        <v>37130.545599999998</v>
+        <v>29440.545599999994</v>
       </c>
       <c r="D9" s="8">
-        <v>80158.519469999999</v>
+        <v>43027.973869999994</v>
       </c>
       <c r="E9" s="8">
-        <v>137029.20567</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+        <v>56870.686200000004</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1235,19 +1535,35 @@
         <v>8935</v>
       </c>
       <c r="C10" s="8">
-        <v>36920.558659999995</v>
+        <v>27985.558659999999</v>
       </c>
       <c r="D10" s="8">
-        <v>79596.056849999994</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+        <v>42675.498189999998</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1257,17 +1573,35 @@
         <v>4979.9748699999936</v>
       </c>
       <c r="C11" s="8">
-        <v>26134.784199999987</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+        <v>21154.809329999993</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1276,16 +1610,36 @@
       <c r="B12" s="8">
         <v>5818.6407599999984</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="5"/>
@@ -1303,7 +1657,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1350,43 +1704,43 @@
       </c>
       <c r="B2" s="4">
         <f>IFERROR(IF('Cumulative Somme'!C2/'Cumulative Somme'!B2 =1,"",'Cumulative Somme'!C2/'Cumulative Somme'!B2),"")</f>
-        <v>6.090939940068492</v>
+        <v>5.090939940068492</v>
       </c>
       <c r="C2" s="4">
         <f>IFERROR(IF('Cumulative Somme'!D2/'Cumulative Somme'!C2 =1,"",'Cumulative Somme'!D2/'Cumulative Somme'!C2),"")</f>
-        <v>2.3944907567503484</v>
+        <v>1.668406924131334</v>
       </c>
       <c r="D2" s="4">
         <f>IFERROR(IF('Cumulative Somme'!E2/'Cumulative Somme'!D2 =1,"",'Cumulative Somme'!E2/'Cumulative Somme'!D2),"")</f>
-        <v>1.7309321797158896</v>
+        <v>1.255089242914514</v>
       </c>
       <c r="E2" s="4">
         <f>IFERROR(IF('Cumulative Somme'!F2/'Cumulative Somme'!E2 =1,"",'Cumulative Somme'!F2/'Cumulative Somme'!E2),"")</f>
-        <v>1.543903692651639</v>
+        <v>1.2880270295979643</v>
       </c>
       <c r="F2" s="4">
         <f>IFERROR(IF('Cumulative Somme'!G2/'Cumulative Somme'!F2 =1,"",'Cumulative Somme'!G2/'Cumulative Somme'!F2),"")</f>
-        <v>1.3975111924957788</v>
+        <v>1.1283596825250193</v>
       </c>
       <c r="G2" s="4">
         <f>IFERROR(IF('Cumulative Somme'!H2/'Cumulative Somme'!G2 =1,"",'Cumulative Somme'!H2/'Cumulative Somme'!G2),"")</f>
-        <v>1.3195567894802245</v>
+        <v>1.1234506055860891</v>
       </c>
       <c r="H2" s="4">
         <f>IFERROR(IF('Cumulative Somme'!I2/'Cumulative Somme'!H2 =1,"",'Cumulative Somme'!I2/'Cumulative Somme'!H2),"")</f>
-        <v>1.2579052278164455</v>
+        <v>1.0649768855206729</v>
       </c>
       <c r="I2" s="4">
         <f>IFERROR(IF('Cumulative Somme'!J2/'Cumulative Somme'!I2 =1,"",'Cumulative Somme'!J2/'Cumulative Somme'!I2),"")</f>
-        <v>1.2117229551661592</v>
+        <v>1.0326561210376373</v>
       </c>
       <c r="J2" s="4">
         <f>IFERROR(IF('Cumulative Somme'!K2/'Cumulative Somme'!J2 =1,"",'Cumulative Somme'!K2/'Cumulative Somme'!J2),"")</f>
-        <v>1.1770370635662353</v>
+        <v>1.0132102759951727</v>
       </c>
       <c r="K2" s="4">
         <f>IFERROR(IF('Cumulative Somme'!L2/'Cumulative Somme'!K2 =1,"",'Cumulative Somme'!L2/'Cumulative Somme'!K2),"")</f>
-        <v>1.1528701186248274</v>
+        <v>1.0163622910852779</v>
       </c>
       <c r="L2" s="4">
         <f>IFERROR(IF('Cumulative Somme'!M2/'Cumulative Somme'!L2 =1,"",'Cumulative Somme'!M2/'Cumulative Somme'!L2),"")</f>
@@ -1399,39 +1753,39 @@
       </c>
       <c r="B3" s="4">
         <f>IFERROR(IF('Cumulative Somme'!C3/'Cumulative Somme'!B3 =1,"",'Cumulative Somme'!C3/'Cumulative Somme'!B3),"")</f>
-        <v>3.9797087650044607</v>
+        <v>2.9797087650044602</v>
       </c>
       <c r="C3" s="4">
         <f>IFERROR(IF('Cumulative Somme'!D3/'Cumulative Somme'!C3 =1,"",'Cumulative Somme'!D3/'Cumulative Somme'!C3),"")</f>
-        <v>2.3100909916840435</v>
+        <v>1.7497618102118679</v>
       </c>
       <c r="D3" s="4">
         <f>IFERROR(IF('Cumulative Somme'!E3/'Cumulative Somme'!D3 =1,"",'Cumulative Somme'!E3/'Cumulative Somme'!D3),"")</f>
-        <v>1.8760571333828109</v>
+        <v>1.5447565893318147</v>
       </c>
       <c r="E3" s="4">
         <f>IFERROR(IF('Cumulative Somme'!F3/'Cumulative Somme'!E3 =1,"",'Cumulative Somme'!F3/'Cumulative Somme'!E3),"")</f>
-        <v>1.5538483882324114</v>
+        <v>1.1860541738228774</v>
       </c>
       <c r="F3" s="4">
         <f>IFERROR(IF('Cumulative Somme'!G3/'Cumulative Somme'!F3 =1,"",'Cumulative Somme'!G3/'Cumulative Somme'!F3),"")</f>
-        <v>1.4237598606609754</v>
+        <v>1.188878744573215</v>
       </c>
       <c r="G3" s="4">
         <f>IFERROR(IF('Cumulative Somme'!H3/'Cumulative Somme'!G3 =1,"",'Cumulative Somme'!H3/'Cumulative Somme'!G3),"")</f>
-        <v>1.3162543595971494</v>
+        <v>1.0625599655690312</v>
       </c>
       <c r="H3" s="4">
         <f>IFERROR(IF('Cumulative Somme'!I3/'Cumulative Somme'!H3 =1,"",'Cumulative Somme'!I3/'Cumulative Somme'!H3),"")</f>
-        <v>1.2575365480909437</v>
+        <v>1.0718701383661851</v>
       </c>
       <c r="I3" s="4">
         <f>IFERROR(IF('Cumulative Somme'!J3/'Cumulative Somme'!I3 =1,"",'Cumulative Somme'!J3/'Cumulative Somme'!I3),"")</f>
-        <v>1.2086221848929548</v>
+        <v>1.0186904506960828</v>
       </c>
       <c r="J3" s="4">
         <f>IFERROR(IF('Cumulative Somme'!K3/'Cumulative Somme'!J3 =1,"",'Cumulative Somme'!K3/'Cumulative Somme'!J3),"")</f>
-        <v>1.1764519368165134</v>
+        <v>1.022248547119736</v>
       </c>
       <c r="K3" s="4">
         <f>IFERROR(IF('Cumulative Somme'!L3/'Cumulative Somme'!K3 =1,"",'Cumulative Somme'!L3/'Cumulative Somme'!K3),"")</f>
@@ -1448,35 +1802,35 @@
       </c>
       <c r="B4" s="4">
         <f>IFERROR(IF('Cumulative Somme'!C4/'Cumulative Somme'!B4 =1,"",'Cumulative Somme'!C4/'Cumulative Somme'!B4),"")</f>
-        <v>4.2679709809292916</v>
+        <v>3.2679709809292916</v>
       </c>
       <c r="C4" s="4">
         <f>IFERROR(IF('Cumulative Somme'!D4/'Cumulative Somme'!C4 =1,"",'Cumulative Somme'!D4/'Cumulative Somme'!C4),"")</f>
-        <v>2.7340118572471397</v>
+        <v>2.2646199524126756</v>
       </c>
       <c r="D4" s="4">
         <f>IFERROR(IF('Cumulative Somme'!E4/'Cumulative Somme'!D4 =1,"",'Cumulative Somme'!E4/'Cumulative Somme'!D4),"")</f>
-        <v>1.8920520629438431</v>
+        <v>1.4064961016138184</v>
       </c>
       <c r="E4" s="4">
         <f>IFERROR(IF('Cumulative Somme'!F4/'Cumulative Somme'!E4 =1,"",'Cumulative Somme'!F4/'Cumulative Somme'!E4),"")</f>
-        <v>1.5509121542088857</v>
+        <v>1.1684906309525316</v>
       </c>
       <c r="F4" s="4">
         <f>IFERROR(IF('Cumulative Somme'!G4/'Cumulative Somme'!F4 =1,"",'Cumulative Somme'!G4/'Cumulative Somme'!F4),"")</f>
-        <v>1.3929975432125836</v>
+        <v>1.1063554537435849</v>
       </c>
       <c r="G4" s="4">
         <f>IFERROR(IF('Cumulative Somme'!H4/'Cumulative Somme'!G4 =1,"",'Cumulative Somme'!H4/'Cumulative Somme'!G4),"")</f>
-        <v>1.2932727278065683</v>
+        <v>1.0395184305384269</v>
       </c>
       <c r="H4" s="4">
         <f>IFERROR(IF('Cumulative Somme'!I4/'Cumulative Somme'!H4 =1,"",'Cumulative Somme'!I4/'Cumulative Somme'!H4),"")</f>
-        <v>1.2324345040932883</v>
+        <v>1.0249886083623803</v>
       </c>
       <c r="I4" s="4">
         <f>IFERROR(IF('Cumulative Somme'!J4/'Cumulative Somme'!I4 =1,"",'Cumulative Somme'!J4/'Cumulative Somme'!I4),"")</f>
-        <v>1.1919467000304136</v>
+        <v>1.0177565374260504</v>
       </c>
       <c r="J4" s="4">
         <f>IFERROR(IF('Cumulative Somme'!K4/'Cumulative Somme'!J4 =1,"",'Cumulative Somme'!K4/'Cumulative Somme'!J4),"")</f>
@@ -1497,31 +1851,31 @@
       </c>
       <c r="B5" s="4">
         <f>IFERROR(IF('Cumulative Somme'!C5/'Cumulative Somme'!B5 =1,"",'Cumulative Somme'!C5/'Cumulative Somme'!B5),"")</f>
-        <v>5.6688757977417774</v>
+        <v>4.6688757977417774</v>
       </c>
       <c r="C5" s="4">
         <f>IFERROR(IF('Cumulative Somme'!D5/'Cumulative Somme'!C5 =1,"",'Cumulative Somme'!D5/'Cumulative Somme'!C5),"")</f>
-        <v>2.5470448148949991</v>
+        <v>1.8783975605909258</v>
       </c>
       <c r="D5" s="4">
         <f>IFERROR(IF('Cumulative Somme'!E5/'Cumulative Somme'!D5 =1,"",'Cumulative Somme'!E5/'Cumulative Somme'!D5),"")</f>
-        <v>1.8646980824153407</v>
+        <v>1.4236334630132386</v>
       </c>
       <c r="E5" s="4">
         <f>IFERROR(IF('Cumulative Somme'!F5/'Cumulative Somme'!E5 =1,"",'Cumulative Somme'!F5/'Cumulative Somme'!E5),"")</f>
-        <v>1.5325693551769093</v>
+        <v>1.1484714440184802</v>
       </c>
       <c r="F5" s="4">
         <f>IFERROR(IF('Cumulative Somme'!G5/'Cumulative Somme'!F5 =1,"",'Cumulative Somme'!G5/'Cumulative Somme'!F5),"")</f>
-        <v>1.3696374244821719</v>
+        <v>1.063701814197922</v>
       </c>
       <c r="G5" s="4">
         <f>IFERROR(IF('Cumulative Somme'!H5/'Cumulative Somme'!G5 =1,"",'Cumulative Somme'!H5/'Cumulative Somme'!G5),"")</f>
-        <v>1.2758399297795369</v>
+        <v>1.0220845238326504</v>
       </c>
       <c r="H5" s="4">
         <f>IFERROR(IF('Cumulative Somme'!I5/'Cumulative Somme'!H5 =1,"",'Cumulative Somme'!I5/'Cumulative Somme'!H5),"")</f>
-        <v>1.2201617198086663</v>
+        <v>1.0183120093067428</v>
       </c>
       <c r="I5" s="4">
         <f>IFERROR(IF('Cumulative Somme'!J5/'Cumulative Somme'!I5 =1,"",'Cumulative Somme'!J5/'Cumulative Somme'!I5),"")</f>
@@ -1546,27 +1900,27 @@
       </c>
       <c r="B6" s="4">
         <f>IFERROR(IF('Cumulative Somme'!C6/'Cumulative Somme'!B6 =1,"",'Cumulative Somme'!C6/'Cumulative Somme'!B6),"")</f>
-        <v>4.8485207100591712</v>
+        <v>3.8485207100591716</v>
       </c>
       <c r="C6" s="4">
         <f>IFERROR(IF('Cumulative Somme'!D6/'Cumulative Somme'!C6 =1,"",'Cumulative Somme'!D6/'Cumulative Somme'!C6),"")</f>
-        <v>2.6906679684321864</v>
+        <v>2.1299712997129969</v>
       </c>
       <c r="D6" s="4">
         <f>IFERROR(IF('Cumulative Somme'!E6/'Cumulative Somme'!D6 =1,"",'Cumulative Somme'!E6/'Cumulative Somme'!D6),"")</f>
-        <v>1.7849324181306885</v>
+        <v>1.2492059672762272</v>
       </c>
       <c r="E6" s="4">
         <f>IFERROR(IF('Cumulative Somme'!F6/'Cumulative Somme'!E6 =1,"",'Cumulative Somme'!F6/'Cumulative Somme'!E6),"")</f>
-        <v>1.5011768773240499</v>
+        <v>1.1396737284511818</v>
       </c>
       <c r="F6" s="4">
         <f>IFERROR(IF('Cumulative Somme'!G6/'Cumulative Somme'!F6 =1,"",'Cumulative Somme'!G6/'Cumulative Somme'!F6),"")</f>
-        <v>1.3739747603474057</v>
+        <v>1.1201679254115673</v>
       </c>
       <c r="G6" s="4">
         <f>IFERROR(IF('Cumulative Somme'!H6/'Cumulative Somme'!G6 =1,"",'Cumulative Somme'!H6/'Cumulative Somme'!G6),"")</f>
-        <v>1.2860198556646245</v>
+        <v>1.0508304418093279</v>
       </c>
       <c r="H6" s="4">
         <f>IFERROR(IF('Cumulative Somme'!I6/'Cumulative Somme'!H6 =1,"",'Cumulative Somme'!I6/'Cumulative Somme'!H6),"")</f>
@@ -1595,23 +1949,23 @@
       </c>
       <c r="B7" s="4">
         <f>IFERROR(IF('Cumulative Somme'!C7/'Cumulative Somme'!B7 =1,"",'Cumulative Somme'!C7/'Cumulative Somme'!B7),"")</f>
-        <v>5.7000261985852765</v>
+        <v>4.7000261985852765</v>
       </c>
       <c r="C7" s="4">
         <f>IFERROR(IF('Cumulative Somme'!D7/'Cumulative Somme'!C7 =1,"",'Cumulative Somme'!D7/'Cumulative Somme'!C7),"")</f>
-        <v>2.2565611067702349</v>
+        <v>1.5239130434782608</v>
       </c>
       <c r="D7" s="4">
         <f>IFERROR(IF('Cumulative Somme'!E7/'Cumulative Somme'!D7 =1,"",'Cumulative Somme'!E7/'Cumulative Somme'!D7),"")</f>
-        <v>1.6857314661072185</v>
+        <v>1.2314522133216284</v>
       </c>
       <c r="E7" s="4">
         <f>IFERROR(IF('Cumulative Somme'!F7/'Cumulative Somme'!E7 =1,"",'Cumulative Somme'!F7/'Cumulative Somme'!E7),"")</f>
-        <v>1.4578629541169021</v>
+        <v>1.1255630331523774</v>
       </c>
       <c r="F7" s="4">
         <f>IFERROR(IF('Cumulative Somme'!G7/'Cumulative Somme'!F7 =1,"",'Cumulative Somme'!G7/'Cumulative Somme'!F7),"")</f>
-        <v>1.345189598982014</v>
+        <v>1.0991042712179331</v>
       </c>
       <c r="G7" s="4">
         <f>IFERROR(IF('Cumulative Somme'!H7/'Cumulative Somme'!G7 =1,"",'Cumulative Somme'!H7/'Cumulative Somme'!G7),"")</f>
@@ -1644,19 +1998,19 @@
       </c>
       <c r="B8" s="4">
         <f>IFERROR(IF('Cumulative Somme'!C8/'Cumulative Somme'!B8 =1,"",'Cumulative Somme'!C8/'Cumulative Somme'!B8),"")</f>
-        <v>4.0308752232712424</v>
+        <v>3.0308752232712428</v>
       </c>
       <c r="C8" s="4">
         <f>IFERROR(IF('Cumulative Somme'!D8/'Cumulative Somme'!C8 =1,"",'Cumulative Somme'!D8/'Cumulative Somme'!C8),"")</f>
-        <v>2.0916583199341643</v>
+        <v>1.4518375551439635</v>
       </c>
       <c r="D8" s="4">
         <f>IFERROR(IF('Cumulative Somme'!E8/'Cumulative Somme'!D8 =1,"",'Cumulative Somme'!E8/'Cumulative Somme'!D8),"")</f>
-        <v>1.6456232713280949</v>
+        <v>1.2370384234308431</v>
       </c>
       <c r="E8" s="4">
         <f>IFERROR(IF('Cumulative Somme'!F8/'Cumulative Somme'!E8 =1,"",'Cumulative Somme'!F8/'Cumulative Somme'!E8),"")</f>
-        <v>1.470640788814378</v>
+        <v>1.1996120166423883</v>
       </c>
       <c r="F8" s="4">
         <f>IFERROR(IF('Cumulative Somme'!G8/'Cumulative Somme'!F8 =1,"",'Cumulative Somme'!G8/'Cumulative Somme'!F8),"")</f>
@@ -1693,15 +2047,15 @@
       </c>
       <c r="B9" s="4">
         <f>IFERROR(IF('Cumulative Somme'!C9/'Cumulative Somme'!B9 =1,"",'Cumulative Somme'!C9/'Cumulative Somme'!B9),"")</f>
-        <v>4.8284194538361502</v>
+        <v>3.8284194538361502</v>
       </c>
       <c r="C9" s="4">
         <f>IFERROR(IF('Cumulative Somme'!D9/'Cumulative Somme'!C9 =1,"",'Cumulative Somme'!D9/'Cumulative Somme'!C9),"")</f>
-        <v>2.1588295613410002</v>
+        <v>1.4615209396798681</v>
       </c>
       <c r="D9" s="4">
         <f>IFERROR(IF('Cumulative Somme'!E9/'Cumulative Somme'!D9 =1,"",'Cumulative Somme'!E9/'Cumulative Somme'!D9),"")</f>
-        <v>1.7094777520346334</v>
+        <v>1.3217142497070131</v>
       </c>
       <c r="E9" s="4">
         <f>IFERROR(IF('Cumulative Somme'!F9/'Cumulative Somme'!E9 =1,"",'Cumulative Somme'!F9/'Cumulative Somme'!E9),"")</f>
@@ -1742,11 +2096,11 @@
       </c>
       <c r="B10" s="4">
         <f>IFERROR(IF('Cumulative Somme'!C10/'Cumulative Somme'!B10 =1,"",'Cumulative Somme'!C10/'Cumulative Somme'!B10),"")</f>
-        <v>4.1321274381645212</v>
+        <v>3.1321274381645212</v>
       </c>
       <c r="C10" s="4">
         <f>IFERROR(IF('Cumulative Somme'!D10/'Cumulative Somme'!C10 =1,"",'Cumulative Somme'!D10/'Cumulative Somme'!C10),"")</f>
-        <v>2.15587357664322</v>
+        <v>1.52491142694237</v>
       </c>
       <c r="D10" s="4">
         <f>IFERROR(IF('Cumulative Somme'!E10/'Cumulative Somme'!D10 =1,"",'Cumulative Somme'!E10/'Cumulative Somme'!D10),"")</f>
@@ -1791,7 +2145,7 @@
       </c>
       <c r="B11" s="4">
         <f>IFERROR(IF('Cumulative Somme'!C11/'Cumulative Somme'!B11 =1,"",'Cumulative Somme'!C11/'Cumulative Somme'!B11),"")</f>
-        <v>5.2479751167901014</v>
+        <v>4.2479751167901014</v>
       </c>
       <c r="C11" s="4">
         <f>IFERROR(IF('Cumulative Somme'!D11/'Cumulative Somme'!C11 =1,"",'Cumulative Somme'!D11/'Cumulative Somme'!C11),"")</f>
@@ -1889,11 +2243,1026 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A6BB43-4DA8-B54E-AEFF-B6A6C5AF1249}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A6BB43-4DA8-B54E-AEFF-B6A6C5AF1249}">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7">
+        <f>SUM('Cumulative Somme'!C2:C11)/SUM('Cumulative Somme'!B2:B11)</f>
+        <v>3.7311726010931845</v>
+      </c>
+      <c r="D2" s="7">
+        <f>SUM('Cumulative Somme'!D2:D10)/SUM('Cumulative Somme'!C2:C10)</f>
+        <v>1.6890457488874799</v>
+      </c>
+      <c r="E2" s="7">
+        <f>SUM('Cumulative Somme'!E2:E9)/SUM('Cumulative Somme'!D2:D9)</f>
+        <v>1.326267431374752</v>
+      </c>
+      <c r="F2" s="7">
+        <f>SUM('Cumulative Somme'!F2:F8)/SUM('Cumulative Somme'!E2:E8)</f>
+        <v>1.177003415185262</v>
+      </c>
+      <c r="G2" s="7">
+        <f>SUM('Cumulative Somme'!G2:G7)/SUM('Cumulative Somme'!F2:F7)</f>
+        <v>1.116072026759217</v>
+      </c>
+      <c r="H2" s="7">
+        <f>SUM('Cumulative Somme'!H2:H6)/SUM('Cumulative Somme'!G2:G6)</f>
+        <v>1.0584961584013857</v>
+      </c>
+      <c r="I2" s="7">
+        <f>SUM('Cumulative Somme'!I2:I5)/SUM('Cumulative Somme'!H2:H5)</f>
+        <v>1.0450069243690561</v>
+      </c>
+      <c r="J2" s="7">
+        <f>SUM('Cumulative Somme'!J2:J4)/SUM('Cumulative Somme'!I2:I4)</f>
+        <v>1.023406304113577</v>
+      </c>
+      <c r="K2" s="7">
+        <f>SUM('Cumulative Somme'!K2:K3)/SUM('Cumulative Somme'!J2:J3)</f>
+        <v>1.0175844897148647</v>
+      </c>
+      <c r="L2" s="7">
+        <f>SUM('Cumulative Somme'!L2:L2)/SUM('Cumulative Somme'!K2:K2)</f>
+        <v>1.0163622910852779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3" s="16">
+        <f>PRODUCT(C2:$L2)</f>
+        <v>12.854742101781781</v>
+      </c>
+      <c r="D3" s="16">
+        <f>PRODUCT(D2:$L2)</f>
+        <v>3.4452284780434743</v>
+      </c>
+      <c r="E3" s="16">
+        <f>PRODUCT(E2:$L2)</f>
+        <v>2.039748467626016</v>
+      </c>
+      <c r="F3" s="16">
+        <f>PRODUCT(F2:$L2)</f>
+        <v>1.5379616654777539</v>
+      </c>
+      <c r="G3" s="16">
+        <f>PRODUCT(G2:$L2)</f>
+        <v>1.3066756184693624</v>
+      </c>
+      <c r="H3" s="16">
+        <f>PRODUCT(H2:$L2)</f>
+        <v>1.1707807266378751</v>
+      </c>
+      <c r="I3" s="16">
+        <f>PRODUCT(I2:$L2)</f>
+        <v>1.1060793346723803</v>
+      </c>
+      <c r="J3" s="16">
+        <f>PRODUCT(J2:$L2)</f>
+        <v>1.0584421106493604</v>
+      </c>
+      <c r="K3" s="16">
+        <f>PRODUCT(K2:$L2)</f>
+        <v>1.0342345033394433</v>
+      </c>
+      <c r="L3" s="16">
+        <f>PRODUCT($L2:L2)</f>
+        <v>1.0163622910852779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2014</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2015</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2018</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2020</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.0163622910852779</v>
+      </c>
+      <c r="D8">
+        <v>1.0342345033394433</v>
+      </c>
+      <c r="E8">
+        <v>1.0584421106493604</v>
+      </c>
+      <c r="F8">
+        <v>1.1060793346723803</v>
+      </c>
+      <c r="G8">
+        <v>1.1707807266378751</v>
+      </c>
+      <c r="H8">
+        <v>1.3066756184693624</v>
+      </c>
+      <c r="I8">
+        <v>1.5379616654777539</v>
+      </c>
+      <c r="J8">
+        <v>2.039748467626016</v>
+      </c>
+      <c r="K8">
+        <v>3.4452284780434743</v>
+      </c>
+      <c r="L8">
+        <v>12.854742101781781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <f>1/C8</f>
+        <v>0.98390112341947855</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:L9" si="0">1/D8</f>
+        <v>0.96689870311916359</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.94478478316258041</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.90409428026805971</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.85413090363359045</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.76530087947259495</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.65021126497932513</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.49025652715104678</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.29025651168653244</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>7.7792303578100658E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="C8:L9">
+    <sortCondition descending="1" ref="C9:L9"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D2 E2:K2" formulaRange="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047027FB-03A8-5744-A2CF-F947B91DF9B7}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="8">
+        <f>'Cumulative Somme'!B2</f>
+        <v>3504</v>
+      </c>
+      <c r="C2" s="8">
+        <f>'Cumulative Somme'!C2</f>
+        <v>17838.653549999995</v>
+      </c>
+      <c r="D2" s="8">
+        <f>'Cumulative Somme'!D2</f>
+        <v>29762.133099999995</v>
+      </c>
+      <c r="E2" s="8">
+        <f>'Cumulative Somme'!E2</f>
+        <v>37354.133099999992</v>
+      </c>
+      <c r="F2" s="8">
+        <f>'Cumulative Somme'!F2</f>
+        <v>48113.133099999992</v>
+      </c>
+      <c r="G2" s="8">
+        <f>'Cumulative Somme'!G2</f>
+        <v>54288.91958999999</v>
+      </c>
+      <c r="H2" s="8">
+        <f>'Cumulative Somme'!H2</f>
+        <v>60990.91958999999</v>
+      </c>
+      <c r="I2" s="8">
+        <f>'Cumulative Somme'!I2</f>
+        <v>64953.91958999999</v>
+      </c>
+      <c r="J2" s="8">
+        <f>'Cumulative Somme'!J2</f>
+        <v>67075.062649999993</v>
+      </c>
+      <c r="K2" s="8">
+        <f>'Cumulative Somme'!K2</f>
+        <v>67961.142739999996</v>
+      </c>
+      <c r="L2" s="8">
+        <f>'Cumulative Somme'!L2</f>
+        <v>69073.142739999996</v>
+      </c>
+      <c r="M2" s="10">
+        <f>SUM(B2:L2)</f>
+        <v>520915.15974999993</v>
+      </c>
+      <c r="N2" s="10">
+        <f>SUM(B2:L2)</f>
+        <v>520915.15974999993</v>
+      </c>
+      <c r="O2">
+        <f>M2/N2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="8">
+        <f>'Cumulative Somme'!B3</f>
+        <v>4774.2421799999993</v>
+      </c>
+      <c r="C3" s="8">
+        <f>'Cumulative Somme'!C3</f>
+        <v>14225.851269999999</v>
+      </c>
+      <c r="D3" s="8">
+        <f>'Cumulative Somme'!D3</f>
+        <v>24891.851269999999</v>
+      </c>
+      <c r="E3" s="8">
+        <f>'Cumulative Somme'!E3</f>
+        <v>38451.851269999999</v>
+      </c>
+      <c r="F3" s="8">
+        <f>'Cumulative Somme'!F3</f>
+        <v>45605.978690000004</v>
+      </c>
+      <c r="G3" s="8">
+        <f>'Cumulative Somme'!G3</f>
+        <v>54219.978690000004</v>
+      </c>
+      <c r="H3" s="8">
+        <f>'Cumulative Somme'!H3</f>
+        <v>57611.978690000004</v>
+      </c>
+      <c r="I3" s="8">
+        <f>'Cumulative Somme'!I3</f>
+        <v>61752.559570000005</v>
+      </c>
+      <c r="J3" s="8">
+        <f>'Cumulative Somme'!J3</f>
+        <v>62906.742740000002</v>
+      </c>
+      <c r="K3" s="8">
+        <f>'Cumulative Somme'!K3</f>
+        <v>64306.326370000002</v>
+      </c>
+      <c r="L3" s="9">
+        <f>K3*fdc!L2</f>
+        <v>65358.525200690819</v>
+      </c>
+      <c r="M3" s="10">
+        <f>SUM(B3:K3)</f>
+        <v>428747.36074000003</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N12" si="0">SUM(B3:L3)</f>
+        <v>494105.88594069087</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O12" si="1">M3/N3</f>
+        <v>0.86772364576013972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="8">
+        <f>'Cumulative Somme'!B4</f>
+        <v>3821.9183899999998</v>
+      </c>
+      <c r="C4" s="8">
+        <f>'Cumulative Somme'!C4</f>
+        <v>12489.918389999999</v>
+      </c>
+      <c r="D4" s="8">
+        <f>'Cumulative Somme'!D4</f>
+        <v>28284.918389999999</v>
+      </c>
+      <c r="E4" s="8">
+        <f>'Cumulative Somme'!E4</f>
+        <v>39782.62745</v>
+      </c>
+      <c r="F4" s="8">
+        <f>'Cumulative Somme'!F4</f>
+        <v>46485.62745</v>
+      </c>
+      <c r="G4" s="8">
+        <f>'Cumulative Somme'!G4</f>
+        <v>51429.62745</v>
+      </c>
+      <c r="H4" s="8">
+        <f>'Cumulative Somme'!H4</f>
+        <v>53462.045610000001</v>
+      </c>
+      <c r="I4" s="8">
+        <f>'Cumulative Somme'!I4</f>
+        <v>54797.987730000001</v>
+      </c>
+      <c r="J4" s="8">
+        <f>'Cumulative Somme'!J4</f>
+        <v>55771.010249999999</v>
+      </c>
+      <c r="K4" s="9">
+        <f>J4*fdc!K2</f>
+        <v>56751.715006128739</v>
+      </c>
+      <c r="L4" s="9">
+        <f>K4*fdc!L2</f>
+        <v>57680.303086647749</v>
+      </c>
+      <c r="M4" s="10">
+        <f>SUM(B4:J4)</f>
+        <v>346325.68111</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="0"/>
+        <v>460757.69920277654</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>0.7516438286527346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="8">
+        <f>'Cumulative Somme'!B5</f>
+        <v>4074</v>
+      </c>
+      <c r="C5" s="8">
+        <f>'Cumulative Somme'!C5</f>
+        <v>19021</v>
+      </c>
+      <c r="D5" s="8">
+        <f>'Cumulative Somme'!D5</f>
+        <v>35729</v>
+      </c>
+      <c r="E5" s="8">
+        <f>'Cumulative Somme'!E5</f>
+        <v>50865</v>
+      </c>
+      <c r="F5" s="8">
+        <f>'Cumulative Somme'!F5</f>
+        <v>58417</v>
+      </c>
+      <c r="G5" s="8">
+        <f>'Cumulative Somme'!G5</f>
+        <v>62138.268880000003</v>
+      </c>
+      <c r="H5" s="8">
+        <f>'Cumulative Somme'!H5</f>
+        <v>63510.562960000003</v>
+      </c>
+      <c r="I5" s="8">
+        <f>'Cumulative Somme'!I5</f>
+        <v>64673.568980000004</v>
+      </c>
+      <c r="J5" s="9">
+        <f>I5*fdc!J2</f>
+        <v>66187.338203656283</v>
+      </c>
+      <c r="K5" s="9">
+        <f>J5*fdc!K2</f>
+        <v>67351.208771552745</v>
+      </c>
+      <c r="L5" s="9">
+        <f>K5*fdc!L2</f>
+        <v>68453.228854418208</v>
+      </c>
+      <c r="M5" s="10">
+        <f>SUM(B5:I5)</f>
+        <v>358428.40081999998</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="0"/>
+        <v>560420.17664962728</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0.63957083587318475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="8">
+        <f>'Cumulative Somme'!B6</f>
+        <v>5070</v>
+      </c>
+      <c r="C6" s="8">
+        <f>'Cumulative Somme'!C6</f>
+        <v>19512</v>
+      </c>
+      <c r="D6" s="8">
+        <f>'Cumulative Somme'!D6</f>
+        <v>41560</v>
+      </c>
+      <c r="E6" s="8">
+        <f>'Cumulative Somme'!E6</f>
+        <v>51917</v>
+      </c>
+      <c r="F6" s="8">
+        <f>'Cumulative Somme'!F6</f>
+        <v>59168.44096</v>
+      </c>
+      <c r="G6" s="8">
+        <f>'Cumulative Somme'!G6</f>
+        <v>66278.589760000003</v>
+      </c>
+      <c r="H6" s="8">
+        <f>'Cumulative Somme'!H6</f>
+        <v>69647.559760000004</v>
+      </c>
+      <c r="I6" s="9">
+        <f>H6*fdc!I2</f>
+        <v>72782.18221460763</v>
+      </c>
+      <c r="J6" s="9">
+        <f>I6*fdc!J2</f>
+        <v>74485.744105572507</v>
+      </c>
+      <c r="K6" s="9">
+        <f>J6*fdc!K2</f>
+        <v>75795.537906700993</v>
+      </c>
+      <c r="L6" s="9">
+        <f>K6*fdc!L2</f>
+        <v>77035.726560895651</v>
+      </c>
+      <c r="M6" s="10">
+        <f>SUM(B6:H6)</f>
+        <v>313153.59048000001</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" si="0"/>
+        <v>613252.78126777685</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.51064357153442974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="8">
+        <f>'Cumulative Somme'!B7</f>
+        <v>3817</v>
+      </c>
+      <c r="C7" s="8">
+        <f>'Cumulative Somme'!C7</f>
+        <v>17940</v>
+      </c>
+      <c r="D7" s="8">
+        <f>'Cumulative Somme'!D7</f>
+        <v>27339</v>
+      </c>
+      <c r="E7" s="8">
+        <f>'Cumulative Somme'!E7</f>
+        <v>33666.672059999997</v>
+      </c>
+      <c r="F7" s="8">
+        <f>'Cumulative Somme'!F7</f>
+        <v>37893.961519999997</v>
+      </c>
+      <c r="G7" s="8">
+        <f>'Cumulative Somme'!G7</f>
+        <v>41649.414959999995</v>
+      </c>
+      <c r="H7" s="9">
+        <f>G7*fdc!H2</f>
+        <v>44085.745734825199</v>
+      </c>
+      <c r="I7" s="9">
+        <f>H7*fdc!I2</f>
+        <v>46069.909558865911</v>
+      </c>
+      <c r="J7" s="9">
+        <f>I7*fdc!J2</f>
+        <v>47148.235872485719</v>
+      </c>
+      <c r="K7" s="9">
+        <f>J7*fdc!K2</f>
+        <v>47977.313541259457</v>
+      </c>
+      <c r="L7" s="9">
+        <f>K7*fdc!L2</f>
+        <v>48762.332310911188</v>
+      </c>
+      <c r="M7" s="10">
+        <f>SUM(B7:G7)</f>
+        <v>162306.04853999999</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="0"/>
+        <v>396349.58555834746</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.40950225370200766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="8">
+        <f>'Cumulative Somme'!B8</f>
+        <v>7838</v>
+      </c>
+      <c r="C8" s="8">
+        <f>'Cumulative Somme'!C8</f>
+        <v>23756</v>
+      </c>
+      <c r="D8" s="8">
+        <f>'Cumulative Somme'!D8</f>
+        <v>34489.852959999997</v>
+      </c>
+      <c r="E8" s="8">
+        <f>'Cumulative Somme'!E8</f>
+        <v>42665.273329999996</v>
+      </c>
+      <c r="F8" s="8">
+        <f>'Cumulative Somme'!F8</f>
+        <v>51181.774579999998</v>
+      </c>
+      <c r="G8" s="9">
+        <f>F8*fdc!G2</f>
+        <v>57122.546888633973</v>
+      </c>
+      <c r="H8" s="9">
+        <f>G8*fdc!H2</f>
+        <v>60463.996439722083</v>
+      </c>
+      <c r="I8" s="9">
+        <f>H8*fdc!I2</f>
+        <v>63185.29495453553</v>
+      </c>
+      <c r="J8" s="9">
+        <f>I8*fdc!J2</f>
+        <v>64664.229183747455</v>
+      </c>
+      <c r="K8" s="9">
+        <f>J8*fdc!K2</f>
+        <v>65801.316656748721</v>
+      </c>
+      <c r="L8" s="9">
+        <f>K8*fdc!L2</f>
+        <v>66877.976953680991</v>
+      </c>
+      <c r="M8" s="10">
+        <f>SUM(B8:F8)</f>
+        <v>159930.90086999998</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="0"/>
+        <v>538046.26194706874</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.29724377285188436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="8">
+        <f>'Cumulative Somme'!B9</f>
+        <v>7690</v>
+      </c>
+      <c r="C9" s="8">
+        <f>'Cumulative Somme'!C9</f>
+        <v>29440.545599999994</v>
+      </c>
+      <c r="D9" s="8">
+        <f>'Cumulative Somme'!D9</f>
+        <v>43027.973869999994</v>
+      </c>
+      <c r="E9" s="8">
+        <f>'Cumulative Somme'!E9</f>
+        <v>56870.686200000004</v>
+      </c>
+      <c r="F9" s="9">
+        <f>E9*fdc!F2</f>
+        <v>66936.991881329348</v>
+      </c>
+      <c r="G9" s="9">
+        <f>F9*fdc!G2</f>
+        <v>74706.504194160501</v>
+      </c>
+      <c r="H9" s="9">
+        <f>G9*fdc!H2</f>
+        <v>79076.547697115893</v>
+      </c>
+      <c r="I9" s="9">
+        <f>H9*fdc!I2</f>
+        <v>82635.539898686038</v>
+      </c>
+      <c r="J9" s="9">
+        <f>I9*fdc!J2</f>
+        <v>84569.732476144316</v>
+      </c>
+      <c r="K9" s="9">
+        <f>J9*fdc!K2</f>
+        <v>86056.848067059938</v>
+      </c>
+      <c r="L9" s="9">
+        <f>K9*fdc!L2</f>
+        <v>87464.935265014705</v>
+      </c>
+      <c r="M9" s="10">
+        <f>SUM(B9:E9)</f>
+        <v>137029.20567</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="0"/>
+        <v>698476.30514951074</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.19618304108493489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="8">
+        <f>'Cumulative Somme'!B10</f>
+        <v>8935</v>
+      </c>
+      <c r="C10" s="8">
+        <f>'Cumulative Somme'!C10</f>
+        <v>27985.558659999999</v>
+      </c>
+      <c r="D10" s="8">
+        <f>'Cumulative Somme'!D10</f>
+        <v>42675.498189999998</v>
+      </c>
+      <c r="E10" s="9">
+        <f>D10*fdc!E2</f>
+        <v>56599.123367089174</v>
+      </c>
+      <c r="F10" s="9">
+        <f>E10*fdc!F2</f>
+        <v>66617.361499555918</v>
+      </c>
+      <c r="G10" s="9">
+        <f>F10*fdc!G2</f>
+        <v>74349.773666160807</v>
+      </c>
+      <c r="H10" s="9">
+        <f>G10*fdc!H2</f>
+        <v>78698.949803643729</v>
+      </c>
+      <c r="I10" s="9">
+        <f>H10*fdc!I2</f>
+        <v>82240.947485380457</v>
+      </c>
+      <c r="J10" s="9">
+        <f>I10*fdc!J2</f>
+        <v>84165.904112811986</v>
+      </c>
+      <c r="K10" s="9">
+        <f>J10*fdc!K2</f>
+        <v>85645.918588026019</v>
+      </c>
+      <c r="L10" s="9">
+        <f>K10*fdc!L2</f>
+        <v>87047.282038229314</v>
+      </c>
+      <c r="M10" s="10">
+        <f>SUM(B10:D10)</f>
+        <v>79596.056849999994</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="0"/>
+        <v>694961.31741089746</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.11453307523149327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="8">
+        <f>'Cumulative Somme'!B11</f>
+        <v>4979.9748699999936</v>
+      </c>
+      <c r="C11" s="8">
+        <f>'Cumulative Somme'!C11</f>
+        <v>21154.809329999993</v>
+      </c>
+      <c r="D11" s="9">
+        <f>C11*fdc!D2</f>
+        <v>35731.440767361688</v>
+      </c>
+      <c r="E11" s="9">
+        <f>D11*fdc!E2</f>
+        <v>47389.446165847883</v>
+      </c>
+      <c r="F11" s="9">
+        <f>E11*fdc!F2</f>
+        <v>55777.539980941074</v>
+      </c>
+      <c r="G11" s="9">
+        <f>F11*fdc!G2</f>
+        <v>62251.75209417216</v>
+      </c>
+      <c r="H11" s="9">
+        <f>G11*fdc!H2</f>
+        <v>65893.240445436648</v>
+      </c>
+      <c r="I11" s="9">
+        <f>H11*fdc!I2</f>
+        <v>68858.892534596438</v>
+      </c>
+      <c r="J11" s="9">
+        <f>I11*fdc!J2</f>
+        <v>70470.624714185324</v>
+      </c>
+      <c r="K11" s="9">
+        <f>J11*fdc!K2</f>
+        <v>71709.814689671999</v>
+      </c>
+      <c r="L11" s="9">
+        <f>K11*fdc!L2</f>
+        <v>72883.151551295741</v>
+      </c>
+      <c r="M11" s="10">
+        <f>SUM(B11:C11)</f>
+        <v>26134.784199999987</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="0"/>
+        <v>577100.68714350893</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>4.5286350860817795E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="8">
+        <f>'Cumulative Somme'!B12</f>
+        <v>5818.6407599999984</v>
+      </c>
+      <c r="C12" s="9">
+        <f>B12*fdc!C2</f>
+        <v>21710.35297931602</v>
+      </c>
+      <c r="D12" s="9">
+        <f>C12*fdc!D2</f>
+        <v>36669.779406560359</v>
+      </c>
+      <c r="E12" s="9">
+        <f>D12*fdc!E2</f>
+        <v>48633.934142617589</v>
+      </c>
+      <c r="F12" s="9">
+        <f>E12*fdc!F2</f>
+        <v>57242.306579756019</v>
+      </c>
+      <c r="G12" s="9">
+        <f>F12*fdc!G2</f>
+        <v>63886.537120840767</v>
+      </c>
+      <c r="H12" s="9">
+        <f>G12*fdc!H2</f>
+        <v>67623.654115977479</v>
+      </c>
+      <c r="I12" s="9">
+        <f>H12*fdc!I2</f>
+        <v>70667.186802334487</v>
+      </c>
+      <c r="J12" s="9">
+        <f>I12*fdc!J2</f>
+        <v>72321.244467480879</v>
+      </c>
+      <c r="K12" s="9">
+        <f>J12*fdc!K2</f>
+        <v>73592.976646985509</v>
+      </c>
+      <c r="L12" s="9">
+        <f>K12*fdc!L2</f>
+        <v>74797.126352715539</v>
+      </c>
+      <c r="M12" s="10">
+        <f>SUM(B12)</f>
+        <v>5818.6407599999984</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="0"/>
+        <v>592963.73937458463</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>9.8128104192966008E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EEA670-46BA-1D49-9194-BC40D2498B2F}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1935,70 +3304,565 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7">
-        <f>SUM('Cumulative Somme'!C2:C11)/SUM('Cumulative Somme'!B2:B12)</f>
-        <v>4.2748110827167141</v>
-      </c>
-      <c r="D2" s="7">
-        <f>SUM('Cumulative Somme'!D2:D11)/SUM('Cumulative Somme'!C2:C12)</f>
-        <v>2.0921282510173995</v>
-      </c>
-      <c r="E2" s="7">
-        <f>SUM('Cumulative Somme'!E2:E11)/SUM('Cumulative Somme'!D2:D12)</f>
-        <v>1.5041339273430179</v>
-      </c>
-      <c r="F2" s="7">
-        <f>SUM('Cumulative Somme'!F2:F11)/SUM('Cumulative Somme'!E2:E12)</f>
-        <v>1.2585880261349547</v>
-      </c>
-      <c r="G2" s="7">
-        <f>SUM('Cumulative Somme'!G2:G11)/SUM('Cumulative Somme'!F2:F12)</f>
-        <v>1.1665256020697206</v>
-      </c>
-      <c r="H2" s="7">
-        <f>SUM('Cumulative Somme'!H2:H11)/SUM('Cumulative Somme'!G2:G12)</f>
-        <v>1.1199590498108789</v>
-      </c>
-      <c r="I2" s="7">
-        <f>SUM('Cumulative Somme'!I2:I11)/SUM('Cumulative Somme'!H2:H12)</f>
-        <v>0.9498046778227166</v>
-      </c>
-      <c r="J2" s="7">
-        <f>SUM('Cumulative Somme'!J2:J11)/SUM('Cumulative Somme'!I2:I12)</f>
-        <v>0.86374778857055357</v>
-      </c>
-      <c r="K2" s="7">
-        <f>SUM('Cumulative Somme'!K2:K11)/SUM('Cumulative Somme'!J2:J12)</f>
-        <v>0.8044501134388945</v>
-      </c>
-      <c r="L2" s="7">
-        <f>SUM('Cumulative Somme'!L2:L11)/SUM('Cumulative Somme'!K2:K12)</f>
-        <v>0.59155285415887471</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="8">
+        <f>'Cumulative Somme'!B2</f>
+        <v>3504</v>
+      </c>
+      <c r="C2" s="8">
+        <f>'Cumulative Somme'!C2</f>
+        <v>17838.653549999995</v>
+      </c>
+      <c r="D2" s="8">
+        <f>'Cumulative Somme'!D2</f>
+        <v>29762.133099999995</v>
+      </c>
+      <c r="E2" s="8">
+        <f>'Cumulative Somme'!E2</f>
+        <v>37354.133099999992</v>
+      </c>
+      <c r="F2" s="8">
+        <f>'Cumulative Somme'!F2</f>
+        <v>48113.133099999992</v>
+      </c>
+      <c r="G2" s="8">
+        <f>'Cumulative Somme'!G2</f>
+        <v>54288.91958999999</v>
+      </c>
+      <c r="H2" s="8">
+        <f>'Cumulative Somme'!H2</f>
+        <v>60990.91958999999</v>
+      </c>
+      <c r="I2" s="8">
+        <f>'Cumulative Somme'!I2</f>
+        <v>64953.91958999999</v>
+      </c>
+      <c r="J2" s="8">
+        <f>'Cumulative Somme'!J2</f>
+        <v>67075.062649999993</v>
+      </c>
+      <c r="K2" s="8">
+        <f>'Cumulative Somme'!K2</f>
+        <v>67961.142739999996</v>
+      </c>
+      <c r="L2" s="8">
+        <f>'Cumulative Somme'!L2</f>
+        <v>69073.142739999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="8">
+        <f>'Cumulative Somme'!B3</f>
+        <v>4774.2421799999993</v>
+      </c>
+      <c r="C3" s="8">
+        <f>'Cumulative Somme'!C3</f>
+        <v>14225.851269999999</v>
+      </c>
+      <c r="D3" s="8">
+        <f>'Cumulative Somme'!D3</f>
+        <v>24891.851269999999</v>
+      </c>
+      <c r="E3" s="8">
+        <f>'Cumulative Somme'!E3</f>
+        <v>38451.851269999999</v>
+      </c>
+      <c r="F3" s="8">
+        <f>'Cumulative Somme'!F3</f>
+        <v>45605.978690000004</v>
+      </c>
+      <c r="G3" s="8">
+        <f>'Cumulative Somme'!G3</f>
+        <v>54219.978690000004</v>
+      </c>
+      <c r="H3" s="8">
+        <f>'Cumulative Somme'!H3</f>
+        <v>57611.978690000004</v>
+      </c>
+      <c r="I3" s="8">
+        <f>'Cumulative Somme'!I3</f>
+        <v>61752.559570000005</v>
+      </c>
+      <c r="J3" s="8">
+        <f>'Cumulative Somme'!J3</f>
+        <v>62906.742740000002</v>
+      </c>
+      <c r="K3" s="8">
+        <f>'Cumulative Somme'!K3</f>
+        <v>64306.326370000002</v>
+      </c>
+      <c r="L3" s="9">
+        <f>K3*fdc!L2</f>
+        <v>65358.525200690819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="8">
+        <f>'Cumulative Somme'!B4</f>
+        <v>3821.9183899999998</v>
+      </c>
+      <c r="C4" s="8">
+        <f>'Cumulative Somme'!C4</f>
+        <v>12489.918389999999</v>
+      </c>
+      <c r="D4" s="8">
+        <f>'Cumulative Somme'!D4</f>
+        <v>28284.918389999999</v>
+      </c>
+      <c r="E4" s="8">
+        <f>'Cumulative Somme'!E4</f>
+        <v>39782.62745</v>
+      </c>
+      <c r="F4" s="8">
+        <f>'Cumulative Somme'!F4</f>
+        <v>46485.62745</v>
+      </c>
+      <c r="G4" s="8">
+        <f>'Cumulative Somme'!G4</f>
+        <v>51429.62745</v>
+      </c>
+      <c r="H4" s="8">
+        <f>'Cumulative Somme'!H4</f>
+        <v>53462.045610000001</v>
+      </c>
+      <c r="I4" s="8">
+        <f>'Cumulative Somme'!I4</f>
+        <v>54797.987730000001</v>
+      </c>
+      <c r="J4" s="8">
+        <f>'Cumulative Somme'!J4</f>
+        <v>55771.010249999999</v>
+      </c>
+      <c r="K4" s="9">
+        <f>J4*fdc!K2</f>
+        <v>56751.715006128739</v>
+      </c>
+      <c r="L4" s="9">
+        <f>K4*fdc!L2</f>
+        <v>57680.303086647749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="8">
+        <f>'Cumulative Somme'!B5</f>
+        <v>4074</v>
+      </c>
+      <c r="C5" s="8">
+        <f>'Cumulative Somme'!C5</f>
+        <v>19021</v>
+      </c>
+      <c r="D5" s="8">
+        <f>'Cumulative Somme'!D5</f>
+        <v>35729</v>
+      </c>
+      <c r="E5" s="8">
+        <f>'Cumulative Somme'!E5</f>
+        <v>50865</v>
+      </c>
+      <c r="F5" s="8">
+        <f>'Cumulative Somme'!F5</f>
+        <v>58417</v>
+      </c>
+      <c r="G5" s="8">
+        <f>'Cumulative Somme'!G5</f>
+        <v>62138.268880000003</v>
+      </c>
+      <c r="H5" s="8">
+        <f>'Cumulative Somme'!H5</f>
+        <v>63510.562960000003</v>
+      </c>
+      <c r="I5" s="8">
+        <f>'Cumulative Somme'!I5</f>
+        <v>64673.568980000004</v>
+      </c>
+      <c r="J5" s="9">
+        <f>I5*fdc!J2</f>
+        <v>66187.338203656283</v>
+      </c>
+      <c r="K5" s="9">
+        <f>J5*fdc!K2</f>
+        <v>67351.208771552745</v>
+      </c>
+      <c r="L5" s="9">
+        <f>K5*fdc!L2</f>
+        <v>68453.228854418208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="8">
+        <f>'Cumulative Somme'!B6</f>
+        <v>5070</v>
+      </c>
+      <c r="C6" s="8">
+        <f>'Cumulative Somme'!C6</f>
+        <v>19512</v>
+      </c>
+      <c r="D6" s="8">
+        <f>'Cumulative Somme'!D6</f>
+        <v>41560</v>
+      </c>
+      <c r="E6" s="8">
+        <f>'Cumulative Somme'!E6</f>
+        <v>51917</v>
+      </c>
+      <c r="F6" s="8">
+        <f>'Cumulative Somme'!F6</f>
+        <v>59168.44096</v>
+      </c>
+      <c r="G6" s="8">
+        <f>'Cumulative Somme'!G6</f>
+        <v>66278.589760000003</v>
+      </c>
+      <c r="H6" s="8">
+        <f>'Cumulative Somme'!H6</f>
+        <v>69647.559760000004</v>
+      </c>
+      <c r="I6" s="9">
+        <f>H6*fdc!I2</f>
+        <v>72782.18221460763</v>
+      </c>
+      <c r="J6" s="9">
+        <f>I6*fdc!J2</f>
+        <v>74485.744105572507</v>
+      </c>
+      <c r="K6" s="9">
+        <f>J6*fdc!K2</f>
+        <v>75795.537906700993</v>
+      </c>
+      <c r="L6" s="9">
+        <f>K6*fdc!L2</f>
+        <v>77035.726560895651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="8">
+        <f>'Cumulative Somme'!B7</f>
+        <v>3817</v>
+      </c>
+      <c r="C7" s="8">
+        <f>'Cumulative Somme'!C7</f>
+        <v>17940</v>
+      </c>
+      <c r="D7" s="8">
+        <f>'Cumulative Somme'!D7</f>
+        <v>27339</v>
+      </c>
+      <c r="E7" s="8">
+        <f>'Cumulative Somme'!E7</f>
+        <v>33666.672059999997</v>
+      </c>
+      <c r="F7" s="8">
+        <f>'Cumulative Somme'!F7</f>
+        <v>37893.961519999997</v>
+      </c>
+      <c r="G7" s="8">
+        <f>'Cumulative Somme'!G7</f>
+        <v>41649.414959999995</v>
+      </c>
+      <c r="H7" s="9">
+        <f>G7*fdc!H2</f>
+        <v>44085.745734825199</v>
+      </c>
+      <c r="I7" s="9">
+        <f>H7*fdc!I2</f>
+        <v>46069.909558865911</v>
+      </c>
+      <c r="J7" s="9">
+        <f>I7*fdc!J2</f>
+        <v>47148.235872485719</v>
+      </c>
+      <c r="K7" s="9">
+        <f>J7*fdc!K2</f>
+        <v>47977.313541259457</v>
+      </c>
+      <c r="L7" s="9">
+        <f>K7*fdc!L2</f>
+        <v>48762.332310911188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="8">
+        <f>'Cumulative Somme'!B8</f>
+        <v>7838</v>
+      </c>
+      <c r="C8" s="8">
+        <f>'Cumulative Somme'!C8</f>
+        <v>23756</v>
+      </c>
+      <c r="D8" s="8">
+        <f>'Cumulative Somme'!D8</f>
+        <v>34489.852959999997</v>
+      </c>
+      <c r="E8" s="8">
+        <f>'Cumulative Somme'!E8</f>
+        <v>42665.273329999996</v>
+      </c>
+      <c r="F8" s="8">
+        <f>'Cumulative Somme'!F8</f>
+        <v>51181.774579999998</v>
+      </c>
+      <c r="G8" s="9">
+        <f>F8*fdc!G2</f>
+        <v>57122.546888633973</v>
+      </c>
+      <c r="H8" s="9">
+        <f>G8*fdc!H2</f>
+        <v>60463.996439722083</v>
+      </c>
+      <c r="I8" s="9">
+        <f>H8*fdc!I2</f>
+        <v>63185.29495453553</v>
+      </c>
+      <c r="J8" s="9">
+        <f>I8*fdc!J2</f>
+        <v>64664.229183747455</v>
+      </c>
+      <c r="K8" s="9">
+        <f>J8*fdc!K2</f>
+        <v>65801.316656748721</v>
+      </c>
+      <c r="L8" s="9">
+        <f>K8*fdc!L2</f>
+        <v>66877.976953680991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="8">
+        <f>'Cumulative Somme'!B9</f>
+        <v>7690</v>
+      </c>
+      <c r="C9" s="8">
+        <f>'Cumulative Somme'!C9</f>
+        <v>29440.545599999994</v>
+      </c>
+      <c r="D9" s="8">
+        <f>'Cumulative Somme'!D9</f>
+        <v>43027.973869999994</v>
+      </c>
+      <c r="E9" s="8">
+        <f>'Cumulative Somme'!E9</f>
+        <v>56870.686200000004</v>
+      </c>
+      <c r="F9" s="9">
+        <f>E9*fdc!F2</f>
+        <v>66936.991881329348</v>
+      </c>
+      <c r="G9" s="9">
+        <f>F9*fdc!G2</f>
+        <v>74706.504194160501</v>
+      </c>
+      <c r="H9" s="9">
+        <f>G9*fdc!H2</f>
+        <v>79076.547697115893</v>
+      </c>
+      <c r="I9" s="9">
+        <f>H9*fdc!I2</f>
+        <v>82635.539898686038</v>
+      </c>
+      <c r="J9" s="9">
+        <f>I9*fdc!J2</f>
+        <v>84569.732476144316</v>
+      </c>
+      <c r="K9" s="9">
+        <f>J9*fdc!K2</f>
+        <v>86056.848067059938</v>
+      </c>
+      <c r="L9" s="9">
+        <f>K9*fdc!L2</f>
+        <v>87464.935265014705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="8">
+        <f>'Cumulative Somme'!B10</f>
+        <v>8935</v>
+      </c>
+      <c r="C10" s="8">
+        <f>'Cumulative Somme'!C10</f>
+        <v>27985.558659999999</v>
+      </c>
+      <c r="D10" s="8">
+        <f>'Cumulative Somme'!D10</f>
+        <v>42675.498189999998</v>
+      </c>
+      <c r="E10" s="9">
+        <f>D10*fdc!E2</f>
+        <v>56599.123367089174</v>
+      </c>
+      <c r="F10" s="9">
+        <f>E10*fdc!F2</f>
+        <v>66617.361499555918</v>
+      </c>
+      <c r="G10" s="9">
+        <f>F10*fdc!G2</f>
+        <v>74349.773666160807</v>
+      </c>
+      <c r="H10" s="9">
+        <f>G10*fdc!H2</f>
+        <v>78698.949803643729</v>
+      </c>
+      <c r="I10" s="9">
+        <f>H10*fdc!I2</f>
+        <v>82240.947485380457</v>
+      </c>
+      <c r="J10" s="9">
+        <f>I10*fdc!J2</f>
+        <v>84165.904112811986</v>
+      </c>
+      <c r="K10" s="9">
+        <f>J10*fdc!K2</f>
+        <v>85645.918588026019</v>
+      </c>
+      <c r="L10" s="9">
+        <f>K10*fdc!L2</f>
+        <v>87047.282038229314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="8">
+        <f>'Cumulative Somme'!B11</f>
+        <v>4979.9748699999936</v>
+      </c>
+      <c r="C11" s="8">
+        <f>'Cumulative Somme'!C11</f>
+        <v>21154.809329999993</v>
+      </c>
+      <c r="D11" s="9">
+        <f>C11*fdc!D2</f>
+        <v>35731.440767361688</v>
+      </c>
+      <c r="E11" s="9">
+        <f>D11*fdc!E2</f>
+        <v>47389.446165847883</v>
+      </c>
+      <c r="F11" s="9">
+        <f>E11*fdc!F2</f>
+        <v>55777.539980941074</v>
+      </c>
+      <c r="G11" s="9">
+        <f>F11*fdc!G2</f>
+        <v>62251.75209417216</v>
+      </c>
+      <c r="H11" s="9">
+        <f>G11*fdc!H2</f>
+        <v>65893.240445436648</v>
+      </c>
+      <c r="I11" s="9">
+        <f>H11*fdc!I2</f>
+        <v>68858.892534596438</v>
+      </c>
+      <c r="J11" s="9">
+        <f>I11*fdc!J2</f>
+        <v>70470.624714185324</v>
+      </c>
+      <c r="K11" s="9">
+        <f>J11*fdc!K2</f>
+        <v>71709.814689671999</v>
+      </c>
+      <c r="L11" s="9">
+        <f>K11*fdc!L2</f>
+        <v>72883.151551295741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="8">
+        <f>'Cumulative Somme'!B12</f>
+        <v>5818.6407599999984</v>
+      </c>
+      <c r="C12" s="9">
+        <f>B12*fdc!C2</f>
+        <v>21710.35297931602</v>
+      </c>
+      <c r="D12" s="9">
+        <f>C12*fdc!D2</f>
+        <v>36669.779406560359</v>
+      </c>
+      <c r="E12" s="9">
+        <f>D12*fdc!E2</f>
+        <v>48633.934142617589</v>
+      </c>
+      <c r="F12" s="9">
+        <f>E12*fdc!F2</f>
+        <v>57242.306579756019</v>
+      </c>
+      <c r="G12" s="9">
+        <f>F12*fdc!G2</f>
+        <v>63886.537120840767</v>
+      </c>
+      <c r="H12" s="9">
+        <f>G12*fdc!H2</f>
+        <v>67623.654115977479</v>
+      </c>
+      <c r="I12" s="9">
+        <f>H12*fdc!I2</f>
+        <v>70667.186802334487</v>
+      </c>
+      <c r="J12" s="9">
+        <f>I12*fdc!J2</f>
+        <v>72321.244467480879</v>
+      </c>
+      <c r="K12" s="9">
+        <f>J12*fdc!K2</f>
+        <v>73592.976646985509</v>
+      </c>
+      <c r="L12" s="9">
+        <f>K12*fdc!L2</f>
+        <v>74797.126352715539</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C2:L2" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047027FB-03A8-5744-A2CF-F947B91DF9B7}">
-  <dimension ref="A1:L12"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669DADE9-5ADD-954E-81FC-C51BD67139AC}">
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -2034,181 +3898,854 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="8">
+        <f>'Cumulative Somme'!B2</f>
+        <v>3504</v>
+      </c>
+      <c r="C2" s="8">
+        <f>'Reglements  futurs'!C2-'Reglements  futurs'!B2</f>
+        <v>14334.653549999995</v>
+      </c>
+      <c r="D2" s="8">
+        <f>'Reglements  futurs'!D2-'Reglements  futurs'!C2</f>
+        <v>11923.47955</v>
+      </c>
+      <c r="E2" s="8">
+        <f>'Reglements  futurs'!E2-'Reglements  futurs'!D2</f>
+        <v>7591.9999999999964</v>
+      </c>
+      <c r="F2" s="8">
+        <f>'Reglements  futurs'!F2-'Reglements  futurs'!E2</f>
+        <v>10759</v>
+      </c>
+      <c r="G2" s="8">
+        <f>'Reglements  futurs'!G2-'Reglements  futurs'!F2</f>
+        <v>6175.7864899999986</v>
+      </c>
+      <c r="H2" s="8">
+        <f>'Reglements  futurs'!H2-'Reglements  futurs'!G2</f>
+        <v>6702</v>
+      </c>
+      <c r="I2" s="8">
+        <f>'Reglements  futurs'!I2-'Reglements  futurs'!H2</f>
+        <v>3963</v>
+      </c>
+      <c r="J2" s="8">
+        <f>'Reglements  futurs'!J2-'Reglements  futurs'!I2</f>
+        <v>2121.1430600000022</v>
+      </c>
+      <c r="K2" s="8">
+        <f>'Reglements  futurs'!K2-'Reglements  futurs'!J2</f>
+        <v>886.08009000000311</v>
+      </c>
+      <c r="L2" s="8">
+        <f>'Reglements  futurs'!L2-'Reglements  futurs'!K2</f>
+        <v>1112</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <f>'Cumulative Somme'!B3</f>
+        <v>4774.2421799999993</v>
+      </c>
+      <c r="C3" s="8">
+        <f>'Reglements  futurs'!C3-'Reglements  futurs'!B3</f>
+        <v>9451.6090899999999</v>
+      </c>
+      <c r="D3" s="8">
+        <f>'Reglements  futurs'!D3-'Reglements  futurs'!C3</f>
+        <v>10666</v>
+      </c>
+      <c r="E3" s="8">
+        <f>'Reglements  futurs'!E3-'Reglements  futurs'!D3</f>
+        <v>13560</v>
+      </c>
+      <c r="F3" s="8">
+        <f>'Reglements  futurs'!F3-'Reglements  futurs'!E3</f>
+        <v>7154.1274200000043</v>
+      </c>
+      <c r="G3" s="8">
+        <f>'Reglements  futurs'!G3-'Reglements  futurs'!F3</f>
+        <v>8614</v>
+      </c>
+      <c r="H3" s="8">
+        <f>'Reglements  futurs'!H3-'Reglements  futurs'!G3</f>
+        <v>3392</v>
+      </c>
+      <c r="I3" s="8">
+        <f>'Reglements  futurs'!I3-'Reglements  futurs'!H3</f>
+        <v>4140.5808800000013</v>
+      </c>
+      <c r="J3" s="8">
+        <f>'Reglements  futurs'!J3-'Reglements  futurs'!I3</f>
+        <v>1154.1831699999966</v>
+      </c>
+      <c r="K3" s="8">
+        <f>'Reglements  futurs'!K3-'Reglements  futurs'!J3</f>
+        <v>1399.583630000001</v>
+      </c>
+      <c r="L3" s="8">
+        <f>'Reglements  futurs'!L3-'Reglements  futurs'!K3</f>
+        <v>1052.198830690817</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="8">
+        <f>'Cumulative Somme'!B4</f>
+        <v>3821.9183899999998</v>
+      </c>
+      <c r="C4" s="8">
+        <f>'Reglements  futurs'!C4-'Reglements  futurs'!B4</f>
+        <v>8668</v>
+      </c>
+      <c r="D4" s="8">
+        <f>'Reglements  futurs'!D4-'Reglements  futurs'!C4</f>
+        <v>15795</v>
+      </c>
+      <c r="E4" s="8">
+        <f>'Reglements  futurs'!E4-'Reglements  futurs'!D4</f>
+        <v>11497.709060000001</v>
+      </c>
+      <c r="F4" s="8">
+        <f>'Reglements  futurs'!F4-'Reglements  futurs'!E4</f>
+        <v>6703</v>
+      </c>
+      <c r="G4" s="8">
+        <f>'Reglements  futurs'!G4-'Reglements  futurs'!F4</f>
+        <v>4944</v>
+      </c>
+      <c r="H4" s="8">
+        <f>'Reglements  futurs'!H4-'Reglements  futurs'!G4</f>
+        <v>2032.4181600000011</v>
+      </c>
+      <c r="I4" s="8">
+        <f>'Reglements  futurs'!I4-'Reglements  futurs'!H4</f>
+        <v>1335.9421199999997</v>
+      </c>
+      <c r="J4" s="8">
+        <f>'Reglements  futurs'!J4-'Reglements  futurs'!I4</f>
+        <v>973.02251999999862</v>
+      </c>
+      <c r="K4" s="8">
+        <f>'Reglements  futurs'!K4-'Reglements  futurs'!J4</f>
+        <v>980.70475612873997</v>
+      </c>
+      <c r="L4" s="8">
+        <f>'Reglements  futurs'!L4-'Reglements  futurs'!K4</f>
+        <v>928.58808051900996</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <f>'Cumulative Somme'!B5</f>
+        <v>4074</v>
+      </c>
+      <c r="C5" s="8">
+        <f>'Reglements  futurs'!C5-'Reglements  futurs'!B5</f>
+        <v>14947</v>
+      </c>
+      <c r="D5" s="8">
+        <f>'Reglements  futurs'!D5-'Reglements  futurs'!C5</f>
+        <v>16708</v>
+      </c>
+      <c r="E5" s="8">
+        <f>'Reglements  futurs'!E5-'Reglements  futurs'!D5</f>
+        <v>15136</v>
+      </c>
+      <c r="F5" s="8">
+        <f>'Reglements  futurs'!F5-'Reglements  futurs'!E5</f>
+        <v>7552</v>
+      </c>
+      <c r="G5" s="8">
+        <f>'Reglements  futurs'!G5-'Reglements  futurs'!F5</f>
+        <v>3721.2688800000033</v>
+      </c>
+      <c r="H5" s="8">
+        <f>'Reglements  futurs'!H5-'Reglements  futurs'!G5</f>
+        <v>1372.2940799999997</v>
+      </c>
+      <c r="I5" s="8">
+        <f>'Reglements  futurs'!I5-'Reglements  futurs'!H5</f>
+        <v>1163.0060200000007</v>
+      </c>
+      <c r="J5" s="8">
+        <f>'Reglements  futurs'!J5-'Reglements  futurs'!I5</f>
+        <v>1513.7692236562798</v>
+      </c>
+      <c r="K5" s="8">
+        <f>'Reglements  futurs'!K5-'Reglements  futurs'!J5</f>
+        <v>1163.8705678964616</v>
+      </c>
+      <c r="L5" s="8">
+        <f>'Reglements  futurs'!L5-'Reglements  futurs'!K5</f>
+        <v>1102.0200828654633</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <f>'Cumulative Somme'!B6</f>
+        <v>5070</v>
+      </c>
+      <c r="C6" s="8">
+        <f>'Reglements  futurs'!C6-'Reglements  futurs'!B6</f>
+        <v>14442</v>
+      </c>
+      <c r="D6" s="8">
+        <f>'Reglements  futurs'!D6-'Reglements  futurs'!C6</f>
+        <v>22048</v>
+      </c>
+      <c r="E6" s="8">
+        <f>'Reglements  futurs'!E6-'Reglements  futurs'!D6</f>
+        <v>10357</v>
+      </c>
+      <c r="F6" s="8">
+        <f>'Reglements  futurs'!F6-'Reglements  futurs'!E6</f>
+        <v>7251.4409599999999</v>
+      </c>
+      <c r="G6" s="8">
+        <f>'Reglements  futurs'!G6-'Reglements  futurs'!F6</f>
+        <v>7110.1488000000027</v>
+      </c>
+      <c r="H6" s="8">
+        <f>'Reglements  futurs'!H6-'Reglements  futurs'!G6</f>
+        <v>3368.9700000000012</v>
+      </c>
+      <c r="I6" s="8">
+        <f>'Reglements  futurs'!I6-'Reglements  futurs'!H6</f>
+        <v>3134.6224546076264</v>
+      </c>
+      <c r="J6" s="8">
+        <f>'Reglements  futurs'!J6-'Reglements  futurs'!I6</f>
+        <v>1703.5618909648765</v>
+      </c>
+      <c r="K6" s="8">
+        <f>'Reglements  futurs'!K6-'Reglements  futurs'!J6</f>
+        <v>1309.7938011284859</v>
+      </c>
+      <c r="L6" s="8">
+        <f>'Reglements  futurs'!L6-'Reglements  futurs'!K6</f>
+        <v>1240.1886541946587</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <f>'Cumulative Somme'!B7</f>
+        <v>3817</v>
+      </c>
+      <c r="C7" s="8">
+        <f>'Reglements  futurs'!C7-'Reglements  futurs'!B7</f>
+        <v>14123</v>
+      </c>
+      <c r="D7" s="8">
+        <f>'Reglements  futurs'!D7-'Reglements  futurs'!C7</f>
+        <v>9399</v>
+      </c>
+      <c r="E7" s="8">
+        <f>'Reglements  futurs'!E7-'Reglements  futurs'!D7</f>
+        <v>6327.6720599999971</v>
+      </c>
+      <c r="F7" s="8">
+        <f>'Reglements  futurs'!F7-'Reglements  futurs'!E7</f>
+        <v>4227.28946</v>
+      </c>
+      <c r="G7" s="8">
+        <f>'Reglements  futurs'!G7-'Reglements  futurs'!F7</f>
+        <v>3755.4534399999975</v>
+      </c>
+      <c r="H7" s="8">
+        <f>'Reglements  futurs'!H7-'Reglements  futurs'!G7</f>
+        <v>2436.3307748252046</v>
+      </c>
+      <c r="I7" s="8">
+        <f>'Reglements  futurs'!I7-'Reglements  futurs'!H7</f>
+        <v>1984.1638240407119</v>
+      </c>
+      <c r="J7" s="8">
+        <f>'Reglements  futurs'!J7-'Reglements  futurs'!I7</f>
+        <v>1078.3263136198075</v>
+      </c>
+      <c r="K7" s="8">
+        <f>'Reglements  futurs'!K7-'Reglements  futurs'!J7</f>
+        <v>829.07766877373797</v>
+      </c>
+      <c r="L7" s="8">
+        <f>'Reglements  futurs'!L7-'Reglements  futurs'!K7</f>
+        <v>785.01876965173142</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <f>'Cumulative Somme'!B8</f>
+        <v>7838</v>
+      </c>
+      <c r="C8" s="8">
+        <f>'Reglements  futurs'!C8-'Reglements  futurs'!B8</f>
+        <v>15918</v>
+      </c>
+      <c r="D8" s="8">
+        <f>'Reglements  futurs'!D8-'Reglements  futurs'!C8</f>
+        <v>10733.852959999997</v>
+      </c>
+      <c r="E8" s="8">
+        <f>'Reglements  futurs'!E8-'Reglements  futurs'!D8</f>
+        <v>8175.4203699999998</v>
+      </c>
+      <c r="F8" s="8">
+        <f>'Reglements  futurs'!F8-'Reglements  futurs'!E8</f>
+        <v>8516.5012500000012</v>
+      </c>
+      <c r="G8" s="8">
+        <f>'Reglements  futurs'!G8-'Reglements  futurs'!F8</f>
+        <v>5940.7723086339756</v>
+      </c>
+      <c r="H8" s="8">
+        <f>'Reglements  futurs'!H8-'Reglements  futurs'!G8</f>
+        <v>3341.4495510881097</v>
+      </c>
+      <c r="I8" s="8">
+        <f>'Reglements  futurs'!I8-'Reglements  futurs'!H8</f>
+        <v>2721.2985148134467</v>
+      </c>
+      <c r="J8" s="8">
+        <f>'Reglements  futurs'!J8-'Reglements  futurs'!I8</f>
+        <v>1478.9342292119254</v>
+      </c>
+      <c r="K8" s="8">
+        <f>'Reglements  futurs'!K8-'Reglements  futurs'!J8</f>
+        <v>1137.0874730012656</v>
+      </c>
+      <c r="L8" s="8">
+        <f>'Reglements  futurs'!L8-'Reglements  futurs'!K8</f>
+        <v>1076.6602969322703</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <f>'Cumulative Somme'!B9</f>
+        <v>7690</v>
+      </c>
+      <c r="C9" s="8">
+        <f>'Reglements  futurs'!C9-'Reglements  futurs'!B9</f>
+        <v>21750.545599999994</v>
+      </c>
+      <c r="D9" s="8">
+        <f>'Reglements  futurs'!D9-'Reglements  futurs'!C9</f>
+        <v>13587.42827</v>
+      </c>
+      <c r="E9" s="8">
+        <f>'Reglements  futurs'!E9-'Reglements  futurs'!D9</f>
+        <v>13842.712330000009</v>
+      </c>
+      <c r="F9" s="8">
+        <f>'Reglements  futurs'!F9-'Reglements  futurs'!E9</f>
+        <v>10066.305681329344</v>
+      </c>
+      <c r="G9" s="8">
+        <f>'Reglements  futurs'!G9-'Reglements  futurs'!F9</f>
+        <v>7769.5123128311534</v>
+      </c>
+      <c r="H9" s="8">
+        <f>'Reglements  futurs'!H9-'Reglements  futurs'!G9</f>
+        <v>4370.0435029553919</v>
+      </c>
+      <c r="I9" s="8">
+        <f>'Reglements  futurs'!I9-'Reglements  futurs'!H9</f>
+        <v>3558.992201570145</v>
+      </c>
+      <c r="J9" s="8">
+        <f>'Reglements  futurs'!J9-'Reglements  futurs'!I9</f>
+        <v>1934.1925774582778</v>
+      </c>
+      <c r="K9" s="8">
+        <f>'Reglements  futurs'!K9-'Reglements  futurs'!J9</f>
+        <v>1487.1155909156223</v>
+      </c>
+      <c r="L9" s="8">
+        <f>'Reglements  futurs'!L9-'Reglements  futurs'!K9</f>
+        <v>1408.0871979547665</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <f>'Cumulative Somme'!B10</f>
+        <v>8935</v>
+      </c>
+      <c r="C10" s="8">
+        <f>'Reglements  futurs'!C10-'Reglements  futurs'!B10</f>
+        <v>19050.558659999999</v>
+      </c>
+      <c r="D10" s="8">
+        <f>'Reglements  futurs'!D10-'Reglements  futurs'!C10</f>
+        <v>14689.93953</v>
+      </c>
+      <c r="E10" s="8">
+        <f>'Reglements  futurs'!E10-'Reglements  futurs'!D10</f>
+        <v>13923.625177089176</v>
+      </c>
+      <c r="F10" s="8">
+        <f>'Reglements  futurs'!F10-'Reglements  futurs'!E10</f>
+        <v>10018.238132466744</v>
+      </c>
+      <c r="G10" s="8">
+        <f>'Reglements  futurs'!G10-'Reglements  futurs'!F10</f>
+        <v>7732.4121666048886</v>
+      </c>
+      <c r="H10" s="8">
+        <f>'Reglements  futurs'!H10-'Reglements  futurs'!G10</f>
+        <v>4349.1761374829221</v>
+      </c>
+      <c r="I10" s="8">
+        <f>'Reglements  futurs'!I10-'Reglements  futurs'!H10</f>
+        <v>3541.9976817367278</v>
+      </c>
+      <c r="J10" s="8">
+        <f>'Reglements  futurs'!J10-'Reglements  futurs'!I10</f>
+        <v>1924.9566274315293</v>
+      </c>
+      <c r="K10" s="8">
+        <f>'Reglements  futurs'!K10-'Reglements  futurs'!J10</f>
+        <v>1480.0144752140332</v>
+      </c>
+      <c r="L10" s="8">
+        <f>'Reglements  futurs'!L10-'Reglements  futurs'!K10</f>
+        <v>1401.3634502032946</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <f>'Cumulative Somme'!B11</f>
+        <v>4979.9748699999936</v>
+      </c>
+      <c r="C11" s="8">
+        <f>'Reglements  futurs'!C11-'Reglements  futurs'!B11</f>
+        <v>16174.834459999998</v>
+      </c>
+      <c r="D11" s="8">
+        <f>'Reglements  futurs'!D11-'Reglements  futurs'!C11</f>
+        <v>14576.631437361695</v>
+      </c>
+      <c r="E11" s="8">
+        <f>'Reglements  futurs'!E11-'Reglements  futurs'!D11</f>
+        <v>11658.005398486195</v>
+      </c>
+      <c r="F11" s="8">
+        <f>'Reglements  futurs'!F11-'Reglements  futurs'!E11</f>
+        <v>8388.0938150931906</v>
+      </c>
+      <c r="G11" s="8">
+        <f>'Reglements  futurs'!G11-'Reglements  futurs'!F11</f>
+        <v>6474.2121132310858</v>
+      </c>
+      <c r="H11" s="8">
+        <f>'Reglements  futurs'!H11-'Reglements  futurs'!G11</f>
+        <v>3641.4883512644883</v>
+      </c>
+      <c r="I11" s="8">
+        <f>'Reglements  futurs'!I11-'Reglements  futurs'!H11</f>
+        <v>2965.6520891597902</v>
+      </c>
+      <c r="J11" s="8">
+        <f>'Reglements  futurs'!J11-'Reglements  futurs'!I11</f>
+        <v>1611.7321795888856</v>
+      </c>
+      <c r="K11" s="8">
+        <f>'Reglements  futurs'!K11-'Reglements  futurs'!J11</f>
+        <v>1239.1899754866754</v>
+      </c>
+      <c r="L11" s="8">
+        <f>'Reglements  futurs'!L11-'Reglements  futurs'!K11</f>
+        <v>1173.3368616237422</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="B12" s="8">
+        <f>'Cumulative Somme'!B12</f>
+        <v>5818.6407599999984</v>
+      </c>
+      <c r="C12" s="8">
+        <f>'Reglements  futurs'!C12-'Reglements  futurs'!B12</f>
+        <v>15891.712219316021</v>
+      </c>
+      <c r="D12" s="8">
+        <f>'Reglements  futurs'!D12-'Reglements  futurs'!C12</f>
+        <v>14959.42642724434</v>
+      </c>
+      <c r="E12" s="8">
+        <f>'Reglements  futurs'!E12-'Reglements  futurs'!D12</f>
+        <v>11964.154736057229</v>
+      </c>
+      <c r="F12" s="8">
+        <f>'Reglements  futurs'!F12-'Reglements  futurs'!E12</f>
+        <v>8608.3724371384305</v>
+      </c>
+      <c r="G12" s="8">
+        <f>'Reglements  futurs'!G12-'Reglements  futurs'!F12</f>
+        <v>6644.2305410847475</v>
+      </c>
+      <c r="H12" s="8">
+        <f>'Reglements  futurs'!H12-'Reglements  futurs'!G12</f>
+        <v>3737.1169951367119</v>
+      </c>
+      <c r="I12" s="8">
+        <f>'Reglements  futurs'!I12-'Reglements  futurs'!H12</f>
+        <v>3043.5326863570081</v>
+      </c>
+      <c r="J12" s="8">
+        <f>'Reglements  futurs'!J12-'Reglements  futurs'!I12</f>
+        <v>1654.0576651463925</v>
+      </c>
+      <c r="K12" s="8">
+        <f>'Reglements  futurs'!K12-'Reglements  futurs'!J12</f>
+        <v>1271.73217950463</v>
+      </c>
+      <c r="L12" s="8">
+        <f>'Reglements  futurs'!L12-'Reglements  futurs'!K12</f>
+        <v>1204.1497057300294</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D45D066-EADC-4940-B7D7-74684C89AA43}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="11">
+        <f>'Reglements  futurs'!L2-'Reglements  futurs'!L2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="11">
+        <f>'Reglements  futurs'!L3-'Reglements  futurs'!K3</f>
+        <v>1052.198830690817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="11">
+        <f>'Reglements  futurs'!L4-'Reglements  futurs'!J4</f>
+        <v>1909.2928366477499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="11">
+        <f>'Reglements  futurs'!L5-'Reglements  futurs'!I5</f>
+        <v>3779.6598744182047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="11">
+        <f>'Reglements  futurs'!L6-'Reglements  futurs'!H6</f>
+        <v>7388.1668008956476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="11">
+        <f>'Reglements  futurs'!L7-'Reglements  futurs'!G7</f>
+        <v>7112.9173509111934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="11">
+        <f>'Reglements  futurs'!L8-'Reglements  futurs'!F8</f>
+        <v>15696.202373680993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="11">
+        <f>'Reglements  futurs'!L9-'Reglements  futurs'!E9</f>
+        <v>30594.249065014701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="11">
+        <f>'Reglements  futurs'!L10-'Reglements  futurs'!D10</f>
+        <v>44371.783848229315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="11">
+        <f>'Reglements  futurs'!L11-'Reglements  futurs'!C11</f>
+        <v>51728.342221295752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="11">
+        <f>'Reglements  futurs'!L12-'Reglements  futurs'!B12</f>
+        <v>68978.485592715544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12">
+        <f>SUM(B2:B12)</f>
+        <v>232611.29879449995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Application Bs4/Data/TriangleRgle.xlsx
+++ b/Application Bs4/Data/TriangleRgle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdouloudoussdiakite/Desktop/PFE/Risk based solvency/Application Bs4/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15F7843-4C99-8B40-A028-D69A09AD98AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AAB519-7ECE-D846-9BFA-C66AE324FBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>fdc</t>
   </si>
@@ -100,18 +100,25 @@
   <si>
     <t>1/F</t>
   </si>
+  <si>
+    <t>Rglts</t>
+  </si>
+  <si>
+    <t>Charges</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#\ ##0.00"/>
-    <numFmt numFmtId="169" formatCode="#\ ###\ ##0.00"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.0000_)\ _M_A_D_ ;_ * \(#,##0.0000\)\ _M_A_D_ ;_ * &quot;-&quot;????_)\ _M_A_D_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="#\ ###\ ##0.00"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_)\ _M_A_D_ ;_ * \(#,##0.0000\)\ _M_A_D_ ;_ * &quot;-&quot;????_)\ _M_A_D_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="####\ ##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -217,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -239,10 +246,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,7 +257,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -569,7 +577,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="B2" sqref="B2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1175,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B90093-19E7-FE42-A77C-3B1A0DA36EB9}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1195,7 @@
     <col min="5" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -1223,7 +1231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -1260,8 +1268,11 @@
       <c r="L2" s="8">
         <v>69073.142739999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>69073.142739999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -1298,8 +1309,11 @@
       <c r="L3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>65358.525200690819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -1336,8 +1350,11 @@
       <c r="L4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>57680.303086647749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -1374,8 +1391,11 @@
       <c r="L5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>68453.228854418208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -1412,8 +1432,11 @@
       <c r="L6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>77035.726560895651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -1450,8 +1473,11 @@
       <c r="L7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>48762.332310911188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -1488,8 +1514,11 @@
       <c r="L8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>66877.976953680991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -1526,8 +1555,11 @@
       <c r="L9" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>87464.935265014705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -1564,8 +1596,11 @@
       <c r="L10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>87047.282038229314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -1602,8 +1637,11 @@
       <c r="L11" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>72883.151551295741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -1639,6 +1677,101 @@
       </c>
       <c r="L12" s="8">
         <v>0</v>
+      </c>
+      <c r="M12">
+        <v>74797.126352715539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="10">
+        <f>SUM(B2:B12)</f>
+        <v>60322.776199999993</v>
+      </c>
+      <c r="C13" s="10">
+        <f>SUM(C2:C12)</f>
+        <v>203364.33679999999</v>
+      </c>
+      <c r="D13" s="10">
+        <f>SUM(D2:D12)</f>
+        <v>307760.22778000002</v>
+      </c>
+      <c r="E13" s="10">
+        <f>SUM(E2:E12)</f>
+        <v>351573.24341</v>
+      </c>
+      <c r="F13" s="10">
+        <f>SUM(F2:F12)</f>
+        <v>346865.91630000004</v>
+      </c>
+      <c r="G13" s="10">
+        <f>SUM(G2:G12)</f>
+        <v>330004.79932999995</v>
+      </c>
+      <c r="H13" s="10">
+        <f>SUM(H2:H12)</f>
+        <v>305223.06660999998</v>
+      </c>
+      <c r="I13" s="10">
+        <f>SUM(I2:I12)</f>
+        <v>246178.03586999999</v>
+      </c>
+      <c r="J13" s="10">
+        <f>SUM(J2:J12)</f>
+        <v>185752.81563999999</v>
+      </c>
+      <c r="K13" s="10">
+        <f>SUM(K2:K12)</f>
+        <v>132267.46911000001</v>
+      </c>
+      <c r="L13" s="10">
+        <f>SUM(L2:L12)</f>
+        <v>69073.142739999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f>B13/SUM($M$2:$M$12)</f>
+        <v>7.7792303578100658E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:L14" si="0">C13/SUM($M$2:$M$12)</f>
+        <v>0.2622588219887782</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.39688785193422793</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.45338915421615156</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.44731858116479822</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.42557447035585116</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.39361592672792067</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.31747140478358143</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.23954698929711798</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.17057224084643791</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>8.9076783722755112E-2</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
@@ -1742,9 +1875,9 @@
         <f>IFERROR(IF('Cumulative Somme'!L2/'Cumulative Somme'!K2 =1,"",'Cumulative Somme'!L2/'Cumulative Somme'!K2),"")</f>
         <v>1.0163622910852779</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="4" t="str">
         <f>IFERROR(IF('Cumulative Somme'!M2/'Cumulative Somme'!L2 =1,"",'Cumulative Somme'!M2/'Cumulative Somme'!L2),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2244,16 +2377,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A6BB43-4DA8-B54E-AEFF-B6A6C5AF1249}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2508,6 +2642,48 @@
       <c r="L9">
         <f t="shared" si="0"/>
         <v>7.7792303578100658E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f>1-C9</f>
+        <v>1.6098876580521448E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:L10" si="1">1-D9</f>
+        <v>3.3101296880836406E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>5.521521683741959E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>9.5905719731940287E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.14586909636640955</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.23469912052740505</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.34978873502067487</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.50974347284895316</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.70974348831346756</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.92220769642189937</v>
       </c>
     </row>
   </sheetData>
@@ -2524,15 +2700,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047027FB-03A8-5744-A2CF-F947B91DF9B7}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -2567,8 +2743,14 @@
       <c r="L1" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -2624,12 +2806,8 @@
         <f>SUM(B2:L2)</f>
         <v>520915.15974999993</v>
       </c>
-      <c r="O2">
-        <f>M2/N2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -2685,12 +2863,8 @@
         <f t="shared" ref="N3:N12" si="0">SUM(B3:L3)</f>
         <v>494105.88594069087</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O12" si="1">M3/N3</f>
-        <v>0.86772364576013972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -2746,12 +2920,8 @@
         <f t="shared" si="0"/>
         <v>460757.69920277654</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="1"/>
-        <v>0.7516438286527346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -2807,12 +2977,8 @@
         <f t="shared" si="0"/>
         <v>560420.17664962728</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>0.63957083587318475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -2868,12 +3034,8 @@
         <f t="shared" si="0"/>
         <v>613252.78126777685</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>0.51064357153442974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -2929,12 +3091,8 @@
         <f t="shared" si="0"/>
         <v>396349.58555834746</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>0.40950225370200766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -2990,12 +3148,8 @@
         <f t="shared" si="0"/>
         <v>538046.26194706874</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>0.29724377285188436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -3051,12 +3205,8 @@
         <f t="shared" si="0"/>
         <v>698476.30514951074</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>0.19618304108493489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -3112,12 +3262,8 @@
         <f t="shared" si="0"/>
         <v>694961.31741089746</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0.11453307523149327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -3173,12 +3319,8 @@
         <f t="shared" si="0"/>
         <v>577100.68714350893</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>4.5286350860817795E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -3234,23 +3376,52 @@
         <f t="shared" si="0"/>
         <v>592963.73937458463</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>9.8128104192966008E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="10">
+        <f>SUM(B2:B12)</f>
+        <v>60322.776199999993</v>
+      </c>
+      <c r="C13" s="10">
+        <f>SUM(C2:C12)</f>
+        <v>225074.68977931602</v>
+      </c>
+      <c r="D13" s="10">
+        <f>SUM(D2:D12)</f>
+        <v>380161.44795392203</v>
+      </c>
+      <c r="E13" s="10">
+        <f>SUM(E2:E12)</f>
+        <v>504195.74708555464</v>
+      </c>
+      <c r="F13" s="10">
+        <f>SUM(F2:F12)</f>
+        <v>593440.11624158232</v>
+      </c>
+      <c r="G13" s="10">
+        <f>SUM(G2:G12)</f>
+        <v>662321.91329396819</v>
+      </c>
+      <c r="H13" s="10">
+        <f>SUM(H2:H12)</f>
+        <v>701065.20084672107</v>
+      </c>
+      <c r="I13" s="10">
+        <f>SUM(I2:I12)</f>
+        <v>732617.98931900656</v>
+      </c>
+      <c r="J13" s="10">
+        <f>SUM(J2:J12)</f>
+        <v>749765.86877608451</v>
+      </c>
+      <c r="K13" s="10">
+        <f>SUM(K2:K12)</f>
+        <v>762950.11898413394</v>
+      </c>
+      <c r="L13" s="10">
+        <f>SUM(L2:L12)</f>
+        <v>775433.73091449996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3851,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669DADE9-5ADD-954E-81FC-C51BD67139AC}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3946,7 +4117,10 @@
         <f>'Reglements  futurs'!L2-'Reglements  futurs'!K2</f>
         <v>1112</v>
       </c>
-      <c r="M2" s="10"/>
+      <c r="M2" s="10">
+        <f>SUM(B2:L2)</f>
+        <v>69073.142739999996</v>
+      </c>
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -3997,7 +4171,10 @@
         <f>'Reglements  futurs'!L3-'Reglements  futurs'!K3</f>
         <v>1052.198830690817</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M12" si="0">SUM(B3:L3)</f>
+        <v>65358.525200690819</v>
+      </c>
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4048,7 +4225,10 @@
         <f>'Reglements  futurs'!L4-'Reglements  futurs'!K4</f>
         <v>928.58808051900996</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="10">
+        <f t="shared" si="0"/>
+        <v>57680.303086647749</v>
+      </c>
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4099,7 +4279,10 @@
         <f>'Reglements  futurs'!L5-'Reglements  futurs'!K5</f>
         <v>1102.0200828654633</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="10">
+        <f t="shared" si="0"/>
+        <v>68453.228854418208</v>
+      </c>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4150,7 +4333,10 @@
         <f>'Reglements  futurs'!L6-'Reglements  futurs'!K6</f>
         <v>1240.1886541946587</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="10">
+        <f t="shared" si="0"/>
+        <v>77035.726560895651</v>
+      </c>
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4201,7 +4387,10 @@
         <f>'Reglements  futurs'!L7-'Reglements  futurs'!K7</f>
         <v>785.01876965173142</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="10">
+        <f t="shared" si="0"/>
+        <v>48762.332310911188</v>
+      </c>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4252,7 +4441,10 @@
         <f>'Reglements  futurs'!L8-'Reglements  futurs'!K8</f>
         <v>1076.6602969322703</v>
       </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="10">
+        <f t="shared" si="0"/>
+        <v>66877.976953680991</v>
+      </c>
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4303,7 +4495,10 @@
         <f>'Reglements  futurs'!L9-'Reglements  futurs'!K9</f>
         <v>1408.0871979547665</v>
       </c>
-      <c r="M9" s="10"/>
+      <c r="M9" s="10">
+        <f t="shared" si="0"/>
+        <v>87464.935265014705</v>
+      </c>
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -4354,7 +4549,10 @@
         <f>'Reglements  futurs'!L10-'Reglements  futurs'!K10</f>
         <v>1401.3634502032946</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="10">
+        <f t="shared" si="0"/>
+        <v>87047.282038229314</v>
+      </c>
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4405,7 +4603,10 @@
         <f>'Reglements  futurs'!L11-'Reglements  futurs'!K11</f>
         <v>1173.3368616237422</v>
       </c>
-      <c r="M11" s="10"/>
+      <c r="M11" s="10">
+        <f t="shared" si="0"/>
+        <v>72883.151551295741</v>
+      </c>
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -4456,8 +4657,70 @@
         <f>'Reglements  futurs'!L12-'Reglements  futurs'!K12</f>
         <v>1204.1497057300294</v>
       </c>
-      <c r="M12" s="10"/>
+      <c r="M12" s="10">
+        <f t="shared" si="0"/>
+        <v>74797.126352715539</v>
+      </c>
       <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="10">
+        <f>SUM(B2:B12)</f>
+        <v>60322.776199999993</v>
+      </c>
+      <c r="C13" s="10">
+        <f>SUM(C2:C12)</f>
+        <v>164751.91357931602</v>
+      </c>
+      <c r="D13" s="10">
+        <f>SUM(D2:D12)</f>
+        <v>155086.75817460608</v>
+      </c>
+      <c r="E13" s="10">
+        <f>SUM(E2:E12)</f>
+        <v>124034.29913163259</v>
+      </c>
+      <c r="F13" s="10">
+        <f>SUM(F2:F12)</f>
+        <v>89244.369156027708</v>
+      </c>
+      <c r="G13" s="10">
+        <f>SUM(G2:G12)</f>
+        <v>68881.797052385853</v>
+      </c>
+      <c r="H13" s="10">
+        <f>SUM(H2:H12)</f>
+        <v>38743.28755275283</v>
+      </c>
+      <c r="I13" s="10">
+        <f>SUM(I2:I12)</f>
+        <v>31552.788472285458</v>
+      </c>
+      <c r="J13" s="10">
+        <f>SUM(J2:J12)</f>
+        <v>17147.879457077972</v>
+      </c>
+      <c r="K13" s="10">
+        <f>SUM(K2:K12)</f>
+        <v>13184.250208049656</v>
+      </c>
+      <c r="L13" s="10">
+        <f>SUM(L2:L12)</f>
+        <v>12483.611930365783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
@@ -4622,10 +4885,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D45D066-EADC-4940-B7D7-74684C89AA43}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4633,13 +4896,13 @@
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -4648,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -4657,7 +4920,7 @@
         <v>1052.198830690817</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -4666,7 +4929,7 @@
         <v>1909.2928366477499</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -4675,7 +4938,7 @@
         <v>3779.6598744182047</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -4684,7 +4947,7 @@
         <v>7388.1668008956476</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -4693,7 +4956,7 @@
         <v>7112.9173509111934</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -4702,7 +4965,7 @@
         <v>15696.202373680993</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -4711,7 +4974,7 @@
         <v>30594.249065014701</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -4720,7 +4983,7 @@
         <v>44371.783848229315</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -4729,7 +4992,7 @@
         <v>51728.342221295752</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -4738,7 +5001,7 @@
         <v>68978.485592715544</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -4746,6 +5009,9 @@
         <f>SUM(B2:B12)</f>
         <v>232611.29879449995</v>
       </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Application Bs4/Data/TriangleRgle.xlsx
+++ b/Application Bs4/Data/TriangleRgle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdouloudoussdiakite/Desktop/PFE/Risk based solvency/Application Bs4/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AAB519-7ECE-D846-9BFA-C66AE324FBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3716608-E845-4D46-9E00-73E62AD8A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="triangle" sheetId="1" r:id="rId1"/>
@@ -27,64 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Microsoft Office User</author>
-  </authors>
-  <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{B92093ED-BD41-A048-831D-5B4197179A66}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Abdoul:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Facteurs cumulés
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>fdc</t>
   </si>
@@ -95,16 +43,13 @@
     <t>PSAP</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>1/F</t>
-  </si>
-  <si>
     <t>Rglts</t>
   </si>
   <si>
     <t>Charges</t>
+  </si>
+  <si>
+    <t>CF</t>
   </si>
 </sst>
 </file>
@@ -118,9 +63,9 @@
     <numFmt numFmtId="167" formatCode="#\ ##0.00"/>
     <numFmt numFmtId="168" formatCode="#\ ###\ ##0.00"/>
     <numFmt numFmtId="169" formatCode="_ * #,##0.0000_)\ _M_A_D_ ;_ * \(#,##0.0000\)\ _M_A_D_ ;_ * &quot;-&quot;????_)\ _M_A_D_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="####\ ##0.00"/>
+    <numFmt numFmtId="170" formatCode="####\ ##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,21 +95,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +124,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -258,7 +202,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -1183,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B90093-19E7-FE42-A77C-3B1A0DA36EB9}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1195,7 +1141,7 @@
     <col min="5" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -1231,7 +1177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -1268,11 +1214,8 @@
       <c r="L2" s="8">
         <v>69073.142739999996</v>
       </c>
-      <c r="M2">
-        <v>69073.142739999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -1309,11 +1252,8 @@
       <c r="L3" s="8">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>65358.525200690819</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -1350,11 +1290,8 @@
       <c r="L4" s="8">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>57680.303086647749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -1391,11 +1328,8 @@
       <c r="L5" s="8">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>68453.228854418208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -1432,11 +1366,8 @@
       <c r="L6" s="8">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>77035.726560895651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -1473,11 +1404,8 @@
       <c r="L7" s="8">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>48762.332310911188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -1514,11 +1442,8 @@
       <c r="L8" s="8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>66877.976953680991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -1555,11 +1480,8 @@
       <c r="L9" s="8">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>87464.935265014705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -1596,11 +1518,8 @@
       <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>87047.282038229314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -1637,11 +1556,8 @@
       <c r="L11" s="8">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>72883.151551295741</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -1678,101 +1594,19 @@
       <c r="L12" s="8">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>74797.126352715539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="10">
-        <f>SUM(B2:B12)</f>
-        <v>60322.776199999993</v>
-      </c>
-      <c r="C13" s="10">
-        <f>SUM(C2:C12)</f>
-        <v>203364.33679999999</v>
-      </c>
-      <c r="D13" s="10">
-        <f>SUM(D2:D12)</f>
-        <v>307760.22778000002</v>
-      </c>
-      <c r="E13" s="10">
-        <f>SUM(E2:E12)</f>
-        <v>351573.24341</v>
-      </c>
-      <c r="F13" s="10">
-        <f>SUM(F2:F12)</f>
-        <v>346865.91630000004</v>
-      </c>
-      <c r="G13" s="10">
-        <f>SUM(G2:G12)</f>
-        <v>330004.79932999995</v>
-      </c>
-      <c r="H13" s="10">
-        <f>SUM(H2:H12)</f>
-        <v>305223.06660999998</v>
-      </c>
-      <c r="I13" s="10">
-        <f>SUM(I2:I12)</f>
-        <v>246178.03586999999</v>
-      </c>
-      <c r="J13" s="10">
-        <f>SUM(J2:J12)</f>
-        <v>185752.81563999999</v>
-      </c>
-      <c r="K13" s="10">
-        <f>SUM(K2:K12)</f>
-        <v>132267.46911000001</v>
-      </c>
-      <c r="L13" s="10">
-        <f>SUM(L2:L12)</f>
-        <v>69073.142739999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <f>B13/SUM($M$2:$M$12)</f>
-        <v>7.7792303578100658E-2</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:L14" si="0">C13/SUM($M$2:$M$12)</f>
-        <v>0.2622588219887782</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.39688785193422793</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.45338915421615156</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.44731858116479822</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0.42557447035585116</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0.39361592672792067</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0.31747140478358143</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0.23954698929711798</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>0.17057224084643791</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>8.9076783722755112E-2</v>
-      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="5"/>
@@ -1875,9 +1709,9 @@
         <f>IFERROR(IF('Cumulative Somme'!L2/'Cumulative Somme'!K2 =1,"",'Cumulative Somme'!L2/'Cumulative Somme'!K2),"")</f>
         <v>1.0163622910852779</v>
       </c>
-      <c r="L2" s="4" t="str">
+      <c r="L2" s="4">
         <f>IFERROR(IF('Cumulative Somme'!M2/'Cumulative Somme'!L2 =1,"",'Cumulative Somme'!M2/'Cumulative Somme'!L2),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2376,11 +2210,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A6BB43-4DA8-B54E-AEFF-B6A6C5AF1249}">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A6BB43-4DA8-B54E-AEFF-B6A6C5AF1249}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L4"/>
+      <selection activeCell="L7" sqref="A7:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2473,46 +2307,16 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="16">
-        <f>PRODUCT(C2:$L2)</f>
-        <v>12.854742101781781</v>
-      </c>
-      <c r="D3" s="16">
-        <f>PRODUCT(D2:$L2)</f>
-        <v>3.4452284780434743</v>
-      </c>
-      <c r="E3" s="16">
-        <f>PRODUCT(E2:$L2)</f>
-        <v>2.039748467626016</v>
-      </c>
-      <c r="F3" s="16">
-        <f>PRODUCT(F2:$L2)</f>
-        <v>1.5379616654777539</v>
-      </c>
-      <c r="G3" s="16">
-        <f>PRODUCT(G2:$L2)</f>
-        <v>1.3066756184693624</v>
-      </c>
-      <c r="H3" s="16">
-        <f>PRODUCT(H2:$L2)</f>
-        <v>1.1707807266378751</v>
-      </c>
-      <c r="I3" s="16">
-        <f>PRODUCT(I2:$L2)</f>
-        <v>1.1060793346723803</v>
-      </c>
-      <c r="J3" s="16">
-        <f>PRODUCT(J2:$L2)</f>
-        <v>1.0584421106493604</v>
-      </c>
-      <c r="K3" s="16">
-        <f>PRODUCT(K2:$L2)</f>
-        <v>1.0342345033394433</v>
-      </c>
-      <c r="L3" s="16">
-        <f>PRODUCT($L2:L2)</f>
-        <v>1.0163622910852779</v>
-      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="16"/>
@@ -2526,189 +2330,25 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
-        <v>2011</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2014</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2015</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2016</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2017</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2018</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2019</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2020</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1.0163622910852779</v>
-      </c>
-      <c r="D8">
-        <v>1.0342345033394433</v>
-      </c>
-      <c r="E8">
-        <v>1.0584421106493604</v>
-      </c>
-      <c r="F8">
-        <v>1.1060793346723803</v>
-      </c>
-      <c r="G8">
-        <v>1.1707807266378751</v>
-      </c>
-      <c r="H8">
-        <v>1.3066756184693624</v>
-      </c>
-      <c r="I8">
-        <v>1.5379616654777539</v>
-      </c>
-      <c r="J8">
-        <v>2.039748467626016</v>
-      </c>
-      <c r="K8">
-        <v>3.4452284780434743</v>
-      </c>
-      <c r="L8">
-        <v>12.854742101781781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <f>1/C8</f>
-        <v>0.98390112341947855</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:L9" si="0">1/D8</f>
-        <v>0.96689870311916359</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.94478478316258041</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.90409428026805971</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0.85413090363359045</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0.76530087947259495</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0.65021126497932513</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0.49025652715104678</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0.29025651168653244</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>7.7792303578100658E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <f>1-C9</f>
-        <v>1.6098876580521448E-2</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:L10" si="1">1-D9</f>
-        <v>3.3101296880836406E-2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>5.521521683741959E-2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>9.5905719731940287E-2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0.14586909636640955</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>0.23469912052740505</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0.34978873502067487</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0.50974347284895316</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0.70974348831346756</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>0.92220769642189937</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="C8:L9">
-    <sortCondition descending="1" ref="C9:L9"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D2 E2:K2" formulaRange="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047027FB-03A8-5744-A2CF-F947B91DF9B7}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -2744,13 +2384,13 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -2799,15 +2439,19 @@
         <v>69073.142739999996</v>
       </c>
       <c r="M2" s="10">
-        <f>SUM(B2:L2)</f>
-        <v>520915.15974999993</v>
+        <f>L2</f>
+        <v>69073.142739999996</v>
       </c>
       <c r="N2" s="10">
-        <f>SUM(B2:L2)</f>
-        <v>520915.15974999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <f>L2</f>
+        <v>69073.142739999996</v>
+      </c>
+      <c r="O2" t="e">
+        <f>M2/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -2856,15 +2500,19 @@
         <v>65358.525200690819</v>
       </c>
       <c r="M3" s="10">
-        <f>SUM(B3:K3)</f>
-        <v>428747.36074000003</v>
+        <f>K3</f>
+        <v>64306.326370000002</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N12" si="0">SUM(B3:L3)</f>
-        <v>494105.88594069087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="N3:N13" si="0">L3</f>
+        <v>65358.525200690819</v>
+      </c>
+      <c r="O3" t="e">
+        <f>M3/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -2913,15 +2561,19 @@
         <v>57680.303086647749</v>
       </c>
       <c r="M4" s="10">
-        <f>SUM(B4:J4)</f>
-        <v>346325.68111</v>
+        <f>J4</f>
+        <v>55771.010249999999</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" si="0"/>
-        <v>460757.69920277654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>57680.303086647749</v>
+      </c>
+      <c r="O4" t="e">
+        <f>M4/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -2970,15 +2622,19 @@
         <v>68453.228854418208</v>
       </c>
       <c r="M5" s="10">
-        <f>SUM(B5:I5)</f>
-        <v>358428.40081999998</v>
+        <f>I5</f>
+        <v>64673.568980000004</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="0"/>
-        <v>560420.17664962728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>68453.228854418208</v>
+      </c>
+      <c r="O5" t="e">
+        <f>M5/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -3027,15 +2683,19 @@
         <v>77035.726560895651</v>
       </c>
       <c r="M6" s="10">
-        <f>SUM(B6:H6)</f>
-        <v>313153.59048000001</v>
+        <f>I5</f>
+        <v>64673.568980000004</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" si="0"/>
-        <v>613252.78126777685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>77035.726560895651</v>
+      </c>
+      <c r="O6" t="e">
+        <f>M6/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -3084,15 +2744,19 @@
         <v>48762.332310911188</v>
       </c>
       <c r="M7" s="10">
-        <f>SUM(B7:G7)</f>
-        <v>162306.04853999999</v>
+        <f>G7</f>
+        <v>41649.414959999995</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" si="0"/>
-        <v>396349.58555834746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>48762.332310911188</v>
+      </c>
+      <c r="O7" t="e">
+        <f>M7/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -3141,15 +2805,19 @@
         <v>66877.976953680991</v>
       </c>
       <c r="M8" s="10">
-        <f>SUM(B8:F8)</f>
-        <v>159930.90086999998</v>
+        <f>F8</f>
+        <v>51181.774579999998</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" si="0"/>
-        <v>538046.26194706874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>66877.976953680991</v>
+      </c>
+      <c r="O8" t="e">
+        <f>M8/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -3198,15 +2866,19 @@
         <v>87464.935265014705</v>
       </c>
       <c r="M9" s="10">
-        <f>SUM(B9:E9)</f>
-        <v>137029.20567</v>
+        <f>E9</f>
+        <v>56870.686200000004</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" si="0"/>
-        <v>698476.30514951074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>87464.935265014705</v>
+      </c>
+      <c r="O9" t="e">
+        <f>M9/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -3255,15 +2927,19 @@
         <v>87047.282038229314</v>
       </c>
       <c r="M10" s="10">
-        <f>SUM(B10:D10)</f>
-        <v>79596.056849999994</v>
+        <f>D10</f>
+        <v>42675.498189999998</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="0"/>
-        <v>694961.31741089746</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>87047.282038229314</v>
+      </c>
+      <c r="O10" t="e">
+        <f>M10/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -3312,15 +2988,19 @@
         <v>72883.151551295741</v>
       </c>
       <c r="M11" s="10">
-        <f>SUM(B11:C11)</f>
-        <v>26134.784199999987</v>
+        <f>C11</f>
+        <v>21154.809329999993</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="0"/>
-        <v>577100.68714350893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>72883.151551295741</v>
+      </c>
+      <c r="O11" t="e">
+        <f>M11/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -3369,59 +3049,67 @@
         <v>74797.126352715539</v>
       </c>
       <c r="M12" s="10">
-        <f>SUM(B12)</f>
+        <f>B12</f>
         <v>5818.6407599999984</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="0"/>
-        <v>592963.73937458463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>74797.126352715539</v>
+      </c>
+      <c r="O12" t="e">
+        <f>M12/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
-        <f>SUM(B2:B12)</f>
+        <f t="shared" ref="B13:L13" si="1">SUM(B2:B12)</f>
         <v>60322.776199999993</v>
       </c>
       <c r="C13" s="10">
-        <f>SUM(C2:C12)</f>
+        <f t="shared" si="1"/>
         <v>225074.68977931602</v>
       </c>
       <c r="D13" s="10">
-        <f>SUM(D2:D12)</f>
+        <f t="shared" si="1"/>
         <v>380161.44795392203</v>
       </c>
       <c r="E13" s="10">
-        <f>SUM(E2:E12)</f>
+        <f t="shared" si="1"/>
         <v>504195.74708555464</v>
       </c>
       <c r="F13" s="10">
-        <f>SUM(F2:F12)</f>
+        <f t="shared" si="1"/>
         <v>593440.11624158232</v>
       </c>
       <c r="G13" s="10">
-        <f>SUM(G2:G12)</f>
+        <f t="shared" si="1"/>
         <v>662321.91329396819</v>
       </c>
       <c r="H13" s="10">
-        <f>SUM(H2:H12)</f>
+        <f t="shared" si="1"/>
         <v>701065.20084672107</v>
       </c>
       <c r="I13" s="10">
-        <f>SUM(I2:I12)</f>
+        <f t="shared" si="1"/>
         <v>732617.98931900656</v>
       </c>
       <c r="J13" s="10">
-        <f>SUM(J2:J12)</f>
+        <f t="shared" si="1"/>
         <v>749765.86877608451</v>
       </c>
       <c r="K13" s="10">
-        <f>SUM(K2:K12)</f>
+        <f t="shared" si="1"/>
         <v>762950.11898413394</v>
       </c>
       <c r="L13" s="10">
-        <f>SUM(L2:L12)</f>
+        <f t="shared" si="1"/>
         <v>775433.73091449996</v>
       </c>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4022,8 +3710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669DADE9-5ADD-954E-81FC-C51BD67139AC}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4117,10 +3805,7 @@
         <f>'Reglements  futurs'!L2-'Reglements  futurs'!K2</f>
         <v>1112</v>
       </c>
-      <c r="M2" s="10">
-        <f>SUM(B2:L2)</f>
-        <v>69073.142739999996</v>
-      </c>
+      <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -4167,14 +3852,11 @@
         <f>'Reglements  futurs'!K3-'Reglements  futurs'!J3</f>
         <v>1399.583630000001</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="9">
         <f>'Reglements  futurs'!L3-'Reglements  futurs'!K3</f>
         <v>1052.198830690817</v>
       </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M12" si="0">SUM(B3:L3)</f>
-        <v>65358.525200690819</v>
-      </c>
+      <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4217,18 +3899,15 @@
         <f>'Reglements  futurs'!J4-'Reglements  futurs'!I4</f>
         <v>973.02251999999862</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="9">
         <f>'Reglements  futurs'!K4-'Reglements  futurs'!J4</f>
         <v>980.70475612873997</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="9">
         <f>'Reglements  futurs'!L4-'Reglements  futurs'!K4</f>
         <v>928.58808051900996</v>
       </c>
-      <c r="M4" s="10">
-        <f t="shared" si="0"/>
-        <v>57680.303086647749</v>
-      </c>
+      <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4267,22 +3946,19 @@
         <f>'Reglements  futurs'!I5-'Reglements  futurs'!H5</f>
         <v>1163.0060200000007</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="9">
         <f>'Reglements  futurs'!J5-'Reglements  futurs'!I5</f>
         <v>1513.7692236562798</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <f>'Reglements  futurs'!K5-'Reglements  futurs'!J5</f>
         <v>1163.8705678964616</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="9">
         <f>'Reglements  futurs'!L5-'Reglements  futurs'!K5</f>
         <v>1102.0200828654633</v>
       </c>
-      <c r="M5" s="10">
-        <f t="shared" si="0"/>
-        <v>68453.228854418208</v>
-      </c>
+      <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4317,26 +3993,23 @@
         <f>'Reglements  futurs'!H6-'Reglements  futurs'!G6</f>
         <v>3368.9700000000012</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <f>'Reglements  futurs'!I6-'Reglements  futurs'!H6</f>
         <v>3134.6224546076264</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <f>'Reglements  futurs'!J6-'Reglements  futurs'!I6</f>
         <v>1703.5618909648765</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <f>'Reglements  futurs'!K6-'Reglements  futurs'!J6</f>
         <v>1309.7938011284859</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="9">
         <f>'Reglements  futurs'!L6-'Reglements  futurs'!K6</f>
         <v>1240.1886541946587</v>
       </c>
-      <c r="M6" s="10">
-        <f t="shared" si="0"/>
-        <v>77035.726560895651</v>
-      </c>
+      <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4367,30 +4040,27 @@
         <f>'Reglements  futurs'!G7-'Reglements  futurs'!F7</f>
         <v>3755.4534399999975</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <f>'Reglements  futurs'!H7-'Reglements  futurs'!G7</f>
         <v>2436.3307748252046</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <f>'Reglements  futurs'!I7-'Reglements  futurs'!H7</f>
         <v>1984.1638240407119</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <f>'Reglements  futurs'!J7-'Reglements  futurs'!I7</f>
         <v>1078.3263136198075</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="9">
         <f>'Reglements  futurs'!K7-'Reglements  futurs'!J7</f>
         <v>829.07766877373797</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="9">
         <f>'Reglements  futurs'!L7-'Reglements  futurs'!K7</f>
         <v>785.01876965173142</v>
       </c>
-      <c r="M7" s="10">
-        <f t="shared" si="0"/>
-        <v>48762.332310911188</v>
-      </c>
+      <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4417,34 +4087,31 @@
         <f>'Reglements  futurs'!F8-'Reglements  futurs'!E8</f>
         <v>8516.5012500000012</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <f>'Reglements  futurs'!G8-'Reglements  futurs'!F8</f>
         <v>5940.7723086339756</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <f>'Reglements  futurs'!H8-'Reglements  futurs'!G8</f>
         <v>3341.4495510881097</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <f>'Reglements  futurs'!I8-'Reglements  futurs'!H8</f>
         <v>2721.2985148134467</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="9">
         <f>'Reglements  futurs'!J8-'Reglements  futurs'!I8</f>
         <v>1478.9342292119254</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="9">
         <f>'Reglements  futurs'!K8-'Reglements  futurs'!J8</f>
         <v>1137.0874730012656</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="9">
         <f>'Reglements  futurs'!L8-'Reglements  futurs'!K8</f>
         <v>1076.6602969322703</v>
       </c>
-      <c r="M8" s="10">
-        <f t="shared" si="0"/>
-        <v>66877.976953680991</v>
-      </c>
+      <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4467,38 +4134,35 @@
         <f>'Reglements  futurs'!E9-'Reglements  futurs'!D9</f>
         <v>13842.712330000009</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <f>'Reglements  futurs'!F9-'Reglements  futurs'!E9</f>
         <v>10066.305681329344</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <f>'Reglements  futurs'!G9-'Reglements  futurs'!F9</f>
         <v>7769.5123128311534</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="9">
         <f>'Reglements  futurs'!H9-'Reglements  futurs'!G9</f>
         <v>4370.0435029553919</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <f>'Reglements  futurs'!I9-'Reglements  futurs'!H9</f>
         <v>3558.992201570145</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="9">
         <f>'Reglements  futurs'!J9-'Reglements  futurs'!I9</f>
         <v>1934.1925774582778</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="9">
         <f>'Reglements  futurs'!K9-'Reglements  futurs'!J9</f>
         <v>1487.1155909156223</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="9">
         <f>'Reglements  futurs'!L9-'Reglements  futurs'!K9</f>
         <v>1408.0871979547665</v>
       </c>
-      <c r="M9" s="10">
-        <f t="shared" si="0"/>
-        <v>87464.935265014705</v>
-      </c>
+      <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -4517,42 +4181,39 @@
         <f>'Reglements  futurs'!D10-'Reglements  futurs'!C10</f>
         <v>14689.93953</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <f>'Reglements  futurs'!E10-'Reglements  futurs'!D10</f>
         <v>13923.625177089176</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <f>'Reglements  futurs'!F10-'Reglements  futurs'!E10</f>
         <v>10018.238132466744</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <f>'Reglements  futurs'!G10-'Reglements  futurs'!F10</f>
         <v>7732.4121666048886</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <f>'Reglements  futurs'!H10-'Reglements  futurs'!G10</f>
         <v>4349.1761374829221</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <f>'Reglements  futurs'!I10-'Reglements  futurs'!H10</f>
         <v>3541.9976817367278</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="9">
         <f>'Reglements  futurs'!J10-'Reglements  futurs'!I10</f>
         <v>1924.9566274315293</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="9">
         <f>'Reglements  futurs'!K10-'Reglements  futurs'!J10</f>
         <v>1480.0144752140332</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="9">
         <f>'Reglements  futurs'!L10-'Reglements  futurs'!K10</f>
         <v>1401.3634502032946</v>
       </c>
-      <c r="M10" s="10">
-        <f t="shared" si="0"/>
-        <v>87047.282038229314</v>
-      </c>
+      <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4567,46 +4228,43 @@
         <f>'Reglements  futurs'!C11-'Reglements  futurs'!B11</f>
         <v>16174.834459999998</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <f>'Reglements  futurs'!D11-'Reglements  futurs'!C11</f>
         <v>14576.631437361695</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <f>'Reglements  futurs'!E11-'Reglements  futurs'!D11</f>
         <v>11658.005398486195</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="9">
         <f>'Reglements  futurs'!F11-'Reglements  futurs'!E11</f>
         <v>8388.0938150931906</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <f>'Reglements  futurs'!G11-'Reglements  futurs'!F11</f>
         <v>6474.2121132310858</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="9">
         <f>'Reglements  futurs'!H11-'Reglements  futurs'!G11</f>
         <v>3641.4883512644883</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="9">
         <f>'Reglements  futurs'!I11-'Reglements  futurs'!H11</f>
         <v>2965.6520891597902</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="9">
         <f>'Reglements  futurs'!J11-'Reglements  futurs'!I11</f>
         <v>1611.7321795888856</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="9">
         <f>'Reglements  futurs'!K11-'Reglements  futurs'!J11</f>
         <v>1239.1899754866754</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="9">
         <f>'Reglements  futurs'!L11-'Reglements  futurs'!K11</f>
         <v>1173.3368616237422</v>
       </c>
-      <c r="M11" s="10">
-        <f t="shared" si="0"/>
-        <v>72883.151551295741</v>
-      </c>
+      <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -4617,97 +4275,61 @@
         <f>'Cumulative Somme'!B12</f>
         <v>5818.6407599999984</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <f>'Reglements  futurs'!C12-'Reglements  futurs'!B12</f>
         <v>15891.712219316021</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <f>'Reglements  futurs'!D12-'Reglements  futurs'!C12</f>
         <v>14959.42642724434</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <f>'Reglements  futurs'!E12-'Reglements  futurs'!D12</f>
         <v>11964.154736057229</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <f>'Reglements  futurs'!F12-'Reglements  futurs'!E12</f>
         <v>8608.3724371384305</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <f>'Reglements  futurs'!G12-'Reglements  futurs'!F12</f>
         <v>6644.2305410847475</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <f>'Reglements  futurs'!H12-'Reglements  futurs'!G12</f>
         <v>3737.1169951367119</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <f>'Reglements  futurs'!I12-'Reglements  futurs'!H12</f>
         <v>3043.5326863570081</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="9">
         <f>'Reglements  futurs'!J12-'Reglements  futurs'!I12</f>
         <v>1654.0576651463925</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="9">
         <f>'Reglements  futurs'!K12-'Reglements  futurs'!J12</f>
         <v>1271.73217950463</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="9">
         <f>'Reglements  futurs'!L12-'Reglements  futurs'!K12</f>
         <v>1204.1497057300294</v>
       </c>
-      <c r="M12" s="10">
-        <f t="shared" si="0"/>
-        <v>74797.126352715539</v>
-      </c>
+      <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="10">
-        <f>SUM(B2:B12)</f>
-        <v>60322.776199999993</v>
-      </c>
-      <c r="C13" s="10">
-        <f>SUM(C2:C12)</f>
-        <v>164751.91357931602</v>
-      </c>
-      <c r="D13" s="10">
-        <f>SUM(D2:D12)</f>
-        <v>155086.75817460608</v>
-      </c>
-      <c r="E13" s="10">
-        <f>SUM(E2:E12)</f>
-        <v>124034.29913163259</v>
-      </c>
-      <c r="F13" s="10">
-        <f>SUM(F2:F12)</f>
-        <v>89244.369156027708</v>
-      </c>
-      <c r="G13" s="10">
-        <f>SUM(G2:G12)</f>
-        <v>68881.797052385853</v>
-      </c>
-      <c r="H13" s="10">
-        <f>SUM(H2:H12)</f>
-        <v>38743.28755275283</v>
-      </c>
-      <c r="I13" s="10">
-        <f>SUM(I2:I12)</f>
-        <v>31552.788472285458</v>
-      </c>
-      <c r="J13" s="10">
-        <f>SUM(J2:J12)</f>
-        <v>17147.879457077972</v>
-      </c>
-      <c r="K13" s="10">
-        <f>SUM(K2:K12)</f>
-        <v>13184.250208049656</v>
-      </c>
-      <c r="L13" s="10">
-        <f>SUM(L2:L12)</f>
-        <v>12483.611930365783</v>
-      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
@@ -4736,16 +4358,49 @@
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="A16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="18">
+        <f>SUM(C12,D11,E10,F9,G8,H7,I6,J5,K4,L3)</f>
+        <v>69516.672863638873</v>
+      </c>
+      <c r="C16" s="18">
+        <f t="shared" ref="C16:L16" si="0">SUM(D12,E11,F10,G9,H8,I7,J6,K5,L4,M3)</f>
+        <v>53526.816185537602</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="0"/>
+        <v>38666.142933137904</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="0"/>
+        <v>26538.953441602906</v>
+      </c>
+      <c r="F16" s="18">
+        <f t="shared" si="0"/>
+        <v>17684.015394197238</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
+        <v>11191.501599575924</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="0"/>
+        <v>7543.3665391146933</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" si="0"/>
+        <v>4294.6110908363626</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="0"/>
+        <v>2445.0690411283722</v>
+      </c>
+      <c r="K16" s="18">
+        <f>SUM(L12,M11,N10,O9,P8,Q7,R6,S5,T4,U3)</f>
+        <v>1204.1497057300294</v>
+      </c>
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">

--- a/Application Bs4/Data/TriangleRgle.xlsx
+++ b/Application Bs4/Data/TriangleRgle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdouloudoussdiakite/Desktop/PFE/Risk based solvency/Application Bs4/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3716608-E845-4D46-9E00-73E62AD8A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CC35C4-29CE-A740-AA56-B0EC758D24AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="triangle" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>fdc</t>
   </si>
@@ -51,12 +51,24 @@
   <si>
     <t>CF</t>
   </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Cad Liq</t>
+  </si>
+  <si>
+    <t>fdc cumul</t>
+  </si>
+  <si>
+    <t>1/fdc cumul</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -64,6 +76,7 @@
     <numFmt numFmtId="168" formatCode="#\ ###\ ##0.00"/>
     <numFmt numFmtId="169" formatCode="_ * #,##0.0000_)\ _M_A_D_ ;_ * \(#,##0.0000\)\ _M_A_D_ ;_ * &quot;-&quot;????_)\ _M_A_D_ ;_ @_ "/>
     <numFmt numFmtId="170" formatCode="####\ ##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -164,11 +177,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -205,10 +219,12 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2211,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A6BB43-4DA8-B54E-AEFF-B6A6C5AF1249}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L7" sqref="A7:L10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2307,16 +2323,46 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="C3" s="16">
+        <f>PRODUCT(C$2:$L2)</f>
+        <v>12.854742101781781</v>
+      </c>
+      <c r="D3" s="16">
+        <f>PRODUCT(D$2:$L2)</f>
+        <v>3.4452284780434743</v>
+      </c>
+      <c r="E3" s="16">
+        <f>PRODUCT(E$2:$L2)</f>
+        <v>2.039748467626016</v>
+      </c>
+      <c r="F3" s="16">
+        <f>PRODUCT(F$2:$L2)</f>
+        <v>1.5379616654777539</v>
+      </c>
+      <c r="G3" s="16">
+        <f>PRODUCT(G$2:$L2)</f>
+        <v>1.3066756184693624</v>
+      </c>
+      <c r="H3" s="16">
+        <f>PRODUCT(H$2:$L2)</f>
+        <v>1.1707807266378751</v>
+      </c>
+      <c r="I3" s="16">
+        <f>PRODUCT(I$2:$L2)</f>
+        <v>1.1060793346723803</v>
+      </c>
+      <c r="J3" s="16">
+        <f>PRODUCT(J$2:$L2)</f>
+        <v>1.0584421106493604</v>
+      </c>
+      <c r="K3" s="16">
+        <f>PRODUCT(K$2:$L2)</f>
+        <v>1.0342345033394433</v>
+      </c>
+      <c r="L3" s="16">
+        <f>PRODUCT($L$2:L2)</f>
+        <v>1.0163622910852779</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="16"/>
@@ -2330,10 +2376,125 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1.0163622910852779</v>
+      </c>
+      <c r="D8">
+        <v>1.0342345033394433</v>
+      </c>
+      <c r="E8">
+        <v>1.0584421106493604</v>
+      </c>
+      <c r="F8">
+        <v>1.1060793346723803</v>
+      </c>
+      <c r="G8">
+        <v>1.1707807266378751</v>
+      </c>
+      <c r="H8">
+        <v>1.3066756184693624</v>
+      </c>
+      <c r="I8">
+        <v>1.5379616654777539</v>
+      </c>
+      <c r="J8">
+        <v>2.039748467626016</v>
+      </c>
+      <c r="K8">
+        <v>3.4452284780434743</v>
+      </c>
+      <c r="L8">
+        <v>12.854742101781781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f>1/C8</f>
+        <v>0.98390112341947855</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:L10" si="0">1/D8</f>
+        <v>0.96689870311916359</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.94478478316258041</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.90409428026805971</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.85413090363359045</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.76530087947259495</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.65021126497932513</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.49025652715104678</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.29025651168653244</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>7.7792303578100658E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="C8:L9">
+    <sortCondition descending="1" ref="C9:L9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D2 E2:K2" formulaRange="1"/>
+    <ignoredError sqref="C2:D2 E2:K2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2446,9 +2607,9 @@
         <f>L2</f>
         <v>69073.142739999996</v>
       </c>
-      <c r="O2" t="e">
+      <c r="O2">
         <f>M2/SUM('Triangle décumulé'!$M$2:$M$12)</f>
-        <v>#DIV/0!</v>
+        <v>8.9076783722755112E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -2504,12 +2665,12 @@
         <v>64306.326370000002</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N13" si="0">L3</f>
+        <f t="shared" ref="N3:N12" si="0">L3</f>
         <v>65358.525200690819</v>
       </c>
-      <c r="O3" t="e">
+      <c r="O3">
         <f>M3/SUM('Triangle décumulé'!$M$2:$M$12)</f>
-        <v>#DIV/0!</v>
+        <v>8.2929493271025209E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -2568,9 +2729,9 @@
         <f t="shared" si="0"/>
         <v>57680.303086647749</v>
       </c>
-      <c r="O4" t="e">
+      <c r="O4">
         <f>M4/SUM('Triangle décumulé'!$M$2:$M$12)</f>
-        <v>#DIV/0!</v>
+        <v>7.1922342331209935E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -2629,9 +2790,9 @@
         <f t="shared" si="0"/>
         <v>68453.228854418208</v>
       </c>
-      <c r="O5" t="e">
+      <c r="O5">
         <f>M5/SUM('Triangle décumulé'!$M$2:$M$12)</f>
-        <v>#DIV/0!</v>
+        <v>8.3403089653744988E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -2690,9 +2851,9 @@
         <f t="shared" si="0"/>
         <v>77035.726560895651</v>
       </c>
-      <c r="O6" t="e">
+      <c r="O6">
         <f>M6/SUM('Triangle décumulé'!$M$2:$M$12)</f>
-        <v>#DIV/0!</v>
+        <v>8.3403089653744988E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -2751,9 +2912,9 @@
         <f t="shared" si="0"/>
         <v>48762.332310911188</v>
       </c>
-      <c r="O7" t="e">
+      <c r="O7">
         <f>M7/SUM('Triangle décumulé'!$M$2:$M$12)</f>
-        <v>#DIV/0!</v>
+        <v>5.3711121014662563E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -2812,9 +2973,9 @@
         <f t="shared" si="0"/>
         <v>66877.976953680991</v>
       </c>
-      <c r="O8" t="e">
+      <c r="O8">
         <f>M8/SUM('Triangle décumulé'!$M$2:$M$12)</f>
-        <v>#DIV/0!</v>
+        <v>6.6004060101485768E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2873,9 +3034,9 @@
         <f t="shared" si="0"/>
         <v>87464.935265014705</v>
       </c>
-      <c r="O9" t="e">
+      <c r="O9">
         <f>M9/SUM('Triangle décumulé'!$M$2:$M$12)</f>
-        <v>#DIV/0!</v>
+        <v>7.3340485373173198E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2934,9 +3095,9 @@
         <f t="shared" si="0"/>
         <v>87047.282038229314</v>
       </c>
-      <c r="O10" t="e">
+      <c r="O10">
         <f>M10/SUM('Triangle décumulé'!$M$2:$M$12)</f>
-        <v>#DIV/0!</v>
+        <v>5.5034358822218216E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2995,9 +3156,9 @@
         <f t="shared" si="0"/>
         <v>72883.151551295741</v>
       </c>
-      <c r="O11" t="e">
+      <c r="O11">
         <f>M11/SUM('Triangle décumulé'!$M$2:$M$12)</f>
-        <v>#DIV/0!</v>
+        <v>2.7281260134313839E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -3056,9 +3217,9 @@
         <f t="shared" si="0"/>
         <v>74797.126352715539</v>
       </c>
-      <c r="O12" t="e">
+      <c r="O12">
         <f>M12/SUM('Triangle décumulé'!$M$2:$M$12)</f>
-        <v>#DIV/0!</v>
+        <v>7.5037240811511299E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -3710,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669DADE9-5ADD-954E-81FC-C51BD67139AC}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3756,6 +3917,9 @@
       <c r="L1" s="2">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
@@ -3805,7 +3969,10 @@
         <f>'Reglements  futurs'!L2-'Reglements  futurs'!K2</f>
         <v>1112</v>
       </c>
-      <c r="M2" s="10"/>
+      <c r="M2" s="10">
+        <f>SUM(B2:L2)</f>
+        <v>69073.142739999996</v>
+      </c>
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -3856,7 +4023,10 @@
         <f>'Reglements  futurs'!L3-'Reglements  futurs'!K3</f>
         <v>1052.198830690817</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M12" si="0">SUM(B3:L3)</f>
+        <v>65358.525200690819</v>
+      </c>
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -3907,7 +4077,10 @@
         <f>'Reglements  futurs'!L4-'Reglements  futurs'!K4</f>
         <v>928.58808051900996</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="10">
+        <f t="shared" si="0"/>
+        <v>57680.303086647749</v>
+      </c>
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -3958,7 +4131,10 @@
         <f>'Reglements  futurs'!L5-'Reglements  futurs'!K5</f>
         <v>1102.0200828654633</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="10">
+        <f t="shared" si="0"/>
+        <v>68453.228854418208</v>
+      </c>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4009,7 +4185,10 @@
         <f>'Reglements  futurs'!L6-'Reglements  futurs'!K6</f>
         <v>1240.1886541946587</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="10">
+        <f t="shared" si="0"/>
+        <v>77035.726560895651</v>
+      </c>
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4060,7 +4239,10 @@
         <f>'Reglements  futurs'!L7-'Reglements  futurs'!K7</f>
         <v>785.01876965173142</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="10">
+        <f t="shared" si="0"/>
+        <v>48762.332310911188</v>
+      </c>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4111,7 +4293,10 @@
         <f>'Reglements  futurs'!L8-'Reglements  futurs'!K8</f>
         <v>1076.6602969322703</v>
       </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="10">
+        <f t="shared" si="0"/>
+        <v>66877.976953680991</v>
+      </c>
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4162,7 +4347,10 @@
         <f>'Reglements  futurs'!L9-'Reglements  futurs'!K9</f>
         <v>1408.0871979547665</v>
       </c>
-      <c r="M9" s="10"/>
+      <c r="M9" s="10">
+        <f t="shared" si="0"/>
+        <v>87464.935265014705</v>
+      </c>
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -4213,7 +4401,10 @@
         <f>'Reglements  futurs'!L10-'Reglements  futurs'!K10</f>
         <v>1401.3634502032946</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="10">
+        <f t="shared" si="0"/>
+        <v>87047.282038229314</v>
+      </c>
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4264,7 +4455,10 @@
         <f>'Reglements  futurs'!L11-'Reglements  futurs'!K11</f>
         <v>1173.3368616237422</v>
       </c>
-      <c r="M11" s="10"/>
+      <c r="M11" s="10">
+        <f t="shared" si="0"/>
+        <v>72883.151551295741</v>
+      </c>
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -4315,21 +4509,57 @@
         <f>'Reglements  futurs'!L12-'Reglements  futurs'!K12</f>
         <v>1204.1497057300294</v>
       </c>
-      <c r="M12" s="10"/>
+      <c r="M12" s="10">
+        <f t="shared" si="0"/>
+        <v>74797.126352715539</v>
+      </c>
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="B13" s="10">
+        <f>SUM(B2:B12)</f>
+        <v>60322.776199999993</v>
+      </c>
+      <c r="C13" s="10">
+        <f>SUM(C2:C12)</f>
+        <v>164751.91357931602</v>
+      </c>
+      <c r="D13" s="10">
+        <f>SUM(D2:D12)</f>
+        <v>155086.75817460608</v>
+      </c>
+      <c r="E13" s="10">
+        <f>SUM(E2:E12)</f>
+        <v>124034.29913163259</v>
+      </c>
+      <c r="F13" s="10">
+        <f>SUM(F2:F12)</f>
+        <v>89244.369156027708</v>
+      </c>
+      <c r="G13" s="10">
+        <f>SUM(G2:G12)</f>
+        <v>68881.797052385853</v>
+      </c>
+      <c r="H13" s="10">
+        <f>SUM(H2:H12)</f>
+        <v>38743.28755275283</v>
+      </c>
+      <c r="I13" s="10">
+        <f>SUM(I2:I12)</f>
+        <v>31552.788472285458</v>
+      </c>
+      <c r="J13" s="10">
+        <f>SUM(J2:J12)</f>
+        <v>17147.879457077972</v>
+      </c>
+      <c r="K13" s="10">
+        <f>SUM(K2:K12)</f>
+        <v>13184.250208049656</v>
+      </c>
+      <c r="L13" s="10">
+        <f>SUM(L2:L12)</f>
+        <v>12483.611930365783</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
@@ -4366,57 +4596,93 @@
         <v>69516.672863638873</v>
       </c>
       <c r="C16" s="18">
-        <f t="shared" ref="C16:L16" si="0">SUM(D12,E11,F10,G9,H8,I7,J6,K5,L4,M3)</f>
-        <v>53526.816185537602</v>
+        <f>SUM(D12,E11,F10,G9,H8,I7,J6,K5,L4,M3)</f>
+        <v>118885.34138622842</v>
       </c>
       <c r="D16" s="18">
-        <f t="shared" si="0"/>
-        <v>38666.142933137904</v>
+        <f t="shared" ref="C16:J16" si="1">SUM(E12,F11,G10,H9,I8,J7,K6,L5,M4,N3)</f>
+        <v>96346.446019785653</v>
       </c>
       <c r="E16" s="18">
-        <f t="shared" si="0"/>
-        <v>26538.953441602906</v>
+        <f t="shared" si="1"/>
+        <v>94992.182296021114</v>
       </c>
       <c r="F16" s="18">
-        <f t="shared" si="0"/>
-        <v>17684.015394197238</v>
+        <f t="shared" si="1"/>
+        <v>94719.74195509289</v>
       </c>
       <c r="G16" s="18">
-        <f t="shared" si="0"/>
-        <v>11191.501599575924</v>
+        <f t="shared" si="1"/>
+        <v>59953.833910487112</v>
       </c>
       <c r="H16" s="18">
-        <f t="shared" si="0"/>
-        <v>7543.3665391146933</v>
+        <f t="shared" si="1"/>
+        <v>74421.343492795684</v>
       </c>
       <c r="I16" s="18">
-        <f t="shared" si="0"/>
-        <v>4294.6110908363626</v>
+        <f t="shared" si="1"/>
+        <v>91759.546355851067</v>
       </c>
       <c r="J16" s="18">
-        <f t="shared" si="0"/>
-        <v>2445.0690411283722</v>
+        <f t="shared" si="1"/>
+        <v>89492.351079357686</v>
       </c>
       <c r="K16" s="18">
         <f>SUM(L12,M11,N10,O9,P8,Q7,R6,S5,T4,U3)</f>
-        <v>1204.1497057300294</v>
+        <v>74087.301257025771</v>
       </c>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="20">
+        <f>B13/SUM($M$2:$M$12)</f>
+        <v>7.7792303578100658E-2</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" ref="C17:L17" si="2">C13/SUM($M$2:$M$12)</f>
+        <v>0.21246420810843181</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="2"/>
+        <v>0.20000001546451437</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="2"/>
+        <v>0.15995473782827838</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="2"/>
+        <v>0.11508961449326979</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="2"/>
+        <v>8.8830024160995419E-2</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="2"/>
+        <v>4.9963376634469231E-2</v>
+      </c>
+      <c r="I17" s="20">
+        <f t="shared" si="2"/>
+        <v>4.0690502894520718E-2</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="2"/>
+        <v>2.2113919956583256E-2</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="2"/>
+        <v>1.7002420300314951E-2</v>
+      </c>
+      <c r="L17" s="20">
+        <f>L13/SUM($M$2:$M$12)</f>
+        <v>1.609887658052141E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -4429,7 +4695,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -4442,7 +4708,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -4455,7 +4721,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -4468,7 +4734,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -4481,7 +4747,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -4494,7 +4760,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -4507,7 +4773,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -4520,7 +4786,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>

--- a/Application Bs4/Data/TriangleRgle.xlsx
+++ b/Application Bs4/Data/TriangleRgle.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdouloudoussdiakite/Desktop/PFE/Risk based solvency/Application Bs4/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARM-Ismail\Desktop\Risk-based-solvency\Application Bs4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CC35C4-29CE-A740-AA56-B0EC758D24AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="15360" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="triangle" sheetId="1" r:id="rId1"/>
-    <sheet name="Cumulative Somme" sheetId="2" r:id="rId2"/>
-    <sheet name="fdi" sheetId="3" r:id="rId3"/>
-    <sheet name="fdc" sheetId="4" r:id="rId4"/>
-    <sheet name="Reglements  futurs" sheetId="5" r:id="rId5"/>
-    <sheet name="Feuil5" sheetId="10" r:id="rId6"/>
-    <sheet name="Triangle décumulé" sheetId="7" r:id="rId7"/>
-    <sheet name="Reserve" sheetId="6" r:id="rId8"/>
+    <sheet name="ZC 31-12-2021" sheetId="11" r:id="rId1"/>
+    <sheet name="triangle" sheetId="1" r:id="rId2"/>
+    <sheet name="Cumulative Somme" sheetId="2" r:id="rId3"/>
+    <sheet name="fdi" sheetId="3" r:id="rId4"/>
+    <sheet name="fdc" sheetId="4" r:id="rId5"/>
+    <sheet name="Reglements  futurs" sheetId="5" r:id="rId6"/>
+    <sheet name="Feuil5" sheetId="10" r:id="rId7"/>
+    <sheet name="Triangle décumulé" sheetId="7" r:id="rId8"/>
+    <sheet name="Reserve" sheetId="6" r:id="rId9"/>
+    <sheet name="Feuil2" sheetId="12" r:id="rId10"/>
+    <sheet name="Feuil3" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>fdc</t>
   </si>
@@ -62,12 +64,225 @@
   </si>
   <si>
     <t>1/fdc cumul</t>
+  </si>
+  <si>
+    <t>ZC</t>
+  </si>
+  <si>
+    <t>Maturité</t>
+  </si>
+  <si>
+    <t>Taux zéro coupon</t>
+  </si>
+  <si>
+    <t>Taux zéro coupon (%)</t>
+  </si>
+  <si>
+    <t>Taux actuariel</t>
+  </si>
+  <si>
+    <t>Taux actuariel (%)</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,723%</t>
+  </si>
+  <si>
+    <t>1,722%</t>
+  </si>
+  <si>
+    <t>1,826%</t>
+  </si>
+  <si>
+    <t>1,824%</t>
+  </si>
+  <si>
+    <t>1,952%</t>
+  </si>
+  <si>
+    <t>1,946%</t>
+  </si>
+  <si>
+    <t>1,989%</t>
+  </si>
+  <si>
+    <t>1,983%</t>
+  </si>
+  <si>
+    <t>2,076%</t>
+  </si>
+  <si>
+    <t>2,066%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,109%</t>
+  </si>
+  <si>
+    <t>2,198%</t>
+  </si>
+  <si>
+    <t>2,182%</t>
+  </si>
+  <si>
+    <t>2,267%</t>
+  </si>
+  <si>
+    <t>2,246%</t>
+  </si>
+  <si>
+    <t>2,351%</t>
+  </si>
+  <si>
+    <t>2,323%</t>
+  </si>
+  <si>
+    <t>2,414%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,491%</t>
+  </si>
+  <si>
+    <t>2,449%</t>
+  </si>
+  <si>
+    <t>2,493%</t>
+  </si>
+  <si>
+    <t>2,453%</t>
+  </si>
+  <si>
+    <t>2,532%</t>
+  </si>
+  <si>
+    <t>2,488%</t>
+  </si>
+  <si>
+    <t>2,591%</t>
+  </si>
+  <si>
+    <t>2,539%</t>
+  </si>
+  <si>
+    <t>2,653%</t>
+  </si>
+  <si>
+    <t>2,726%</t>
+  </si>
+  <si>
+    <t>2,651%</t>
+  </si>
+  <si>
+    <t>2,873%</t>
+  </si>
+  <si>
+    <t>2,765%</t>
+  </si>
+  <si>
+    <t>2,972%</t>
+  </si>
+  <si>
+    <t>2,842%</t>
+  </si>
+  <si>
+    <t>3,009%</t>
+  </si>
+  <si>
+    <t>3,046%</t>
+  </si>
+  <si>
+    <t>2,903%</t>
+  </si>
+  <si>
+    <t>3,083%</t>
+  </si>
+  <si>
+    <t>2,933%</t>
+  </si>
+  <si>
+    <t>3,122%</t>
+  </si>
+  <si>
+    <t>2,963%</t>
+  </si>
+  <si>
+    <t>3,162%</t>
+  </si>
+  <si>
+    <t>2,993%</t>
+  </si>
+  <si>
+    <t>3,212%</t>
+  </si>
+  <si>
+    <t>3,029%</t>
+  </si>
+  <si>
+    <t>3,273%</t>
+  </si>
+  <si>
+    <t>3,071%</t>
+  </si>
+  <si>
+    <t>3,336%</t>
+  </si>
+  <si>
+    <t>3,113%</t>
+  </si>
+  <si>
+    <t>3,402%</t>
+  </si>
+  <si>
+    <t>3,155%</t>
+  </si>
+  <si>
+    <t>3,469%</t>
+  </si>
+  <si>
+    <t>3,197%</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>S/P</t>
+  </si>
+  <si>
+    <t>PPNA</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PF*</t>
+  </si>
+  <si>
+    <t>BE prime</t>
+  </si>
+  <si>
+    <t>cad act</t>
+  </si>
+  <si>
+    <t>frfpHat</t>
+  </si>
+  <si>
+    <t>Cad</t>
+  </si>
+  <si>
+    <t>Cad act</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -78,7 +293,7 @@
     <numFmt numFmtId="170" formatCode="####\ ##0.00"/>
     <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +322,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -182,7 +403,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -220,6 +441,17 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -535,16 +767,966 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1.7229999999999999E-2</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1.7219999999999999E-2</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1.8259999999999998E-2</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1.8239999999999999E-2</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1.9519999999999999E-2</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1.9460000000000002E-2</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1.9890000000000001E-2</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1.983E-2</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2.0760000000000001E-2</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2.0660000000000001E-2</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23">
+        <v>7</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2.12E-2</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="23">
+        <v>2.1090000000000001E-2</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2.198E-2</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2.1819999999999999E-2</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2.2669999999999999E-2</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2.2460000000000001E-2</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2.351E-2</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2.3230000000000001E-2</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23">
+        <v>2.4140000000000002E-2</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="23">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>12</v>
+      </c>
+      <c r="B14" s="23">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23">
+        <v>2.4910000000000002E-2</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="23">
+        <v>2.4490000000000001E-2</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>13</v>
+      </c>
+      <c r="B15" s="23">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23">
+        <v>2.4930000000000001E-2</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="23">
+        <v>2.453E-2</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23">
+        <v>14</v>
+      </c>
+      <c r="C16" s="23">
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="23">
+        <v>2.4879999999999999E-2</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23">
+        <v>2.5909999999999999E-2</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="23">
+        <v>2.5389999999999999E-2</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23">
+        <v>2.6530000000000001E-2</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="23">
+        <v>2.5909999999999999E-2</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23">
+        <v>2.726E-2</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="23">
+        <v>2.6509999999999999E-2</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23">
+        <v>2.8729999999999999E-2</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2.7650000000000001E-2</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>19</v>
+      </c>
+      <c r="B21" s="23">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23">
+        <v>2.972E-2</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="23">
+        <v>2.8420000000000001E-2</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23">
+        <v>3.0089999999999999E-2</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="23">
+        <v>2.8729999999999999E-2</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="23">
+        <v>3.0460000000000001E-2</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="23">
+        <v>2.903E-2</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>22</v>
+      </c>
+      <c r="B24" s="23">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23">
+        <v>3.083E-2</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="23">
+        <v>2.9329999999999998E-2</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="23">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23">
+        <v>3.1220000000000001E-2</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="23">
+        <v>2.963E-2</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>24</v>
+      </c>
+      <c r="B26" s="23">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23">
+        <v>3.1620000000000002E-2</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="23">
+        <v>2.9929999999999998E-2</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>25</v>
+      </c>
+      <c r="B27" s="23">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23">
+        <v>3.2120000000000003E-2</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="23">
+        <v>3.0290000000000001E-2</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>26</v>
+      </c>
+      <c r="B28" s="23">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23">
+        <v>3.2730000000000002E-2</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="23">
+        <v>3.0710000000000001E-2</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>27</v>
+      </c>
+      <c r="B29" s="23">
+        <v>27</v>
+      </c>
+      <c r="C29" s="23">
+        <v>3.3360000000000001E-2</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="23">
+        <v>3.1130000000000001E-2</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>28</v>
+      </c>
+      <c r="B30" s="23">
+        <v>28</v>
+      </c>
+      <c r="C30" s="23">
+        <v>3.4020000000000002E-2</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="23">
+        <v>3.1550000000000002E-2</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>29</v>
+      </c>
+      <c r="B31" s="23">
+        <v>29</v>
+      </c>
+      <c r="C31" s="23">
+        <v>3.4689999999999999E-2</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="23">
+        <v>3.1969999999999998E-2</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>133944</v>
+      </c>
+      <c r="C2">
+        <v>87047.282038229314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>115787</v>
+      </c>
+      <c r="C3">
+        <v>72883.151551295741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>86292</v>
+      </c>
+      <c r="C4">
+        <v>74797.126352715539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>336023</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C2:C4)</f>
+        <v>234727.55994224059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="14">
+        <f>'Triangle décumulé'!M21</f>
+        <v>0.86318621050878841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <f>C5/B5</f>
+        <v>0.6985461112550051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>1824.41742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <f>0.6*B10</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <f>(B8*(B9+B10)*B7)-Feuil2!B11</f>
+        <v>4075.4494098846335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="29">
+        <v>0.6985461112550051</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="29">
+        <v>1824.41742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="29">
+        <f>0.4*B3</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="27">
+        <v>7.7792303578100658E-2</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.21246420810843181</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0.20000001546451437</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0.15995473782827838</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.11508961449326979</v>
+      </c>
+      <c r="G7" s="27">
+        <v>8.8830024160995419E-2</v>
+      </c>
+      <c r="H7" s="27">
+        <v>4.9963376634469231E-2</v>
+      </c>
+      <c r="I7" s="27">
+        <v>4.0690502894520718E-2</v>
+      </c>
+      <c r="J7" s="27">
+        <v>2.2113919956583256E-2</v>
+      </c>
+      <c r="K7" s="27">
+        <v>1.7002420300314951E-2</v>
+      </c>
+      <c r="L7" s="27">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1.7229999999999999E-2</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1.8259999999999998E-2</v>
+      </c>
+      <c r="F8" s="23">
+        <v>1.9519999999999999E-2</v>
+      </c>
+      <c r="G8" s="23">
+        <v>1.9890000000000001E-2</v>
+      </c>
+      <c r="H8" s="23">
+        <v>2.0760000000000001E-2</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2.12E-2</v>
+      </c>
+      <c r="J8" s="23">
+        <v>2.198E-2</v>
+      </c>
+      <c r="K8" s="23">
+        <v>2.2669999999999999E-2</v>
+      </c>
+      <c r="L8" s="23">
+        <v>2.351E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9">
+        <f>C7/((1+C8)^C6)</f>
+        <v>0.20907715814645916</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:L9" si="0">D7/((1+D8)^D6)</f>
+        <v>0.19328213293620963</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.15150293865632736</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.10652539081748982</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8.0499486945452198E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4.4168222493529342E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>3.5133176251465913E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1.8583459215646584E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1.389604150789258E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>7.6093985440445142E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>$B$1*(B2+B3)*SUM(C9:L9)-B4</f>
+        <v>249966.72922954767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -580,7 +1762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -629,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -678,7 +1860,7 @@
         <v>0.86772364576013972</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -727,7 +1909,7 @@
         <v>0.7516438286527346</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -776,7 +1958,7 @@
         <v>0.63957083587318475</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -825,7 +2007,7 @@
         <v>0.51064357153442974</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -874,7 +2056,7 @@
         <v>0.40950225370200766</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -923,7 +2105,7 @@
         <v>0.29724377285188436</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -972,7 +2154,7 @@
         <v>0.19618304108493489</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -1021,7 +2203,7 @@
         <v>0.11453307523149327</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -1070,7 +2252,7 @@
         <v>4.5286350860817795E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -1119,7 +2301,7 @@
         <v>9.8128104192966008E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1132,7 +2314,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
     </row>
   </sheetData>
@@ -1143,21 +2325,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B90093-19E7-FE42-A77C-3B1A0DA36EB9}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -1193,7 +2375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -1231,7 +2413,7 @@
         <v>69073.142739999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -1269,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -1307,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -1345,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -1383,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -1421,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -1459,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -1497,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -1535,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -1573,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -1611,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1624,10 +2806,10 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="5"/>
     </row>
   </sheetData>
@@ -1635,17 +2817,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE00DD7F-70EE-F14D-ABA0-A3A8981DA74C}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -1681,7 +2863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -1730,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -1779,7 +2961,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -1828,7 +3010,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -1877,7 +3059,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -1926,7 +3108,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -1975,7 +3157,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -2024,7 +3206,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -2073,7 +3255,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -2122,7 +3304,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -2171,7 +3353,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -2225,22 +3407,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A6BB43-4DA8-B54E-AEFF-B6A6C5AF1249}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -2276,7 +3458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2322,7 +3504,7 @@
         <v>1.0163622910852779</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="16">
         <f>PRODUCT(C$2:$L2)</f>
         <v>12.854742101781781</v>
@@ -2364,7 +3546,7 @@
         <v>1.0163622910852779</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -2376,7 +3558,7 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -2411,7 +3593,7 @@
         <v>12.854742101781781</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>10</v>
       </c>
@@ -2443,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -2489,7 +3671,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="C8:L9">
+  <sortState columnSort="1" ref="C8:L9">
     <sortCondition descending="1" ref="C9:L9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2499,17 +3681,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047027FB-03A8-5744-A2CF-F947B91DF9B7}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -2551,7 +3733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -2612,7 +3794,7 @@
         <v>8.9076783722755112E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -2673,7 +3855,7 @@
         <v>8.2929493271025209E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -2734,7 +3916,7 @@
         <v>7.1922342331209935E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -2795,7 +3977,7 @@
         <v>8.3403089653744988E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -2856,7 +4038,7 @@
         <v>8.3403089653744988E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -2917,7 +4099,7 @@
         <v>5.3711121014662563E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -2978,7 +4160,7 @@
         <v>6.6004060101485768E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -3039,7 +4221,7 @@
         <v>7.3340485373173198E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -3100,7 +4282,7 @@
         <v>5.5034358822218216E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -3161,7 +4343,7 @@
         <v>2.7281260134313839E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -3222,7 +4404,7 @@
         <v>7.5037240811511299E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <f t="shared" ref="B13:L13" si="1">SUM(B2:B12)</f>
         <v>60322.776199999993</v>
@@ -3269,7 +4451,7 @@
       </c>
       <c r="N13" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
     </row>
   </sheetData>
@@ -3277,17 +4459,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EEA670-46BA-1D49-9194-BC40D2498B2F}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -3323,7 +4505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -3372,7 +4554,7 @@
         <v>69073.142739999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -3421,7 +4603,7 @@
         <v>65358.525200690819</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -3470,7 +4652,7 @@
         <v>57680.303086647749</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -3519,7 +4701,7 @@
         <v>68453.228854418208</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -3568,7 +4750,7 @@
         <v>77035.726560895651</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -3617,7 +4799,7 @@
         <v>48762.332310911188</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -3666,7 +4848,7 @@
         <v>66877.976953680991</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -3715,7 +4897,7 @@
         <v>87464.935265014705</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -3764,7 +4946,7 @@
         <v>87047.282038229314</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -3813,7 +4995,7 @@
         <v>72883.151551295741</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -3867,22 +5049,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669DADE9-5ADD-954E-81FC-C51BD67139AC}">
-  <dimension ref="A1:N26"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:L17"/>
+    <sheetView topLeftCell="B4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -3921,7 +5103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -3975,7 +5157,7 @@
       </c>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -4029,7 +5211,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -4083,7 +5265,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -4137,7 +5319,7 @@
       </c>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -4191,7 +5373,7 @@
       </c>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -4245,7 +5427,7 @@
       </c>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -4299,7 +5481,7 @@
       </c>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -4353,7 +5535,7 @@
       </c>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -4407,7 +5589,7 @@
       </c>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -4461,7 +5643,7 @@
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -4515,53 +5697,53 @@
       </c>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
-        <f>SUM(B2:B12)</f>
+        <f t="shared" ref="B13:L13" si="1">SUM(B2:B12)</f>
         <v>60322.776199999993</v>
       </c>
       <c r="C13" s="10">
-        <f>SUM(C2:C12)</f>
+        <f t="shared" si="1"/>
         <v>164751.91357931602</v>
       </c>
       <c r="D13" s="10">
-        <f>SUM(D2:D12)</f>
+        <f t="shared" si="1"/>
         <v>155086.75817460608</v>
       </c>
       <c r="E13" s="10">
-        <f>SUM(E2:E12)</f>
+        <f t="shared" si="1"/>
         <v>124034.29913163259</v>
       </c>
       <c r="F13" s="10">
-        <f>SUM(F2:F12)</f>
+        <f t="shared" si="1"/>
         <v>89244.369156027708</v>
       </c>
       <c r="G13" s="10">
-        <f>SUM(G2:G12)</f>
+        <f t="shared" si="1"/>
         <v>68881.797052385853</v>
       </c>
       <c r="H13" s="10">
-        <f>SUM(H2:H12)</f>
+        <f t="shared" si="1"/>
         <v>38743.28755275283</v>
       </c>
       <c r="I13" s="10">
-        <f>SUM(I2:I12)</f>
+        <f t="shared" si="1"/>
         <v>31552.788472285458</v>
       </c>
       <c r="J13" s="10">
-        <f>SUM(J2:J12)</f>
+        <f t="shared" si="1"/>
         <v>17147.879457077972</v>
       </c>
       <c r="K13" s="10">
-        <f>SUM(K2:K12)</f>
+        <f t="shared" si="1"/>
         <v>13184.250208049656</v>
       </c>
       <c r="L13" s="10">
-        <f>SUM(L2:L12)</f>
+        <f t="shared" si="1"/>
         <v>12483.611930365783</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -4574,20 +5756,42 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>3</v>
+      </c>
+      <c r="F15" s="13">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13">
+        <v>5</v>
+      </c>
+      <c r="H15" s="13">
+        <v>6</v>
+      </c>
+      <c r="I15" s="13">
+        <v>7</v>
+      </c>
+      <c r="J15" s="13">
+        <v>8</v>
+      </c>
+      <c r="K15" s="13">
+        <v>9</v>
+      </c>
+      <c r="L15" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>5</v>
       </c>
@@ -4600,31 +5804,31 @@
         <v>118885.34138622842</v>
       </c>
       <c r="D16" s="18">
-        <f t="shared" ref="C16:J16" si="1">SUM(E12,F11,G10,H9,I8,J7,K6,L5,M4,N3)</f>
+        <f t="shared" ref="D16:J16" si="2">SUM(E12,F11,G10,H9,I8,J7,K6,L5,M4,N3)</f>
         <v>96346.446019785653</v>
       </c>
       <c r="E16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94992.182296021114</v>
       </c>
       <c r="F16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94719.74195509289</v>
       </c>
       <c r="G16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59953.833910487112</v>
       </c>
       <c r="H16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74421.343492795684</v>
       </c>
       <c r="I16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91759.546355851067</v>
       </c>
       <c r="J16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89492.351079357686</v>
       </c>
       <c r="K16" s="18">
@@ -4633,7 +5837,7 @@
       </c>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4642,39 +5846,39 @@
         <v>7.7792303578100658E-2</v>
       </c>
       <c r="C17" s="20">
-        <f t="shared" ref="C17:L17" si="2">C13/SUM($M$2:$M$12)</f>
+        <f>C13/SUM($M$2:$M$12)</f>
         <v>0.21246420810843181</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C17:K17" si="3">D13/SUM($M$2:$M$12)</f>
         <v>0.20000001546451437</v>
       </c>
       <c r="E17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15995473782827838</v>
       </c>
       <c r="F17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11508961449326979</v>
       </c>
       <c r="G17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.8830024160995419E-2</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9963376634469231E-2</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0690502894520718E-2</v>
       </c>
       <c r="J17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2113919956583256E-2</v>
       </c>
       <c r="K17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7002420300314951E-2</v>
       </c>
       <c r="L17" s="20">
@@ -4682,59 +5886,180 @@
         <v>1.609887658052141E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="26">
+        <f>B17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
+        <v>54440.652749622313</v>
+      </c>
+      <c r="C18" s="26">
+        <f>C17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
+        <v>148686.81917539675</v>
+      </c>
+      <c r="D18" s="26">
+        <f>D17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
+        <v>139964.12101219536</v>
+      </c>
+      <c r="E18" s="26">
+        <f>E17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
+        <v>111939.61275389693</v>
+      </c>
+      <c r="F18" s="26">
+        <f>F17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
+        <v>80542.07742319406</v>
+      </c>
+      <c r="G18" s="26">
+        <f>G17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
+        <v>62165.076449165412</v>
+      </c>
+      <c r="H18" s="26">
+        <f>H17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
+        <v>34965.397763609246</v>
+      </c>
+      <c r="I18" s="26">
+        <f>I17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
+        <v>28476.050154037483</v>
+      </c>
+      <c r="J18" s="26">
+        <f>J17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
+        <v>15475.775647659329</v>
+      </c>
+      <c r="K18" s="26">
+        <f>K17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
+        <v>11898.643142033754</v>
+      </c>
+      <c r="L18" s="26">
+        <f>L17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
+        <v>11266.324678241283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="26">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C19" s="26">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D19" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E19" s="26">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0.99</v>
+      </c>
+      <c r="G19" s="26">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H19" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="K19" s="26">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="L19" s="26">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="23">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1.7229999999999999E-2</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1.8259999999999998E-2</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1.9519999999999999E-2</v>
+      </c>
+      <c r="F20" s="23">
+        <v>1.9890000000000001E-2</v>
+      </c>
+      <c r="G20" s="23">
+        <v>2.0760000000000001E-2</v>
+      </c>
+      <c r="H20" s="23">
+        <v>2.12E-2</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2.198E-2</v>
+      </c>
+      <c r="J20" s="23">
+        <v>2.2669999999999999E-2</v>
+      </c>
+      <c r="K20" s="23">
+        <v>2.351E-2</v>
+      </c>
+      <c r="L20" s="23">
+        <v>2.4140000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <f>B17/((1+B20)^B15)</f>
+        <v>7.7792303578100658E-2</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" ref="C21:L21" si="4">C17/((1+C20)^C15)</f>
+        <v>0.20886545629644407</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="4"/>
+        <v>0.19289130955322542</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="4"/>
+        <v>0.15094191617808184</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="4"/>
+        <v>0.10637089199346486</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="4"/>
+        <v>8.0157020187394623E-2</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="4"/>
+        <v>4.4054161998273327E-2</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="4"/>
+        <v>3.4945904016013031E-2</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="4"/>
+        <v>1.848338902614553E-2</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="4"/>
+        <v>1.3793736831137061E-2</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="4"/>
+        <v>1.2682424428608813E-2</v>
+      </c>
+      <c r="M21" s="14">
+        <f>SUM(C21:L21)</f>
+        <v>0.86318621050878841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -4747,7 +6072,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -4760,7 +6085,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -4773,7 +6098,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -4786,7 +6111,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -4799,31 +6124,57 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D45D066-EADC-4940-B7D7-74684C89AA43}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -4832,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -4841,7 +6192,7 @@
         <v>1052.198830690817</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -4850,7 +6201,7 @@
         <v>1909.2928366477499</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -4859,7 +6210,7 @@
         <v>3779.6598744182047</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -4868,7 +6219,7 @@
         <v>7388.1668008956476</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -4877,7 +6228,7 @@
         <v>7112.9173509111934</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -4886,7 +6237,7 @@
         <v>15696.202373680993</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -4895,7 +6246,7 @@
         <v>30594.249065014701</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -4904,7 +6255,7 @@
         <v>44371.783848229315</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -4913,7 +6264,7 @@
         <v>51728.342221295752</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -4922,7 +6273,7 @@
         <v>68978.485592715544</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -4931,7 +6282,7 @@
         <v>232611.29879449995</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="14"/>
     </row>
   </sheetData>

--- a/Application Bs4/Data/TriangleRgle.xlsx
+++ b/Application Bs4/Data/TriangleRgle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdouloudoussdiakite/Desktop/PFE/Risk based solvency/Application Bs4/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CC35C4-29CE-A740-AA56-B0EC758D24AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568CA48-106C-754F-8472-8117BDED33AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="triangle" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>fdc</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>1/fdc cumul</t>
+  </si>
+  <si>
+    <t>cad</t>
   </si>
 </sst>
 </file>
@@ -182,7 +185,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -220,6 +223,9 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -2229,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A6BB43-4DA8-B54E-AEFF-B6A6C5AF1249}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2501,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047027FB-03A8-5744-A2CF-F947B91DF9B7}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:L12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3270,7 +3276,102 @@
       <c r="N13" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
+      <c r="B15" s="21">
+        <f>B13/$L$13</f>
+        <v>7.7792303578100658E-2</v>
+      </c>
+      <c r="C15" s="21">
+        <f>C13/$L$13</f>
+        <v>0.29025651168653244</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" ref="C15:L15" si="2">D13/$L$13</f>
+        <v>0.49025652715104673</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="2"/>
+        <v>0.65021126497932513</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="2"/>
+        <v>0.76530087947259495</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="2"/>
+        <v>0.85413090363359034</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="2"/>
+        <v>0.9040942802680596</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="2"/>
+        <v>0.94478478316258041</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="2"/>
+        <v>0.96689870311916359</v>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" si="2"/>
+        <v>0.98390112341947833</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="23">
+        <f>B15</f>
+        <v>7.7792303578100658E-2</v>
+      </c>
+      <c r="C16" s="23">
+        <f>C15-B15</f>
+        <v>0.21246420810843178</v>
+      </c>
+      <c r="D16" s="23">
+        <f t="shared" ref="D16:L16" si="3">D15-C15</f>
+        <v>0.20000001546451429</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="3"/>
+        <v>0.1599547378282784</v>
+      </c>
+      <c r="F16" s="23">
+        <f t="shared" si="3"/>
+        <v>0.11508961449326982</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" si="3"/>
+        <v>8.8830024160995391E-2</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="3"/>
+        <v>4.9963376634469259E-2</v>
+      </c>
+      <c r="I16" s="23">
+        <f t="shared" si="3"/>
+        <v>4.0690502894520808E-2</v>
+      </c>
+      <c r="J16" s="23">
+        <f t="shared" si="3"/>
+        <v>2.2113919956583183E-2</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="3"/>
+        <v>1.7002420300314736E-2</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="3"/>
+        <v>1.609887658052167E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3871,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669DADE9-5ADD-954E-81FC-C51BD67139AC}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:L17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4517,47 +4618,47 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
-        <f>SUM(B2:B12)</f>
+        <f t="shared" ref="B13:L13" si="1">SUM(B2:B12)</f>
         <v>60322.776199999993</v>
       </c>
       <c r="C13" s="10">
-        <f>SUM(C2:C12)</f>
+        <f t="shared" si="1"/>
         <v>164751.91357931602</v>
       </c>
       <c r="D13" s="10">
-        <f>SUM(D2:D12)</f>
+        <f t="shared" si="1"/>
         <v>155086.75817460608</v>
       </c>
       <c r="E13" s="10">
-        <f>SUM(E2:E12)</f>
+        <f t="shared" si="1"/>
         <v>124034.29913163259</v>
       </c>
       <c r="F13" s="10">
-        <f>SUM(F2:F12)</f>
+        <f t="shared" si="1"/>
         <v>89244.369156027708</v>
       </c>
       <c r="G13" s="10">
-        <f>SUM(G2:G12)</f>
+        <f t="shared" si="1"/>
         <v>68881.797052385853</v>
       </c>
       <c r="H13" s="10">
-        <f>SUM(H2:H12)</f>
+        <f t="shared" si="1"/>
         <v>38743.28755275283</v>
       </c>
       <c r="I13" s="10">
-        <f>SUM(I2:I12)</f>
+        <f t="shared" si="1"/>
         <v>31552.788472285458</v>
       </c>
       <c r="J13" s="10">
-        <f>SUM(J2:J12)</f>
+        <f t="shared" si="1"/>
         <v>17147.879457077972</v>
       </c>
       <c r="K13" s="10">
-        <f>SUM(K2:K12)</f>
+        <f t="shared" si="1"/>
         <v>13184.250208049656</v>
       </c>
       <c r="L13" s="10">
-        <f>SUM(L2:L12)</f>
+        <f t="shared" si="1"/>
         <v>12483.611930365783</v>
       </c>
     </row>
@@ -4600,31 +4701,31 @@
         <v>118885.34138622842</v>
       </c>
       <c r="D16" s="18">
-        <f t="shared" ref="C16:J16" si="1">SUM(E12,F11,G10,H9,I8,J7,K6,L5,M4,N3)</f>
+        <f t="shared" ref="D16:J16" si="2">SUM(E12,F11,G10,H9,I8,J7,K6,L5,M4,N3)</f>
         <v>96346.446019785653</v>
       </c>
       <c r="E16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94992.182296021114</v>
       </c>
       <c r="F16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94719.74195509289</v>
       </c>
       <c r="G16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59953.833910487112</v>
       </c>
       <c r="H16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74421.343492795684</v>
       </c>
       <c r="I16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91759.546355851067</v>
       </c>
       <c r="J16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89492.351079357686</v>
       </c>
       <c r="K16" s="18">
@@ -4642,39 +4743,39 @@
         <v>7.7792303578100658E-2</v>
       </c>
       <c r="C17" s="20">
-        <f t="shared" ref="C17:L17" si="2">C13/SUM($M$2:$M$12)</f>
+        <f t="shared" ref="C17:K17" si="3">C13/SUM($M$2:$M$12)</f>
         <v>0.21246420810843181</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20000001546451437</v>
       </c>
       <c r="E17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15995473782827838</v>
       </c>
       <c r="F17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11508961449326979</v>
       </c>
       <c r="G17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.8830024160995419E-2</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9963376634469231E-2</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0690502894520718E-2</v>
       </c>
       <c r="J17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2113919956583256E-2</v>
       </c>
       <c r="K17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7002420300314951E-2</v>
       </c>
       <c r="L17" s="20">

--- a/Application Bs4/Data/TriangleRgle.xlsx
+++ b/Application Bs4/Data/TriangleRgle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="15360" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="15360" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ZC 31-12-2021" sheetId="11" r:id="rId1"/>
@@ -293,7 +293,7 @@
     <numFmt numFmtId="170" formatCode="####\ ##0.00"/>
     <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +328,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -403,7 +409,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -441,17 +447,20 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -783,608 +792,608 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="21">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="21">
         <v>1.7229999999999999E-2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <v>1.7219999999999999E-2</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>1.8259999999999998E-2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>1.8239999999999999E-2</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="21">
         <v>1.9519999999999999E-2</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <v>1.9460000000000002E-2</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>5</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>1.983E-2</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>6</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <v>2.0760000000000001E-2</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>2.0660000000000001E-2</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>7</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="21">
         <v>7</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="21">
         <v>2.12E-2</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>2.1090000000000001E-2</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="23">
         <v>8</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <v>8</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="21">
         <v>2.198E-2</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>2.1819999999999999E-2</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <v>9</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <v>9</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <v>2.2669999999999999E-2</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>2.2460000000000001E-2</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="23">
         <v>10</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="21">
         <v>10</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>2.351E-2</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>2.3230000000000001E-2</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="23">
         <v>11</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="21">
         <v>11</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="21">
         <v>2.4140000000000002E-2</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>12</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="21">
         <v>12</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="21">
         <v>2.4910000000000002E-2</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>2.4490000000000001E-2</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="23">
         <v>13</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="21">
         <v>13</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="21">
         <v>2.4930000000000001E-2</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>2.453E-2</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="23">
         <v>14</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="21">
         <v>14</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="21">
         <v>2.5319999999999999E-2</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>2.4879999999999999E-2</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="21">
         <v>15</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="21">
         <v>2.5909999999999999E-2</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>2.5389999999999999E-2</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <v>16</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="21">
         <v>2.6530000000000001E-2</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>2.5909999999999999E-2</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="23">
         <v>17</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="21">
         <v>17</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="21">
         <v>2.726E-2</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>2.6509999999999999E-2</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="23">
         <v>18</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="21">
         <v>18</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="21">
         <v>2.8729999999999999E-2</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <v>2.7650000000000001E-2</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="23">
         <v>19</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="21">
         <v>19</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="21">
         <v>2.972E-2</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>2.8420000000000001E-2</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="23">
         <v>20</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="21">
         <v>20</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="21">
         <v>3.0089999999999999E-2</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <v>2.8729999999999999E-2</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="23">
         <v>21</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="21">
         <v>21</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="21">
         <v>3.0460000000000001E-2</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <v>2.903E-2</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>22</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="21">
         <v>22</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="21">
         <v>3.083E-2</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="21">
         <v>2.9329999999999998E-2</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="23">
         <v>23</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="21">
         <v>23</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="21">
         <v>3.1220000000000001E-2</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="21">
         <v>2.963E-2</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="23">
         <v>24</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="21">
         <v>24</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="21">
         <v>3.1620000000000002E-2</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <v>2.9929999999999998E-2</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>25</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="21">
         <v>25</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="21">
         <v>3.2120000000000003E-2</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="21">
         <v>3.0290000000000001E-2</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="23">
         <v>26</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="21">
         <v>26</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="21">
         <v>3.2730000000000002E-2</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="21">
         <v>3.0710000000000001E-2</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>27</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="21">
         <v>27</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="21">
         <v>3.3360000000000001E-2</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="21">
         <v>3.1130000000000001E-2</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="23">
         <v>28</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="21">
         <v>28</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="21">
         <v>3.4020000000000002E-2</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="21">
         <v>3.1550000000000002E-2</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="23">
         <v>29</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <v>29</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="21">
         <v>3.4689999999999999E-2</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="21">
         <v>3.1969999999999998E-2</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1401,7 +1410,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1463,7 @@
       </c>
       <c r="B7" s="14">
         <f>'Triangle décumulé'!M21</f>
-        <v>0.86318621050878841</v>
+        <v>1.6173951712101613</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,7 +1506,7 @@
       </c>
       <c r="B12">
         <f>(B8*(B9+B10)*B7)-Feuil2!B11</f>
-        <v>4075.4494098846335</v>
+        <v>531886.37981863134</v>
       </c>
     </row>
   </sheetData>
@@ -1507,48 +1516,48 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="29">
-        <v>0.6985461112550051</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="26">
+        <v>0.69854611125500499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="26">
         <v>1824.41742</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="26">
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <f>0.4*B3</f>
         <v>400000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -1583,133 +1592,243 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="29">
         <v>7.7792303578100658E-2</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="29">
         <v>0.21246420810843181</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="29">
         <v>0.20000001546451437</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="29">
         <v>0.15995473782827838</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="29">
         <v>0.11508961449326979</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="29">
         <v>8.8830024160995419E-2</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="29">
         <v>4.9963376634469231E-2</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="29">
         <v>4.0690502894520718E-2</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="29">
         <v>2.2113919956583256E-2</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="29">
         <v>1.7002420300314951E-2</v>
       </c>
-      <c r="L7" s="27">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="29">
+        <v>1.609887658052141E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <v>1.7229999999999999E-2</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>1.8259999999999998E-2</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="21">
         <v>1.9519999999999999E-2</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="21">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="21">
         <v>2.0760000000000001E-2</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="21">
         <v>2.12E-2</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="21">
         <v>2.198E-2</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="21">
         <v>2.2669999999999999E-2</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="21">
         <v>2.351E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="30">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1.7229999999999999E-2</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1.8259999999999998E-2</v>
+      </c>
+      <c r="F9" s="30">
+        <v>1.9519999999999999E-2</v>
+      </c>
+      <c r="G9" s="30">
+        <v>1.9890000000000001E-2</v>
+      </c>
+      <c r="H9" s="30">
+        <v>2.0760000000000001E-2</v>
+      </c>
+      <c r="I9" s="30">
+        <v>2.12E-2</v>
+      </c>
+      <c r="J9" s="30">
+        <v>2.198E-2</v>
+      </c>
+      <c r="K9" s="30">
+        <v>2.2669999999999999E-2</v>
+      </c>
+      <c r="L9" s="30">
+        <v>2.351E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="30" t="b">
+        <f>C9=C8</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="30" t="b">
+        <f t="shared" ref="D10:L10" si="0">D9=D8</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="21">
+        <v>1.0162</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1.0347568729000001</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1.0557863711879758</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1.0803960784377977</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1.1034855939043207</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1.131206415240932</v>
+      </c>
+      <c r="I11" s="21">
+        <v>1.1581788849171566</v>
+      </c>
+      <c r="J11" s="21">
+        <v>1.1899786632816003</v>
+      </c>
+      <c r="K11" s="21">
+        <v>1.2235441503724662</v>
+      </c>
+      <c r="L11" s="21">
+        <v>1.2615977392212461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9">
-        <f>C7/((1+C8)^C6)</f>
+      <c r="B13" s="25"/>
+      <c r="C13">
+        <f>C$7/((1+C$8)^C$6)</f>
         <v>0.20907715814645916</v>
       </c>
-      <c r="D9">
-        <f t="shared" ref="D9:L9" si="0">D7/((1+D8)^D6)</f>
+      <c r="D13">
+        <f>D$7/((1+D$8)^D$6)</f>
         <v>0.19328213293620963</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="E13">
+        <f t="shared" ref="E13:L13" si="1">E$7/((1+E$8)^E$6)</f>
         <v>0.15150293865632736</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>0.10652539081748982</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="G13">
+        <f t="shared" si="1"/>
         <v>8.0499486945452198E-2</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
+      <c r="H13">
+        <f t="shared" si="1"/>
         <v>4.4168222493529342E-2</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
+      <c r="I13">
+        <f t="shared" si="1"/>
         <v>3.5133176251465913E-2</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
+      <c r="J13">
+        <f t="shared" si="1"/>
         <v>1.8583459215646584E-2</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
+      <c r="K13">
+        <f t="shared" si="1"/>
         <v>1.389604150789258E-2</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>7.6093985440445142E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f>$B$1*(B2+B3)*SUM(C9:L9)-B4</f>
-        <v>249966.72922954767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1.2760705001309576E-2</v>
+      </c>
+      <c r="M13" s="25">
+        <f>SUM(B13:L13)</f>
+        <v>0.86542871197178217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="26">
+        <f>$B$1*($B$2+$B$3)*M13-B4</f>
+        <v>205644.79801922094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5850,7 +5969,7 @@
         <v>0.21246420810843181</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" ref="C17:K17" si="3">D13/SUM($M$2:$M$12)</f>
+        <f t="shared" ref="D17:K17" si="3">D13/SUM($M$2:$M$12)</f>
         <v>0.20000001546451437</v>
       </c>
       <c r="E17" s="20">
@@ -5890,173 +6009,173 @@
       <c r="A18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <f>B17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>54440.652749622313</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <f>C17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>148686.81917539675</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <f>D17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>139964.12101219536</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <f>E17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>111939.61275389693</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <f>F17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>80542.07742319406</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="24">
         <f>G17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>62165.076449165412</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="24">
         <f>H17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>34965.397763609246</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="24">
         <f>I17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>28476.050154037483</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="24">
         <f>J17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>15475.775647659329</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="24">
         <f>K17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>11898.643142033754</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="24">
         <f>L17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>11266.324678241283</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <v>0.99</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="24">
         <v>6.2E-2</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="24">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="24">
         <v>0.11</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="24">
         <v>0.11</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="24">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="24">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="M19" s="26"/>
+      <c r="M19" s="24"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="21">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="21">
         <v>1.7229999999999999E-2</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="21">
         <v>1.8259999999999998E-2</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <v>1.9519999999999999E-2</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="21">
         <v>2.0760000000000001E-2</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="21">
         <v>2.12E-2</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="21">
         <v>2.198E-2</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="21">
         <v>2.2669999999999999E-2</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="21">
         <v>2.351E-2</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="21">
         <v>2.4140000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
-        <f>B17/((1+B20)^B15)</f>
-        <v>7.7792303578100658E-2</v>
+        <f>B19/((1+B20)^B15)</f>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="C21" s="14">
-        <f t="shared" ref="C21:L21" si="4">C17/((1+C20)^C15)</f>
-        <v>0.20886545629644407</v>
+        <f t="shared" ref="C21:L21" si="4">C19/((1+C20)^C15)</f>
+        <v>8.2577194931333128E-2</v>
       </c>
       <c r="D21" s="14">
         <f t="shared" si="4"/>
-        <v>0.19289130955322542</v>
+        <v>6.7511953123431057E-2</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="4"/>
-        <v>0.15094191617808184</v>
+        <v>8.3041545402245162E-2</v>
       </c>
       <c r="F21" s="14">
         <f t="shared" si="4"/>
-        <v>0.10637089199346486</v>
+        <v>0.91500161450005002</v>
       </c>
       <c r="G21" s="14">
         <f t="shared" si="4"/>
-        <v>8.0157020187394623E-2</v>
+        <v>5.594657097707556E-2</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="4"/>
-        <v>4.4054161998273327E-2</v>
+        <v>7.5828700681485742E-2</v>
       </c>
       <c r="I21" s="14">
         <f t="shared" si="4"/>
-        <v>3.4945904016013031E-2</v>
+        <v>9.4470433352129041E-2</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="4"/>
-        <v>1.848338902614553E-2</v>
+        <v>9.1940858828637395E-2</v>
       </c>
       <c r="K21" s="14">
         <f t="shared" si="4"/>
-        <v>1.3793736831137061E-2</v>
+        <v>7.5449112693207795E-2</v>
       </c>
       <c r="L21" s="14">
         <f t="shared" si="4"/>
-        <v>1.2682424428608813E-2</v>
+        <v>7.5627186720566397E-2</v>
       </c>
       <c r="M21" s="14">
         <f>SUM(C21:L21)</f>
-        <v>0.86318621050878841</v>
+        <v>1.6173951712101613</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">

--- a/Application Bs4/Data/TriangleRgle.xlsx
+++ b/Application Bs4/Data/TriangleRgle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="15360" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="15360" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ZC 31-12-2021" sheetId="11" r:id="rId1"/>
@@ -453,14 +453,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -792,12 +792,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,37 +1596,37 @@
       <c r="A7" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <v>7.7792303578100658E-2</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>0.21246420810843181</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <v>0.20000001546451437</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="27">
         <v>0.15995473782827838</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <v>0.11508961449326979</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="27">
         <v>8.8830024160995419E-2</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="27">
         <v>4.9963376634469231E-2</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="27">
         <v>4.0690502894520718E-2</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="27">
         <v>2.2113919956583256E-2</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <v>1.7002420300314951E-2</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="27">
         <v>1.609887658052141E-2</v>
       </c>
     </row>
@@ -1666,75 +1666,75 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="30">
+      <c r="C9" s="28">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="28">
         <v>1.7229999999999999E-2</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="28">
         <v>1.8259999999999998E-2</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="28">
         <v>1.9519999999999999E-2</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="28">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="28">
         <v>2.0760000000000001E-2</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="28">
         <v>2.12E-2</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="28">
         <v>2.198E-2</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="28">
         <v>2.2669999999999999E-2</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="28">
         <v>2.351E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="30" t="b">
+      <c r="C10" s="28" t="b">
         <f>C9=C8</f>
         <v>1</v>
       </c>
-      <c r="D10" s="30" t="b">
+      <c r="D10" s="28" t="b">
         <f t="shared" ref="D10:L10" si="0">D9=D8</f>
         <v>1</v>
       </c>
-      <c r="E10" s="30" t="b">
+      <c r="E10" s="28" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" s="30" t="b">
+      <c r="F10" s="28" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="30" t="b">
+      <c r="G10" s="28" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H10" s="30" t="b">
+      <c r="H10" s="28" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="30" t="b">
+      <c r="I10" s="28" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J10" s="30" t="b">
+      <c r="J10" s="28" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="30" t="b">
+      <c r="K10" s="28" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L10" s="30" t="b">
+      <c r="L10" s="28" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5172,7 +5172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:L19"/>
     </sheetView>
   </sheetViews>

--- a/Application Bs4/Data/TriangleRgle.xlsx
+++ b/Application Bs4/Data/TriangleRgle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARM-Ismail\Desktop\Risk-based-solvency\Application Bs4\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdouloudoussdiakite/Desktop/PFE/Risk based solvency/Application Bs4/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA6B6F1-A79B-7441-9B0D-AB34FE50E089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="15360" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZC 31-12-2021" sheetId="11" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="Feuil2" sheetId="12" r:id="rId10"/>
     <sheet name="Feuil3" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -282,7 +283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -409,7 +410,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -447,20 +448,19 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -776,624 +776,623 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4">
         <v>1.7229999999999999E-2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4">
         <v>1.7219999999999999E-2</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5">
         <v>1.8259999999999998E-2</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5">
         <v>1.8239999999999999E-2</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6">
         <v>1.9519999999999999E-2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6">
         <v>1.9460000000000002E-2</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7">
         <v>1.983E-2</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8">
         <v>2.0760000000000001E-2</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8">
         <v>2.0660000000000001E-2</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9">
         <v>2.12E-2</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9">
         <v>2.1090000000000001E-2</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10">
         <v>2.198E-2</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10">
         <v>2.1819999999999999E-2</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11">
         <v>2.2669999999999999E-2</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11">
         <v>2.2460000000000001E-2</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12">
         <v>2.351E-2</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12">
         <v>2.3230000000000001E-2</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
         <v>11</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13">
         <v>2.4140000000000002E-2</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14">
         <v>2.4910000000000002E-2</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14">
         <v>2.4490000000000001E-2</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
         <v>13</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15">
         <v>2.4930000000000001E-2</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15">
         <v>2.453E-2</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
         <v>14</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16">
         <v>2.5319999999999999E-2</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16">
         <v>2.4879999999999999E-2</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
         <v>15</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17">
         <v>2.5909999999999999E-2</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17">
         <v>2.5389999999999999E-2</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
         <v>16</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18">
         <v>2.6530000000000001E-2</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18">
         <v>2.5909999999999999E-2</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
         <v>17</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19">
         <v>2.726E-2</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19">
         <v>2.6509999999999999E-2</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
         <v>18</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20">
         <v>2.8729999999999999E-2</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20">
         <v>2.7650000000000001E-2</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
         <v>19</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21">
         <v>2.972E-2</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21">
         <v>2.8420000000000001E-2</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
         <v>20</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22">
         <v>3.0089999999999999E-2</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22">
         <v>2.8729999999999999E-2</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
         <v>21</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23">
         <v>3.0460000000000001E-2</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23">
         <v>2.903E-2</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
         <v>22</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24">
         <v>3.083E-2</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24">
         <v>2.9329999999999998E-2</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
         <v>23</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25">
         <v>3.1220000000000001E-2</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25">
         <v>2.963E-2</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
         <v>24</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26">
         <v>3.1620000000000002E-2</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26">
         <v>2.9929999999999998E-2</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
         <v>25</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27">
         <v>3.2120000000000003E-2</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27">
         <v>3.0290000000000001E-2</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="22">
         <v>26</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28">
         <v>3.2730000000000002E-2</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28">
         <v>3.0710000000000001E-2</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="22">
         <v>27</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29">
         <v>3.3360000000000001E-2</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29">
         <v>3.1130000000000001E-2</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
         <v>28</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30">
         <v>3.4020000000000002E-2</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30">
         <v>3.1550000000000002E-2</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
         <v>29</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31">
         <v>3.4689999999999999E-2</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31">
         <v>3.1969999999999998E-2</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1406,16 +1405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>71</v>
       </c>
@@ -1423,7 +1422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>133944</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>87047.282038229314</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>115787</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>72883.151551295741</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>86292</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>74797.126352715539</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5">
         <f>SUM(B2:B4)</f>
         <v>336023</v>
@@ -1457,7 +1456,7 @@
         <v>234727.55994224059</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>1.6173951712101613</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>0.6985461112550051</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1483,7 +1482,7 @@
         <v>1824.41742</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -1491,22 +1490,22 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>75</v>
       </c>
       <c r="B11">
-        <f>0.6*B10</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <f>0.9*B10</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>76</v>
       </c>
       <c r="B12">
         <f>(B8*(B9+B10)*B7)-Feuil2!B11</f>
-        <v>531886.37981863134</v>
+        <v>231886.37981863134</v>
       </c>
     </row>
   </sheetData>
@@ -1515,49 +1514,52 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="26">
+      <c r="B1" s="25">
         <v>0.69854611125500499</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>1824.41742</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <f>0.4*B3</f>
         <v>400000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0</v>
       </c>
@@ -1592,190 +1594,190 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>7.7792303578100658E-2</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>0.21246420810843181</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>0.20000001546451437</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>0.15995473782827838</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>0.11508961449326979</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <v>8.8830024160995419E-2</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <v>4.9963376634469231E-2</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <v>4.0690502894520718E-2</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>2.2113919956583256E-2</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <v>1.7002420300314951E-2</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="26">
         <v>1.609887658052141E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8">
         <v>1.7229999999999999E-2</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8">
         <v>1.8259999999999998E-2</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8">
         <v>1.9519999999999999E-2</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8">
         <v>2.0760000000000001E-2</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8">
         <v>2.12E-2</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8">
         <v>2.198E-2</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8">
         <v>2.2669999999999999E-2</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8">
         <v>2.351E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="28">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="27">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>1.7229999999999999E-2</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>1.8259999999999998E-2</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>1.9519999999999999E-2</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <v>2.0760000000000001E-2</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <v>2.12E-2</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <v>2.198E-2</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="27">
         <v>2.2669999999999999E-2</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="27">
         <v>2.351E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="28" t="b">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="27" t="b">
         <f>C9=C8</f>
         <v>1</v>
       </c>
-      <c r="D10" s="28" t="b">
+      <c r="D10" s="27" t="b">
         <f t="shared" ref="D10:L10" si="0">D9=D8</f>
         <v>1</v>
       </c>
-      <c r="E10" s="28" t="b">
+      <c r="E10" s="27" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" s="28" t="b">
+      <c r="F10" s="27" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="28" t="b">
+      <c r="G10" s="27" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H10" s="28" t="b">
+      <c r="H10" s="27" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="28" t="b">
+      <c r="I10" s="27" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J10" s="28" t="b">
+      <c r="J10" s="27" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="28" t="b">
+      <c r="K10" s="27" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L10" s="28" t="b">
+      <c r="L10" s="27" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="21">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11">
         <v>1.0162</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11">
         <v>1.0347568729000001</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11">
         <v>1.0557863711879758</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11">
         <v>1.0803960784377977</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11">
         <v>1.1034855939043207</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11">
         <v>1.131206415240932</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11">
         <v>1.1581788849171566</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11">
         <v>1.1899786632816003</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11">
         <v>1.2235441503724662</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11">
         <v>1.2615977392212461</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13">
         <f>C$7/((1+C$8)^C$6)</f>
         <v>0.20907715814645916</v>
@@ -1816,19 +1818,19 @@
         <f t="shared" si="1"/>
         <v>1.2760705001309576E-2</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="24">
         <f>SUM(B13:L13)</f>
         <v>0.86542871197178217</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="26">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="25">
         <f>$B$1*($B$2+$B$3)*M13-B4</f>
         <v>205644.79801922094</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,16 +1838,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -1881,7 +1883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -1930,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>0.86772364576013972</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -2028,7 +2030,7 @@
         <v>0.7516438286527346</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -2077,7 +2079,7 @@
         <v>0.63957083587318475</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -2126,7 +2128,7 @@
         <v>0.51064357153442974</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -2175,7 +2177,7 @@
         <v>0.40950225370200766</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -2224,7 +2226,7 @@
         <v>0.29724377285188436</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -2273,7 +2275,7 @@
         <v>0.19618304108493489</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -2322,7 +2324,7 @@
         <v>0.11453307523149327</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -2371,7 +2373,7 @@
         <v>4.5286350860817795E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -2420,7 +2422,7 @@
         <v>9.8128104192966008E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2433,7 +2435,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="14"/>
     </row>
   </sheetData>
@@ -2445,20 +2447,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>69073.142739999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -2608,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -2646,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -2760,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -2874,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -2912,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2925,10 +2927,10 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="5"/>
     </row>
   </sheetData>
@@ -2937,16 +2939,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -2982,7 +2984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -3031,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -3080,7 +3082,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -3129,7 +3131,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -3178,7 +3180,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -3276,7 +3278,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -3325,7 +3327,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -3374,7 +3376,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -3527,21 +3529,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -3577,7 +3579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3623,7 +3625,7 @@
         <v>1.0163622910852779</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" s="16">
         <f>PRODUCT(C$2:$L2)</f>
         <v>12.854742101781781</v>
@@ -3665,7 +3667,7 @@
         <v>1.0163622910852779</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -3677,7 +3679,7 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -3712,7 +3714,7 @@
         <v>12.854742101781781</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>10</v>
       </c>
@@ -3744,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -3790,7 +3792,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState columnSort="1" ref="C8:L9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="C8:L9">
     <sortCondition descending="1" ref="C9:L9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3801,16 +3803,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -3852,7 +3854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -3913,7 +3915,7 @@
         <v>8.9076783722755112E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>8.2929493271025209E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -4035,7 +4037,7 @@
         <v>7.1922342331209935E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -4096,7 +4098,7 @@
         <v>8.3403089653744988E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -4157,7 +4159,7 @@
         <v>8.3403089653744988E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -4218,7 +4220,7 @@
         <v>5.3711121014662563E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -4279,7 +4281,7 @@
         <v>6.6004060101485768E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -4340,7 +4342,7 @@
         <v>7.3340485373173198E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -4401,7 +4403,7 @@
         <v>5.5034358822218216E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -4462,7 +4464,7 @@
         <v>2.7281260134313839E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -4523,7 +4525,7 @@
         <v>7.5037240811511299E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
         <f t="shared" ref="B13:L13" si="1">SUM(B2:B12)</f>
         <v>60322.776199999993</v>
@@ -4570,7 +4572,7 @@
       </c>
       <c r="N13" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
     </row>
   </sheetData>
@@ -4579,16 +4581,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -4624,7 +4626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -4673,7 +4675,7 @@
         <v>69073.142739999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -4722,7 +4724,7 @@
         <v>65358.525200690819</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -4771,7 +4773,7 @@
         <v>57680.303086647749</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -4820,7 +4822,7 @@
         <v>68453.228854418208</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -4869,7 +4871,7 @@
         <v>77035.726560895651</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -4918,7 +4920,7 @@
         <v>48762.332310911188</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -4967,7 +4969,7 @@
         <v>66877.976953680991</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -5016,7 +5018,7 @@
         <v>87464.935265014705</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -5065,7 +5067,7 @@
         <v>87047.282038229314</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -5114,7 +5116,7 @@
         <v>72883.151551295741</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -5169,21 +5171,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView topLeftCell="B10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -5222,7 +5224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -5276,7 +5278,7 @@
       </c>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -5330,7 +5332,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -5384,7 +5386,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -5438,7 +5440,7 @@
       </c>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -5492,7 +5494,7 @@
       </c>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -5546,7 +5548,7 @@
       </c>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -5600,7 +5602,7 @@
       </c>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -5654,7 +5656,7 @@
       </c>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -5708,7 +5710,7 @@
       </c>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -5762,7 +5764,7 @@
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -5816,7 +5818,7 @@
       </c>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
         <f t="shared" ref="B13:L13" si="1">SUM(B2:B12)</f>
         <v>60322.776199999993</v>
@@ -5862,7 +5864,7 @@
         <v>12483.611930365783</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -5875,7 +5877,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="13">
         <v>0</v>
       </c>
@@ -5910,7 +5912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>5</v>
       </c>
@@ -5956,7 +5958,7 @@
       </c>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -6005,130 +6007,130 @@
         <v>1.609887658052141E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <f>B17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>54440.652749622313</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <f>C17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>148686.81917539675</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <f>D17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>139964.12101219536</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <f>E17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>111939.61275389693</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <f>F17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>80542.07742319406</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <f>G17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>62165.076449165412</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <f>H17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>34965.397763609246</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="23">
         <f>I17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>28476.050154037483</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="23">
         <f>J17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>15475.775647659329</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="23">
         <f>K17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>11898.643142033754</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="23">
         <f>L17*Feuil2!$B$8*(Feuil2!$B$9+Feuil2!$B$10)</f>
         <v>11266.324678241283</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="23">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>0.99</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <v>6.2E-2</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="23">
         <v>0.11</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="23">
         <v>0.11</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="23">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="23">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="M19" s="24"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20">
         <v>1.7229999999999999E-2</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20">
         <v>1.8259999999999998E-2</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20">
         <v>1.9519999999999999E-2</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20">
         <v>2.0760000000000001E-2</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20">
         <v>2.12E-2</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20">
         <v>2.198E-2</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20">
         <v>2.2669999999999999E-2</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20">
         <v>2.351E-2</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20">
         <v>2.4140000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" s="14">
         <f>B19/((1+B20)^B15)</f>
         <v>8.8999999999999996E-2</v>
@@ -6178,7 +6180,7 @@
         <v>1.6173951712101613</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -6191,7 +6193,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -6204,7 +6206,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -6217,7 +6219,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -6230,7 +6232,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -6243,7 +6245,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -6256,7 +6258,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -6275,25 +6277,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -6311,7 +6313,7 @@
         <v>1052.198830690817</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -6320,7 +6322,7 @@
         <v>1909.2928366477499</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -6329,7 +6331,7 @@
         <v>3779.6598744182047</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -6338,7 +6340,7 @@
         <v>7388.1668008956476</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -6347,7 +6349,7 @@
         <v>7112.9173509111934</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -6356,7 +6358,7 @@
         <v>15696.202373680993</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -6365,7 +6367,7 @@
         <v>30594.249065014701</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -6374,7 +6376,7 @@
         <v>44371.783848229315</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -6383,7 +6385,7 @@
         <v>51728.342221295752</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -6392,7 +6394,7 @@
         <v>68978.485592715544</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -6401,7 +6403,7 @@
         <v>232611.29879449995</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" s="14"/>
     </row>
   </sheetData>

--- a/Application Bs4/Data/TriangleRgle.xlsx
+++ b/Application Bs4/Data/TriangleRgle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdouloudoussdiakite/Desktop/PFE/Risk based solvency/Application Bs4/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA6B6F1-A79B-7441-9B0D-AB34FE50E089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB55DD2-1594-4A45-859B-EB6BF7203308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="4580" windowWidth="14400" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZC 31-12-2021" sheetId="11" r:id="rId1"/>
@@ -1408,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1842,7 +1842,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1966,9 +1966,7 @@
       <c r="K3" s="8">
         <v>64306.326370000002</v>
       </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="10">
         <f t="shared" ref="M3:M12" si="0">SUM(B3:L3)</f>
         <v>428747.36074000003</v>
@@ -2012,12 +2010,8 @@
       <c r="J4" s="8">
         <v>55771.010249999999</v>
       </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="10">
         <f t="shared" si="0"/>
         <v>346325.68111</v>
@@ -2058,15 +2052,9 @@
       <c r="I5" s="8">
         <v>64673.568980000004</v>
       </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
         <v>358428.40081999998</v>
@@ -2104,18 +2092,10 @@
       <c r="H6" s="8">
         <v>69647.559760000004</v>
       </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="10">
         <f t="shared" si="0"/>
         <v>313153.59048000001</v>
@@ -2150,21 +2130,11 @@
       <c r="G7" s="8">
         <v>41649.414959999995</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="10">
         <f t="shared" si="0"/>
         <v>162306.04853999999</v>
@@ -2196,24 +2166,12 @@
       <c r="F8" s="8">
         <v>51181.774579999998</v>
       </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="10">
         <f t="shared" si="0"/>
         <v>159930.90086999998</v>
@@ -2245,24 +2203,12 @@
       <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="10">
         <f t="shared" si="0"/>
         <v>137029.20567</v>
@@ -2288,30 +2234,14 @@
       <c r="D10" s="8">
         <v>42675.498189999998</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="10">
         <f t="shared" si="0"/>
         <v>79596.056849999994</v>
@@ -2337,30 +2267,14 @@
       <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="10">
         <f t="shared" si="0"/>
         <v>26134.784199999987</v>
@@ -2380,36 +2294,16 @@
       <c r="B12" s="8">
         <v>5818.6407599999984</v>
       </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="10">
         <f t="shared" si="0"/>
         <v>5818.6407599999984</v>
@@ -2451,7 +2345,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:L14"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2498,7 +2392,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B2" s="8">
         <v>3504</v>
@@ -2536,7 +2430,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B3" s="8">
         <v>4774.2421799999993</v>
@@ -2574,7 +2468,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B4" s="8">
         <v>3821.9183899999998</v>
@@ -2612,7 +2506,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B5" s="8">
         <v>4074</v>
@@ -2650,7 +2544,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B6" s="8">
         <v>5070</v>
@@ -2688,7 +2582,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="8">
         <v>3817</v>
@@ -2726,7 +2620,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="8">
         <v>7838</v>
@@ -2764,7 +2658,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B9" s="8">
         <v>7690</v>
@@ -2802,7 +2696,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B10" s="8">
         <v>8935</v>
@@ -2840,7 +2734,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B11" s="8">
         <v>4979.9748699999936</v>
@@ -2878,7 +2772,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B12" s="8">
         <v>5818.6407599999984</v>
@@ -3806,7 +3700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>

--- a/Application Bs4/Data/TriangleRgle.xlsx
+++ b/Application Bs4/Data/TriangleRgle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdouloudoussdiakite/Desktop/PFE/Risk based solvency/Application Bs4/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Risk-based-solvency\Application Bs4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB55DD2-1594-4A45-859B-EB6BF7203308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B413DD9B-984E-48AE-B661-15A4C747A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="4580" windowWidth="14400" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZC 31-12-2021" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>fdc</t>
   </si>
@@ -278,6 +278,13 @@
   </si>
   <si>
     <t>Cad act</t>
+  </si>
+  <si>
+    <t>Années de développement</t>
+  </si>
+  <si>
+    <t>Années
+ de survenance</t>
   </si>
 </sst>
 </file>
@@ -285,16 +292,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#\ ##0.00"/>
-    <numFmt numFmtId="168" formatCode="#\ ###\ ##0.00"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_)\ _M_A_D_ ;_ * \(#,##0.0000\)\ _M_A_D_ ;_ * &quot;-&quot;????_)\ _M_A_D_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="####\ ##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#\ ##0.00"/>
+    <numFmt numFmtId="167" formatCode="#\ ###\ ##0.00"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.0000_)\ _M_A_D_ ;_ * \(#,##0.0000\)\ _M_A_D_ ;_ * &quot;-&quot;????_)\ _M_A_D_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="####\ ##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +343,22 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +401,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -404,38 +455,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,11 +520,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -461,6 +538,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -783,15 +889,15 @@
       <selection activeCell="C3" sqref="C3:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -799,7 +905,7 @@
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
@@ -816,7 +922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -836,7 +942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -856,7 +962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -876,7 +982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -896,7 +1002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -916,7 +1022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -936,7 +1042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -956,7 +1062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -976,7 +1082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -996,7 +1102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -1016,7 +1122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -1036,7 +1142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>12</v>
       </c>
@@ -1056,7 +1162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -1076,7 +1182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -1096,7 +1202,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -1116,7 +1222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>16</v>
       </c>
@@ -1136,7 +1242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>17</v>
       </c>
@@ -1156,7 +1262,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>18</v>
       </c>
@@ -1176,7 +1282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -1196,7 +1302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -1216,7 +1322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -1236,7 +1342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>22</v>
       </c>
@@ -1256,7 +1362,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>23</v>
       </c>
@@ -1276,7 +1382,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>24</v>
       </c>
@@ -1296,7 +1402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>25</v>
       </c>
@@ -1316,7 +1422,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>26</v>
       </c>
@@ -1336,7 +1442,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -1356,7 +1462,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>28</v>
       </c>
@@ -1376,7 +1482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>29</v>
       </c>
@@ -1412,9 +1518,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>71</v>
       </c>
@@ -1422,7 +1528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>133944</v>
       </c>
@@ -1430,7 +1536,7 @@
         <v>87047.282038229314</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>115787</v>
       </c>
@@ -1438,7 +1544,7 @@
         <v>72883.151551295741</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>86292</v>
       </c>
@@ -1446,7 +1552,7 @@
         <v>74797.126352715539</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>SUM(B2:B4)</f>
         <v>336023</v>
@@ -1456,7 +1562,7 @@
         <v>234727.55994224059</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -1465,7 +1571,7 @@
         <v>1.6173951712101613</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1474,7 +1580,7 @@
         <v>0.6985461112550051</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1482,7 +1588,7 @@
         <v>1824.41742</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -1490,7 +1596,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -1499,7 +1605,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1521,12 +1627,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1534,7 +1640,7 @@
         <v>0.69854611125500499</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1542,7 +1648,7 @@
         <v>1824.41742</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1550,7 +1656,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1559,7 +1665,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -1594,7 +1700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1632,7 +1738,7 @@
         <v>1.609887658052141E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1667,7 +1773,7 @@
         <v>2.351E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="27">
         <v>1.6199999999999999E-2</v>
       </c>
@@ -1699,7 +1805,7 @@
         <v>2.351E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="27" t="b">
         <f>C9=C8</f>
         <v>1</v>
@@ -1741,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>1.0162</v>
       </c>
@@ -1773,7 +1879,7 @@
         <v>1.2615977392212461</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1823,13 +1929,13 @@
         <v>0.86542871197178217</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="25">
         <f>$B$1*($B$2+$B$3)*M13-B4</f>
         <v>205644.79801922094</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="25"/>
     </row>
   </sheetData>
@@ -1845,9 +1951,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -1883,7 +1989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -1932,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -1979,7 +2085,7 @@
         <v>0.86772364576013972</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -2024,7 +2130,7 @@
         <v>0.7516438286527346</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -2067,7 +2173,7 @@
         <v>0.63957083587318475</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -2108,7 +2214,7 @@
         <v>0.51064357153442974</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -2147,7 +2253,7 @@
         <v>0.40950225370200766</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -2184,7 +2290,7 @@
         <v>0.29724377285188436</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -2221,7 +2327,7 @@
         <v>0.19618304108493489</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -2254,7 +2360,7 @@
         <v>0.11453307523149327</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -2287,7 +2393,7 @@
         <v>4.5286350860817795E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -2316,7 +2422,7 @@
         <v>9.8128104192966008E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2329,7 +2435,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
     </row>
   </sheetData>
@@ -2348,13 +2454,13 @@
       <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -2390,7 +2496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2012</v>
       </c>
@@ -2428,7 +2534,7 @@
         <v>69073.142739999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2013</v>
       </c>
@@ -2466,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2014</v>
       </c>
@@ -2504,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2015</v>
       </c>
@@ -2542,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2016</v>
       </c>
@@ -2580,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2017</v>
       </c>
@@ -2618,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2018</v>
       </c>
@@ -2656,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2019</v>
       </c>
@@ -2694,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2020</v>
       </c>
@@ -2732,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2021</v>
       </c>
@@ -2770,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2022</v>
       </c>
@@ -2808,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2821,10 +2927,10 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="5"/>
     </row>
   </sheetData>
@@ -2840,9 +2946,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -2878,7 +2984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -2927,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -2976,7 +3082,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -3025,7 +3131,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -3074,7 +3180,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -3123,7 +3229,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -3172,7 +3278,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -3221,7 +3327,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -3270,7 +3376,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -3319,7 +3425,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -3368,7 +3474,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -3430,14 +3536,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -3473,7 +3579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3519,7 +3625,7 @@
         <v>1.0163622910852779</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="16">
         <f>PRODUCT(C$2:$L2)</f>
         <v>12.854742101781781</v>
@@ -3561,7 +3667,7 @@
         <v>1.0163622910852779</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -3573,7 +3679,7 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -3608,7 +3714,7 @@
         <v>12.854742101781781</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>10</v>
       </c>
@@ -3640,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -3698,778 +3804,850 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:L12"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="30"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="30"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="35"/>
+      <c r="C3" s="38">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E3" s="38">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F3" s="38">
         <v>3</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G3" s="38">
         <v>4</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H3" s="38">
         <v>5</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I3" s="38">
         <v>6</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J3" s="38">
         <v>7</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K3" s="38">
         <v>8</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L3" s="38">
         <v>9</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M3" s="38">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N3" s="31"/>
+      <c r="O3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="36">
         <v>2011</v>
       </c>
-      <c r="B2" s="8">
+      <c r="C4" s="39">
         <f>'Cumulative Somme'!B2</f>
         <v>3504</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D4" s="39">
         <f>'Cumulative Somme'!C2</f>
         <v>17838.653549999995</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E4" s="39">
         <f>'Cumulative Somme'!D2</f>
         <v>29762.133099999995</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F4" s="39">
         <f>'Cumulative Somme'!E2</f>
         <v>37354.133099999992</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G4" s="39">
         <f>'Cumulative Somme'!F2</f>
         <v>48113.133099999992</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H4" s="39">
         <f>'Cumulative Somme'!G2</f>
         <v>54288.91958999999</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I4" s="39">
         <f>'Cumulative Somme'!H2</f>
         <v>60990.91958999999</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J4" s="39">
         <f>'Cumulative Somme'!I2</f>
         <v>64953.91958999999</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K4" s="39">
         <f>'Cumulative Somme'!J2</f>
         <v>67075.062649999993</v>
       </c>
-      <c r="K2" s="8">
+      <c r="L4" s="39">
         <f>'Cumulative Somme'!K2</f>
         <v>67961.142739999996</v>
       </c>
-      <c r="L2" s="8">
+      <c r="M4" s="39">
         <f>'Cumulative Somme'!L2</f>
         <v>69073.142739999996</v>
       </c>
-      <c r="M2" s="10">
-        <f>L2</f>
+      <c r="N4" s="32"/>
+      <c r="O4" s="10">
+        <f>M4</f>
         <v>69073.142739999996</v>
       </c>
-      <c r="N2" s="10">
-        <f>L2</f>
+      <c r="P4" s="10">
+        <f>M4</f>
         <v>69073.142739999996</v>
       </c>
-      <c r="O2">
-        <f>M2/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+      <c r="Q4">
+        <f>O4/SUM('Triangle décumulé'!$M$2:$M$12)</f>
         <v>8.9076783722755112E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="36">
         <v>2012</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C5" s="39">
         <f>'Cumulative Somme'!B3</f>
         <v>4774.2421799999993</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D5" s="39">
         <f>'Cumulative Somme'!C3</f>
         <v>14225.851269999999</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E5" s="39">
         <f>'Cumulative Somme'!D3</f>
         <v>24891.851269999999</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F5" s="39">
         <f>'Cumulative Somme'!E3</f>
         <v>38451.851269999999</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G5" s="39">
         <f>'Cumulative Somme'!F3</f>
         <v>45605.978690000004</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H5" s="39">
         <f>'Cumulative Somme'!G3</f>
         <v>54219.978690000004</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I5" s="39">
         <f>'Cumulative Somme'!H3</f>
         <v>57611.978690000004</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J5" s="39">
         <f>'Cumulative Somme'!I3</f>
         <v>61752.559570000005</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K5" s="39">
         <f>'Cumulative Somme'!J3</f>
         <v>62906.742740000002</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L5" s="39">
         <f>'Cumulative Somme'!K3</f>
         <v>64306.326370000002</v>
       </c>
-      <c r="L3" s="9">
-        <f>K3*fdc!L2</f>
+      <c r="M5" s="40">
+        <f>L5*fdc!L2</f>
         <v>65358.525200690819</v>
       </c>
-      <c r="M3" s="10">
-        <f>K3</f>
+      <c r="N5" s="32"/>
+      <c r="O5" s="10">
+        <f>L5</f>
         <v>64306.326370000002</v>
       </c>
-      <c r="N3" s="10">
-        <f t="shared" ref="N3:N12" si="0">L3</f>
+      <c r="P5" s="10">
+        <f t="shared" ref="P5:P14" si="0">M5</f>
         <v>65358.525200690819</v>
       </c>
-      <c r="O3">
-        <f>M3/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+      <c r="Q5">
+        <f>O5/SUM('Triangle décumulé'!$M$2:$M$12)</f>
         <v>8.2929493271025209E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="36">
         <v>2013</v>
       </c>
-      <c r="B4" s="8">
+      <c r="C6" s="39">
         <f>'Cumulative Somme'!B4</f>
         <v>3821.9183899999998</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D6" s="39">
         <f>'Cumulative Somme'!C4</f>
         <v>12489.918389999999</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E6" s="39">
         <f>'Cumulative Somme'!D4</f>
         <v>28284.918389999999</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F6" s="39">
         <f>'Cumulative Somme'!E4</f>
         <v>39782.62745</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G6" s="39">
         <f>'Cumulative Somme'!F4</f>
         <v>46485.62745</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H6" s="39">
         <f>'Cumulative Somme'!G4</f>
         <v>51429.62745</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I6" s="39">
         <f>'Cumulative Somme'!H4</f>
         <v>53462.045610000001</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J6" s="39">
         <f>'Cumulative Somme'!I4</f>
         <v>54797.987730000001</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K6" s="39">
         <f>'Cumulative Somme'!J4</f>
         <v>55771.010249999999</v>
       </c>
-      <c r="K4" s="9">
-        <f>J4*fdc!K2</f>
+      <c r="L6" s="40">
+        <f>K6*fdc!K2</f>
         <v>56751.715006128739</v>
       </c>
-      <c r="L4" s="9">
-        <f>K4*fdc!L2</f>
+      <c r="M6" s="40">
+        <f>L6*fdc!L2</f>
         <v>57680.303086647749</v>
       </c>
-      <c r="M4" s="10">
-        <f>J4</f>
+      <c r="N6" s="32"/>
+      <c r="O6" s="10">
+        <f>K6</f>
         <v>55771.010249999999</v>
       </c>
-      <c r="N4" s="10">
+      <c r="P6" s="10">
         <f t="shared" si="0"/>
         <v>57680.303086647749</v>
       </c>
-      <c r="O4">
-        <f>M4/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+      <c r="Q6">
+        <f>O6/SUM('Triangle décumulé'!$M$2:$M$12)</f>
         <v>7.1922342331209935E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="36">
         <v>2014</v>
       </c>
-      <c r="B5" s="8">
+      <c r="C7" s="39">
         <f>'Cumulative Somme'!B5</f>
         <v>4074</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D7" s="39">
         <f>'Cumulative Somme'!C5</f>
         <v>19021</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E7" s="39">
         <f>'Cumulative Somme'!D5</f>
         <v>35729</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F7" s="39">
         <f>'Cumulative Somme'!E5</f>
         <v>50865</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G7" s="39">
         <f>'Cumulative Somme'!F5</f>
         <v>58417</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H7" s="39">
         <f>'Cumulative Somme'!G5</f>
         <v>62138.268880000003</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I7" s="39">
         <f>'Cumulative Somme'!H5</f>
         <v>63510.562960000003</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J7" s="39">
         <f>'Cumulative Somme'!I5</f>
         <v>64673.568980000004</v>
       </c>
-      <c r="J5" s="9">
-        <f>I5*fdc!J2</f>
+      <c r="K7" s="40">
+        <f>J7*fdc!J2</f>
         <v>66187.338203656283</v>
       </c>
-      <c r="K5" s="9">
-        <f>J5*fdc!K2</f>
+      <c r="L7" s="40">
+        <f>K7*fdc!K2</f>
         <v>67351.208771552745</v>
       </c>
-      <c r="L5" s="9">
-        <f>K5*fdc!L2</f>
+      <c r="M7" s="40">
+        <f>L7*fdc!L2</f>
         <v>68453.228854418208</v>
       </c>
-      <c r="M5" s="10">
-        <f>I5</f>
+      <c r="N7" s="32"/>
+      <c r="O7" s="10">
+        <f>J7</f>
         <v>64673.568980000004</v>
       </c>
-      <c r="N5" s="10">
+      <c r="P7" s="10">
         <f t="shared" si="0"/>
         <v>68453.228854418208</v>
       </c>
-      <c r="O5">
-        <f>M5/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+      <c r="Q7">
+        <f>O7/SUM('Triangle décumulé'!$M$2:$M$12)</f>
         <v>8.3403089653744988E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="36">
         <v>2015</v>
       </c>
-      <c r="B6" s="8">
+      <c r="C8" s="39">
         <f>'Cumulative Somme'!B6</f>
         <v>5070</v>
       </c>
-      <c r="C6" s="8">
+      <c r="D8" s="39">
         <f>'Cumulative Somme'!C6</f>
         <v>19512</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E8" s="39">
         <f>'Cumulative Somme'!D6</f>
         <v>41560</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F8" s="39">
         <f>'Cumulative Somme'!E6</f>
         <v>51917</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G8" s="39">
         <f>'Cumulative Somme'!F6</f>
         <v>59168.44096</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H8" s="39">
         <f>'Cumulative Somme'!G6</f>
         <v>66278.589760000003</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I8" s="39">
         <f>'Cumulative Somme'!H6</f>
         <v>69647.559760000004</v>
       </c>
-      <c r="I6" s="9">
-        <f>H6*fdc!I2</f>
+      <c r="J8" s="40">
+        <f>I8*fdc!I2</f>
         <v>72782.18221460763</v>
       </c>
-      <c r="J6" s="9">
-        <f>I6*fdc!J2</f>
+      <c r="K8" s="40">
+        <f>J8*fdc!J2</f>
         <v>74485.744105572507</v>
       </c>
-      <c r="K6" s="9">
-        <f>J6*fdc!K2</f>
+      <c r="L8" s="40">
+        <f>K8*fdc!K2</f>
         <v>75795.537906700993</v>
       </c>
-      <c r="L6" s="9">
-        <f>K6*fdc!L2</f>
+      <c r="M8" s="40">
+        <f>L8*fdc!L2</f>
         <v>77035.726560895651</v>
       </c>
-      <c r="M6" s="10">
-        <f>I5</f>
+      <c r="N8" s="32"/>
+      <c r="O8" s="10">
+        <f>J7</f>
         <v>64673.568980000004</v>
       </c>
-      <c r="N6" s="10">
+      <c r="P8" s="10">
         <f t="shared" si="0"/>
         <v>77035.726560895651</v>
       </c>
-      <c r="O6">
-        <f>M6/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+      <c r="Q8">
+        <f>O8/SUM('Triangle décumulé'!$M$2:$M$12)</f>
         <v>8.3403089653744988E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="36">
         <v>2016</v>
       </c>
-      <c r="B7" s="8">
+      <c r="C9" s="39">
         <f>'Cumulative Somme'!B7</f>
         <v>3817</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D9" s="39">
         <f>'Cumulative Somme'!C7</f>
         <v>17940</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E9" s="39">
         <f>'Cumulative Somme'!D7</f>
         <v>27339</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F9" s="39">
         <f>'Cumulative Somme'!E7</f>
         <v>33666.672059999997</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G9" s="39">
         <f>'Cumulative Somme'!F7</f>
         <v>37893.961519999997</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H9" s="39">
         <f>'Cumulative Somme'!G7</f>
         <v>41649.414959999995</v>
       </c>
-      <c r="H7" s="9">
-        <f>G7*fdc!H2</f>
+      <c r="I9" s="40">
+        <f>H9*fdc!H2</f>
         <v>44085.745734825199</v>
       </c>
-      <c r="I7" s="9">
-        <f>H7*fdc!I2</f>
+      <c r="J9" s="40">
+        <f>I9*fdc!I2</f>
         <v>46069.909558865911</v>
       </c>
-      <c r="J7" s="9">
-        <f>I7*fdc!J2</f>
+      <c r="K9" s="40">
+        <f>J9*fdc!J2</f>
         <v>47148.235872485719</v>
       </c>
-      <c r="K7" s="9">
-        <f>J7*fdc!K2</f>
+      <c r="L9" s="40">
+        <f>K9*fdc!K2</f>
         <v>47977.313541259457</v>
       </c>
-      <c r="L7" s="9">
-        <f>K7*fdc!L2</f>
+      <c r="M9" s="40">
+        <f>L9*fdc!L2</f>
         <v>48762.332310911188</v>
       </c>
-      <c r="M7" s="10">
-        <f>G7</f>
+      <c r="N9" s="32"/>
+      <c r="O9" s="10">
+        <f>H9</f>
         <v>41649.414959999995</v>
       </c>
-      <c r="N7" s="10">
+      <c r="P9" s="10">
         <f t="shared" si="0"/>
         <v>48762.332310911188</v>
       </c>
-      <c r="O7">
-        <f>M7/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+      <c r="Q9">
+        <f>O9/SUM('Triangle décumulé'!$M$2:$M$12)</f>
         <v>5.3711121014662563E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="36">
         <v>2017</v>
       </c>
-      <c r="B8" s="8">
+      <c r="C10" s="39">
         <f>'Cumulative Somme'!B8</f>
         <v>7838</v>
       </c>
-      <c r="C8" s="8">
+      <c r="D10" s="39">
         <f>'Cumulative Somme'!C8</f>
         <v>23756</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E10" s="39">
         <f>'Cumulative Somme'!D8</f>
         <v>34489.852959999997</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F10" s="39">
         <f>'Cumulative Somme'!E8</f>
         <v>42665.273329999996</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G10" s="39">
         <f>'Cumulative Somme'!F8</f>
         <v>51181.774579999998</v>
       </c>
-      <c r="G8" s="9">
-        <f>F8*fdc!G2</f>
+      <c r="H10" s="40">
+        <f>G10*fdc!G2</f>
         <v>57122.546888633973</v>
       </c>
-      <c r="H8" s="9">
-        <f>G8*fdc!H2</f>
+      <c r="I10" s="40">
+        <f>H10*fdc!H2</f>
         <v>60463.996439722083</v>
       </c>
-      <c r="I8" s="9">
-        <f>H8*fdc!I2</f>
+      <c r="J10" s="40">
+        <f>I10*fdc!I2</f>
         <v>63185.29495453553</v>
       </c>
-      <c r="J8" s="9">
-        <f>I8*fdc!J2</f>
+      <c r="K10" s="40">
+        <f>J10*fdc!J2</f>
         <v>64664.229183747455</v>
       </c>
-      <c r="K8" s="9">
-        <f>J8*fdc!K2</f>
+      <c r="L10" s="40">
+        <f>K10*fdc!K2</f>
         <v>65801.316656748721</v>
       </c>
-      <c r="L8" s="9">
-        <f>K8*fdc!L2</f>
+      <c r="M10" s="40">
+        <f>L10*fdc!L2</f>
         <v>66877.976953680991</v>
       </c>
-      <c r="M8" s="10">
-        <f>F8</f>
+      <c r="N10" s="32"/>
+      <c r="O10" s="10">
+        <f>G10</f>
         <v>51181.774579999998</v>
       </c>
-      <c r="N8" s="10">
+      <c r="P10" s="10">
         <f t="shared" si="0"/>
         <v>66877.976953680991</v>
       </c>
-      <c r="O8">
-        <f>M8/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+      <c r="Q10">
+        <f>O10/SUM('Triangle décumulé'!$M$2:$M$12)</f>
         <v>6.6004060101485768E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="36">
         <v>2018</v>
       </c>
-      <c r="B9" s="8">
+      <c r="C11" s="39">
         <f>'Cumulative Somme'!B9</f>
         <v>7690</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D11" s="39">
         <f>'Cumulative Somme'!C9</f>
         <v>29440.545599999994</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E11" s="39">
         <f>'Cumulative Somme'!D9</f>
         <v>43027.973869999994</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F11" s="39">
         <f>'Cumulative Somme'!E9</f>
         <v>56870.686200000004</v>
       </c>
-      <c r="F9" s="9">
-        <f>E9*fdc!F2</f>
+      <c r="G11" s="40">
+        <f>F11*fdc!F2</f>
         <v>66936.991881329348</v>
       </c>
-      <c r="G9" s="9">
-        <f>F9*fdc!G2</f>
+      <c r="H11" s="40">
+        <f>G11*fdc!G2</f>
         <v>74706.504194160501</v>
       </c>
-      <c r="H9" s="9">
-        <f>G9*fdc!H2</f>
+      <c r="I11" s="40">
+        <f>H11*fdc!H2</f>
         <v>79076.547697115893</v>
       </c>
-      <c r="I9" s="9">
-        <f>H9*fdc!I2</f>
+      <c r="J11" s="40">
+        <f>I11*fdc!I2</f>
         <v>82635.539898686038</v>
       </c>
-      <c r="J9" s="9">
-        <f>I9*fdc!J2</f>
+      <c r="K11" s="40">
+        <f>J11*fdc!J2</f>
         <v>84569.732476144316</v>
       </c>
-      <c r="K9" s="9">
-        <f>J9*fdc!K2</f>
+      <c r="L11" s="40">
+        <f>K11*fdc!K2</f>
         <v>86056.848067059938</v>
       </c>
-      <c r="L9" s="9">
-        <f>K9*fdc!L2</f>
+      <c r="M11" s="40">
+        <f>L11*fdc!L2</f>
         <v>87464.935265014705</v>
       </c>
-      <c r="M9" s="10">
-        <f>E9</f>
+      <c r="N11" s="32"/>
+      <c r="O11" s="10">
+        <f>F11</f>
         <v>56870.686200000004</v>
       </c>
-      <c r="N9" s="10">
+      <c r="P11" s="10">
         <f t="shared" si="0"/>
         <v>87464.935265014705</v>
       </c>
-      <c r="O9">
-        <f>M9/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+      <c r="Q11">
+        <f>O11/SUM('Triangle décumulé'!$M$2:$M$12)</f>
         <v>7.3340485373173198E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="36">
         <v>2019</v>
       </c>
-      <c r="B10" s="8">
+      <c r="C12" s="39">
         <f>'Cumulative Somme'!B10</f>
         <v>8935</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D12" s="39">
         <f>'Cumulative Somme'!C10</f>
         <v>27985.558659999999</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E12" s="39">
         <f>'Cumulative Somme'!D10</f>
         <v>42675.498189999998</v>
       </c>
-      <c r="E10" s="9">
-        <f>D10*fdc!E2</f>
+      <c r="F12" s="40">
+        <f>E12*fdc!E2</f>
         <v>56599.123367089174</v>
       </c>
-      <c r="F10" s="9">
-        <f>E10*fdc!F2</f>
+      <c r="G12" s="40">
+        <f>F12*fdc!F2</f>
         <v>66617.361499555918</v>
       </c>
-      <c r="G10" s="9">
-        <f>F10*fdc!G2</f>
+      <c r="H12" s="40">
+        <f>G12*fdc!G2</f>
         <v>74349.773666160807</v>
       </c>
-      <c r="H10" s="9">
-        <f>G10*fdc!H2</f>
+      <c r="I12" s="40">
+        <f>H12*fdc!H2</f>
         <v>78698.949803643729</v>
       </c>
-      <c r="I10" s="9">
-        <f>H10*fdc!I2</f>
+      <c r="J12" s="40">
+        <f>I12*fdc!I2</f>
         <v>82240.947485380457</v>
       </c>
-      <c r="J10" s="9">
-        <f>I10*fdc!J2</f>
+      <c r="K12" s="40">
+        <f>J12*fdc!J2</f>
         <v>84165.904112811986</v>
       </c>
-      <c r="K10" s="9">
-        <f>J10*fdc!K2</f>
+      <c r="L12" s="40">
+        <f>K12*fdc!K2</f>
         <v>85645.918588026019</v>
       </c>
-      <c r="L10" s="9">
-        <f>K10*fdc!L2</f>
+      <c r="M12" s="40">
+        <f>L12*fdc!L2</f>
         <v>87047.282038229314</v>
       </c>
-      <c r="M10" s="10">
-        <f>D10</f>
+      <c r="N12" s="32"/>
+      <c r="O12" s="10">
+        <f>E12</f>
         <v>42675.498189999998</v>
       </c>
-      <c r="N10" s="10">
+      <c r="P12" s="10">
         <f t="shared" si="0"/>
         <v>87047.282038229314</v>
       </c>
-      <c r="O10">
-        <f>M10/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+      <c r="Q12">
+        <f>O12/SUM('Triangle décumulé'!$M$2:$M$12)</f>
         <v>5.5034358822218216E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="36">
         <v>2020</v>
       </c>
-      <c r="B11" s="8">
+      <c r="C13" s="39">
         <f>'Cumulative Somme'!B11</f>
         <v>4979.9748699999936</v>
       </c>
-      <c r="C11" s="8">
+      <c r="D13" s="39">
         <f>'Cumulative Somme'!C11</f>
         <v>21154.809329999993</v>
       </c>
-      <c r="D11" s="9">
-        <f>C11*fdc!D2</f>
+      <c r="E13" s="40">
+        <f>D13*fdc!D2</f>
         <v>35731.440767361688</v>
       </c>
-      <c r="E11" s="9">
-        <f>D11*fdc!E2</f>
+      <c r="F13" s="40">
+        <f>E13*fdc!E2</f>
         <v>47389.446165847883</v>
       </c>
-      <c r="F11" s="9">
-        <f>E11*fdc!F2</f>
+      <c r="G13" s="40">
+        <f>F13*fdc!F2</f>
         <v>55777.539980941074</v>
       </c>
-      <c r="G11" s="9">
-        <f>F11*fdc!G2</f>
+      <c r="H13" s="40">
+        <f>G13*fdc!G2</f>
         <v>62251.75209417216</v>
       </c>
-      <c r="H11" s="9">
-        <f>G11*fdc!H2</f>
+      <c r="I13" s="40">
+        <f>H13*fdc!H2</f>
         <v>65893.240445436648</v>
       </c>
-      <c r="I11" s="9">
-        <f>H11*fdc!I2</f>
+      <c r="J13" s="40">
+        <f>I13*fdc!I2</f>
         <v>68858.892534596438</v>
       </c>
-      <c r="J11" s="9">
-        <f>I11*fdc!J2</f>
+      <c r="K13" s="40">
+        <f>J13*fdc!J2</f>
         <v>70470.624714185324</v>
       </c>
-      <c r="K11" s="9">
-        <f>J11*fdc!K2</f>
+      <c r="L13" s="40">
+        <f>K13*fdc!K2</f>
         <v>71709.814689671999</v>
       </c>
-      <c r="L11" s="9">
-        <f>K11*fdc!L2</f>
+      <c r="M13" s="40">
+        <f>L13*fdc!L2</f>
         <v>72883.151551295741</v>
       </c>
-      <c r="M11" s="10">
-        <f>C11</f>
+      <c r="N13" s="32"/>
+      <c r="O13" s="10">
+        <f>D13</f>
         <v>21154.809329999993</v>
       </c>
-      <c r="N11" s="10">
+      <c r="P13" s="10">
         <f t="shared" si="0"/>
         <v>72883.151551295741</v>
       </c>
-      <c r="O11">
-        <f>M11/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+      <c r="Q13">
+        <f>O13/SUM('Triangle décumulé'!$M$2:$M$12)</f>
         <v>2.7281260134313839E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="36">
         <v>2021</v>
       </c>
-      <c r="B12" s="8">
+      <c r="C14" s="39">
         <f>'Cumulative Somme'!B12</f>
         <v>5818.6407599999984</v>
       </c>
-      <c r="C12" s="9">
-        <f>B12*fdc!C2</f>
+      <c r="D14" s="40">
+        <f>C14*fdc!C2</f>
         <v>21710.35297931602</v>
       </c>
-      <c r="D12" s="9">
-        <f>C12*fdc!D2</f>
+      <c r="E14" s="40">
+        <f>D14*fdc!D2</f>
         <v>36669.779406560359</v>
       </c>
-      <c r="E12" s="9">
-        <f>D12*fdc!E2</f>
+      <c r="F14" s="40">
+        <f>E14*fdc!E2</f>
         <v>48633.934142617589</v>
       </c>
-      <c r="F12" s="9">
-        <f>E12*fdc!F2</f>
+      <c r="G14" s="40">
+        <f>F14*fdc!F2</f>
         <v>57242.306579756019</v>
       </c>
-      <c r="G12" s="9">
-        <f>F12*fdc!G2</f>
+      <c r="H14" s="40">
+        <f>G14*fdc!G2</f>
         <v>63886.537120840767</v>
       </c>
-      <c r="H12" s="9">
-        <f>G12*fdc!H2</f>
+      <c r="I14" s="40">
+        <f>H14*fdc!H2</f>
         <v>67623.654115977479</v>
       </c>
-      <c r="I12" s="9">
-        <f>H12*fdc!I2</f>
+      <c r="J14" s="40">
+        <f>I14*fdc!I2</f>
         <v>70667.186802334487</v>
       </c>
-      <c r="J12" s="9">
-        <f>I12*fdc!J2</f>
+      <c r="K14" s="40">
+        <f>J14*fdc!J2</f>
         <v>72321.244467480879</v>
       </c>
-      <c r="K12" s="9">
-        <f>J12*fdc!K2</f>
+      <c r="L14" s="40">
+        <f>K14*fdc!K2</f>
         <v>73592.976646985509</v>
       </c>
-      <c r="L12" s="9">
-        <f>K12*fdc!L2</f>
+      <c r="M14" s="40">
+        <f>L14*fdc!L2</f>
         <v>74797.126352715539</v>
       </c>
-      <c r="M12" s="10">
-        <f>B12</f>
+      <c r="N14" s="32"/>
+      <c r="O14" s="10">
+        <f>C14</f>
         <v>5818.6407599999984</v>
       </c>
-      <c r="N12" s="10">
+      <c r="P14" s="10">
         <f t="shared" si="0"/>
         <v>74797.126352715539</v>
       </c>
-      <c r="O12">
-        <f>M12/SUM('Triangle décumulé'!$M$2:$M$12)</f>
+      <c r="Q14">
+        <f>O14/SUM('Triangle décumulé'!$M$2:$M$12)</f>
         <v>7.5037240811511299E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="10">
-        <f t="shared" ref="B13:L13" si="1">SUM(B2:B12)</f>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="10">
+        <f t="shared" ref="C16:M16" si="1">SUM(C4:C14)</f>
         <v>60322.776199999993</v>
       </c>
-      <c r="C13" s="10">
+      <c r="D16" s="10">
         <f t="shared" si="1"/>
         <v>225074.68977931602</v>
       </c>
-      <c r="D13" s="10">
+      <c r="E16" s="10">
         <f t="shared" si="1"/>
         <v>380161.44795392203</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F16" s="10">
         <f t="shared" si="1"/>
         <v>504195.74708555464</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G16" s="10">
         <f t="shared" si="1"/>
         <v>593440.11624158232</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>662321.91329396819</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I16" s="10">
         <f t="shared" si="1"/>
         <v>701065.20084672107</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J16" s="10">
         <f t="shared" si="1"/>
         <v>732617.98931900656</v>
       </c>
-      <c r="J13" s="10">
+      <c r="K16" s="10">
         <f t="shared" si="1"/>
         <v>749765.86877608451</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L16" s="10">
         <f t="shared" si="1"/>
         <v>762950.11898413394</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M16" s="10">
         <f t="shared" si="1"/>
         <v>775433.73091449996</v>
       </c>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
+      <c r="N16" s="33"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4482,9 +4660,9 @@
       <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -4520,7 +4698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -4569,7 +4747,7 @@
         <v>69073.142739999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -4618,7 +4796,7 @@
         <v>65358.525200690819</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -4667,7 +4845,7 @@
         <v>57680.303086647749</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -4716,7 +4894,7 @@
         <v>68453.228854418208</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -4765,7 +4943,7 @@
         <v>77035.726560895651</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -4814,7 +4992,7 @@
         <v>48762.332310911188</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -4863,7 +5041,7 @@
         <v>66877.976953680991</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -4912,7 +5090,7 @@
         <v>87464.935265014705</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -4961,7 +5139,7 @@
         <v>87047.282038229314</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -5010,7 +5188,7 @@
         <v>72883.151551295741</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -5068,18 +5246,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -5118,7 +5296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
@@ -5127,43 +5305,43 @@
         <v>3504</v>
       </c>
       <c r="C2" s="8">
-        <f>'Reglements  futurs'!C2-'Reglements  futurs'!B2</f>
+        <f>'Reglements  futurs'!D4-'Reglements  futurs'!C4</f>
         <v>14334.653549999995</v>
       </c>
       <c r="D2" s="8">
-        <f>'Reglements  futurs'!D2-'Reglements  futurs'!C2</f>
+        <f>'Reglements  futurs'!E4-'Reglements  futurs'!D4</f>
         <v>11923.47955</v>
       </c>
       <c r="E2" s="8">
-        <f>'Reglements  futurs'!E2-'Reglements  futurs'!D2</f>
+        <f>'Reglements  futurs'!F4-'Reglements  futurs'!E4</f>
         <v>7591.9999999999964</v>
       </c>
       <c r="F2" s="8">
-        <f>'Reglements  futurs'!F2-'Reglements  futurs'!E2</f>
+        <f>'Reglements  futurs'!G4-'Reglements  futurs'!F4</f>
         <v>10759</v>
       </c>
       <c r="G2" s="8">
-        <f>'Reglements  futurs'!G2-'Reglements  futurs'!F2</f>
+        <f>'Reglements  futurs'!H4-'Reglements  futurs'!G4</f>
         <v>6175.7864899999986</v>
       </c>
       <c r="H2" s="8">
-        <f>'Reglements  futurs'!H2-'Reglements  futurs'!G2</f>
+        <f>'Reglements  futurs'!I4-'Reglements  futurs'!H4</f>
         <v>6702</v>
       </c>
       <c r="I2" s="8">
-        <f>'Reglements  futurs'!I2-'Reglements  futurs'!H2</f>
+        <f>'Reglements  futurs'!J4-'Reglements  futurs'!I4</f>
         <v>3963</v>
       </c>
       <c r="J2" s="8">
-        <f>'Reglements  futurs'!J2-'Reglements  futurs'!I2</f>
+        <f>'Reglements  futurs'!K4-'Reglements  futurs'!J4</f>
         <v>2121.1430600000022</v>
       </c>
       <c r="K2" s="8">
-        <f>'Reglements  futurs'!K2-'Reglements  futurs'!J2</f>
+        <f>'Reglements  futurs'!L4-'Reglements  futurs'!K4</f>
         <v>886.08009000000311</v>
       </c>
       <c r="L2" s="8">
-        <f>'Reglements  futurs'!L2-'Reglements  futurs'!K2</f>
+        <f>'Reglements  futurs'!M4-'Reglements  futurs'!L4</f>
         <v>1112</v>
       </c>
       <c r="M2" s="10">
@@ -5172,7 +5350,7 @@
       </c>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -5181,43 +5359,43 @@
         <v>4774.2421799999993</v>
       </c>
       <c r="C3" s="8">
-        <f>'Reglements  futurs'!C3-'Reglements  futurs'!B3</f>
+        <f>'Reglements  futurs'!D5-'Reglements  futurs'!C5</f>
         <v>9451.6090899999999</v>
       </c>
       <c r="D3" s="8">
-        <f>'Reglements  futurs'!D3-'Reglements  futurs'!C3</f>
+        <f>'Reglements  futurs'!E5-'Reglements  futurs'!D5</f>
         <v>10666</v>
       </c>
       <c r="E3" s="8">
-        <f>'Reglements  futurs'!E3-'Reglements  futurs'!D3</f>
+        <f>'Reglements  futurs'!F5-'Reglements  futurs'!E5</f>
         <v>13560</v>
       </c>
       <c r="F3" s="8">
-        <f>'Reglements  futurs'!F3-'Reglements  futurs'!E3</f>
+        <f>'Reglements  futurs'!G5-'Reglements  futurs'!F5</f>
         <v>7154.1274200000043</v>
       </c>
       <c r="G3" s="8">
-        <f>'Reglements  futurs'!G3-'Reglements  futurs'!F3</f>
+        <f>'Reglements  futurs'!H5-'Reglements  futurs'!G5</f>
         <v>8614</v>
       </c>
       <c r="H3" s="8">
-        <f>'Reglements  futurs'!H3-'Reglements  futurs'!G3</f>
+        <f>'Reglements  futurs'!I5-'Reglements  futurs'!H5</f>
         <v>3392</v>
       </c>
       <c r="I3" s="8">
-        <f>'Reglements  futurs'!I3-'Reglements  futurs'!H3</f>
+        <f>'Reglements  futurs'!J5-'Reglements  futurs'!I5</f>
         <v>4140.5808800000013</v>
       </c>
       <c r="J3" s="8">
-        <f>'Reglements  futurs'!J3-'Reglements  futurs'!I3</f>
+        <f>'Reglements  futurs'!K5-'Reglements  futurs'!J5</f>
         <v>1154.1831699999966</v>
       </c>
       <c r="K3" s="8">
-        <f>'Reglements  futurs'!K3-'Reglements  futurs'!J3</f>
+        <f>'Reglements  futurs'!L5-'Reglements  futurs'!K5</f>
         <v>1399.583630000001</v>
       </c>
       <c r="L3" s="9">
-        <f>'Reglements  futurs'!L3-'Reglements  futurs'!K3</f>
+        <f>'Reglements  futurs'!M5-'Reglements  futurs'!L5</f>
         <v>1052.198830690817</v>
       </c>
       <c r="M3" s="10">
@@ -5226,7 +5404,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -5235,43 +5413,43 @@
         <v>3821.9183899999998</v>
       </c>
       <c r="C4" s="8">
-        <f>'Reglements  futurs'!C4-'Reglements  futurs'!B4</f>
+        <f>'Reglements  futurs'!D6-'Reglements  futurs'!C6</f>
         <v>8668</v>
       </c>
       <c r="D4" s="8">
-        <f>'Reglements  futurs'!D4-'Reglements  futurs'!C4</f>
+        <f>'Reglements  futurs'!E6-'Reglements  futurs'!D6</f>
         <v>15795</v>
       </c>
       <c r="E4" s="8">
-        <f>'Reglements  futurs'!E4-'Reglements  futurs'!D4</f>
+        <f>'Reglements  futurs'!F6-'Reglements  futurs'!E6</f>
         <v>11497.709060000001</v>
       </c>
       <c r="F4" s="8">
-        <f>'Reglements  futurs'!F4-'Reglements  futurs'!E4</f>
+        <f>'Reglements  futurs'!G6-'Reglements  futurs'!F6</f>
         <v>6703</v>
       </c>
       <c r="G4" s="8">
-        <f>'Reglements  futurs'!G4-'Reglements  futurs'!F4</f>
+        <f>'Reglements  futurs'!H6-'Reglements  futurs'!G6</f>
         <v>4944</v>
       </c>
       <c r="H4" s="8">
-        <f>'Reglements  futurs'!H4-'Reglements  futurs'!G4</f>
+        <f>'Reglements  futurs'!I6-'Reglements  futurs'!H6</f>
         <v>2032.4181600000011</v>
       </c>
       <c r="I4" s="8">
-        <f>'Reglements  futurs'!I4-'Reglements  futurs'!H4</f>
+        <f>'Reglements  futurs'!J6-'Reglements  futurs'!I6</f>
         <v>1335.9421199999997</v>
       </c>
       <c r="J4" s="8">
-        <f>'Reglements  futurs'!J4-'Reglements  futurs'!I4</f>
+        <f>'Reglements  futurs'!K6-'Reglements  futurs'!J6</f>
         <v>973.02251999999862</v>
       </c>
       <c r="K4" s="9">
-        <f>'Reglements  futurs'!K4-'Reglements  futurs'!J4</f>
+        <f>'Reglements  futurs'!L6-'Reglements  futurs'!K6</f>
         <v>980.70475612873997</v>
       </c>
       <c r="L4" s="9">
-        <f>'Reglements  futurs'!L4-'Reglements  futurs'!K4</f>
+        <f>'Reglements  futurs'!M6-'Reglements  futurs'!L6</f>
         <v>928.58808051900996</v>
       </c>
       <c r="M4" s="10">
@@ -5280,7 +5458,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -5289,43 +5467,43 @@
         <v>4074</v>
       </c>
       <c r="C5" s="8">
-        <f>'Reglements  futurs'!C5-'Reglements  futurs'!B5</f>
+        <f>'Reglements  futurs'!D7-'Reglements  futurs'!C7</f>
         <v>14947</v>
       </c>
       <c r="D5" s="8">
-        <f>'Reglements  futurs'!D5-'Reglements  futurs'!C5</f>
+        <f>'Reglements  futurs'!E7-'Reglements  futurs'!D7</f>
         <v>16708</v>
       </c>
       <c r="E5" s="8">
-        <f>'Reglements  futurs'!E5-'Reglements  futurs'!D5</f>
+        <f>'Reglements  futurs'!F7-'Reglements  futurs'!E7</f>
         <v>15136</v>
       </c>
       <c r="F5" s="8">
-        <f>'Reglements  futurs'!F5-'Reglements  futurs'!E5</f>
+        <f>'Reglements  futurs'!G7-'Reglements  futurs'!F7</f>
         <v>7552</v>
       </c>
       <c r="G5" s="8">
-        <f>'Reglements  futurs'!G5-'Reglements  futurs'!F5</f>
+        <f>'Reglements  futurs'!H7-'Reglements  futurs'!G7</f>
         <v>3721.2688800000033</v>
       </c>
       <c r="H5" s="8">
-        <f>'Reglements  futurs'!H5-'Reglements  futurs'!G5</f>
+        <f>'Reglements  futurs'!I7-'Reglements  futurs'!H7</f>
         <v>1372.2940799999997</v>
       </c>
       <c r="I5" s="8">
-        <f>'Reglements  futurs'!I5-'Reglements  futurs'!H5</f>
+        <f>'Reglements  futurs'!J7-'Reglements  futurs'!I7</f>
         <v>1163.0060200000007</v>
       </c>
       <c r="J5" s="9">
-        <f>'Reglements  futurs'!J5-'Reglements  futurs'!I5</f>
+        <f>'Reglements  futurs'!K7-'Reglements  futurs'!J7</f>
         <v>1513.7692236562798</v>
       </c>
       <c r="K5" s="9">
-        <f>'Reglements  futurs'!K5-'Reglements  futurs'!J5</f>
+        <f>'Reglements  futurs'!L7-'Reglements  futurs'!K7</f>
         <v>1163.8705678964616</v>
       </c>
       <c r="L5" s="9">
-        <f>'Reglements  futurs'!L5-'Reglements  futurs'!K5</f>
+        <f>'Reglements  futurs'!M7-'Reglements  futurs'!L7</f>
         <v>1102.0200828654633</v>
       </c>
       <c r="M5" s="10">
@@ -5334,7 +5512,7 @@
       </c>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -5343,43 +5521,43 @@
         <v>5070</v>
       </c>
       <c r="C6" s="8">
-        <f>'Reglements  futurs'!C6-'Reglements  futurs'!B6</f>
+        <f>'Reglements  futurs'!D8-'Reglements  futurs'!C8</f>
         <v>14442</v>
       </c>
       <c r="D6" s="8">
-        <f>'Reglements  futurs'!D6-'Reglements  futurs'!C6</f>
+        <f>'Reglements  futurs'!E8-'Reglements  futurs'!D8</f>
         <v>22048</v>
       </c>
       <c r="E6" s="8">
-        <f>'Reglements  futurs'!E6-'Reglements  futurs'!D6</f>
+        <f>'Reglements  futurs'!F8-'Reglements  futurs'!E8</f>
         <v>10357</v>
       </c>
       <c r="F6" s="8">
-        <f>'Reglements  futurs'!F6-'Reglements  futurs'!E6</f>
+        <f>'Reglements  futurs'!G8-'Reglements  futurs'!F8</f>
         <v>7251.4409599999999</v>
       </c>
       <c r="G6" s="8">
-        <f>'Reglements  futurs'!G6-'Reglements  futurs'!F6</f>
+        <f>'Reglements  futurs'!H8-'Reglements  futurs'!G8</f>
         <v>7110.1488000000027</v>
       </c>
       <c r="H6" s="8">
-        <f>'Reglements  futurs'!H6-'Reglements  futurs'!G6</f>
+        <f>'Reglements  futurs'!I8-'Reglements  futurs'!H8</f>
         <v>3368.9700000000012</v>
       </c>
       <c r="I6" s="9">
-        <f>'Reglements  futurs'!I6-'Reglements  futurs'!H6</f>
+        <f>'Reglements  futurs'!J8-'Reglements  futurs'!I8</f>
         <v>3134.6224546076264</v>
       </c>
       <c r="J6" s="9">
-        <f>'Reglements  futurs'!J6-'Reglements  futurs'!I6</f>
+        <f>'Reglements  futurs'!K8-'Reglements  futurs'!J8</f>
         <v>1703.5618909648765</v>
       </c>
       <c r="K6" s="9">
-        <f>'Reglements  futurs'!K6-'Reglements  futurs'!J6</f>
+        <f>'Reglements  futurs'!L8-'Reglements  futurs'!K8</f>
         <v>1309.7938011284859</v>
       </c>
       <c r="L6" s="9">
-        <f>'Reglements  futurs'!L6-'Reglements  futurs'!K6</f>
+        <f>'Reglements  futurs'!M8-'Reglements  futurs'!L8</f>
         <v>1240.1886541946587</v>
       </c>
       <c r="M6" s="10">
@@ -5388,7 +5566,7 @@
       </c>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
@@ -5397,43 +5575,43 @@
         <v>3817</v>
       </c>
       <c r="C7" s="8">
-        <f>'Reglements  futurs'!C7-'Reglements  futurs'!B7</f>
+        <f>'Reglements  futurs'!D9-'Reglements  futurs'!C9</f>
         <v>14123</v>
       </c>
       <c r="D7" s="8">
-        <f>'Reglements  futurs'!D7-'Reglements  futurs'!C7</f>
+        <f>'Reglements  futurs'!E9-'Reglements  futurs'!D9</f>
         <v>9399</v>
       </c>
       <c r="E7" s="8">
-        <f>'Reglements  futurs'!E7-'Reglements  futurs'!D7</f>
+        <f>'Reglements  futurs'!F9-'Reglements  futurs'!E9</f>
         <v>6327.6720599999971</v>
       </c>
       <c r="F7" s="8">
-        <f>'Reglements  futurs'!F7-'Reglements  futurs'!E7</f>
+        <f>'Reglements  futurs'!G9-'Reglements  futurs'!F9</f>
         <v>4227.28946</v>
       </c>
       <c r="G7" s="8">
-        <f>'Reglements  futurs'!G7-'Reglements  futurs'!F7</f>
+        <f>'Reglements  futurs'!H9-'Reglements  futurs'!G9</f>
         <v>3755.4534399999975</v>
       </c>
       <c r="H7" s="9">
-        <f>'Reglements  futurs'!H7-'Reglements  futurs'!G7</f>
+        <f>'Reglements  futurs'!I9-'Reglements  futurs'!H9</f>
         <v>2436.3307748252046</v>
       </c>
       <c r="I7" s="9">
-        <f>'Reglements  futurs'!I7-'Reglements  futurs'!H7</f>
+        <f>'Reglements  futurs'!J9-'Reglements  futurs'!I9</f>
         <v>1984.1638240407119</v>
       </c>
       <c r="J7" s="9">
-        <f>'Reglements  futurs'!J7-'Reglements  futurs'!I7</f>
+        <f>'Reglements  futurs'!K9-'Reglements  futurs'!J9</f>
         <v>1078.3263136198075</v>
       </c>
       <c r="K7" s="9">
-        <f>'Reglements  futurs'!K7-'Reglements  futurs'!J7</f>
+        <f>'Reglements  futurs'!L9-'Reglements  futurs'!K9</f>
         <v>829.07766877373797</v>
       </c>
       <c r="L7" s="9">
-        <f>'Reglements  futurs'!L7-'Reglements  futurs'!K7</f>
+        <f>'Reglements  futurs'!M9-'Reglements  futurs'!L9</f>
         <v>785.01876965173142</v>
       </c>
       <c r="M7" s="10">
@@ -5442,7 +5620,7 @@
       </c>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
@@ -5451,43 +5629,43 @@
         <v>7838</v>
       </c>
       <c r="C8" s="8">
-        <f>'Reglements  futurs'!C8-'Reglements  futurs'!B8</f>
+        <f>'Reglements  futurs'!D10-'Reglements  futurs'!C10</f>
         <v>15918</v>
       </c>
       <c r="D8" s="8">
-        <f>'Reglements  futurs'!D8-'Reglements  futurs'!C8</f>
+        <f>'Reglements  futurs'!E10-'Reglements  futurs'!D10</f>
         <v>10733.852959999997</v>
       </c>
       <c r="E8" s="8">
-        <f>'Reglements  futurs'!E8-'Reglements  futurs'!D8</f>
+        <f>'Reglements  futurs'!F10-'Reglements  futurs'!E10</f>
         <v>8175.4203699999998</v>
       </c>
       <c r="F8" s="8">
-        <f>'Reglements  futurs'!F8-'Reglements  futurs'!E8</f>
+        <f>'Reglements  futurs'!G10-'Reglements  futurs'!F10</f>
         <v>8516.5012500000012</v>
       </c>
       <c r="G8" s="9">
-        <f>'Reglements  futurs'!G8-'Reglements  futurs'!F8</f>
+        <f>'Reglements  futurs'!H10-'Reglements  futurs'!G10</f>
         <v>5940.7723086339756</v>
       </c>
       <c r="H8" s="9">
-        <f>'Reglements  futurs'!H8-'Reglements  futurs'!G8</f>
+        <f>'Reglements  futurs'!I10-'Reglements  futurs'!H10</f>
         <v>3341.4495510881097</v>
       </c>
       <c r="I8" s="9">
-        <f>'Reglements  futurs'!I8-'Reglements  futurs'!H8</f>
+        <f>'Reglements  futurs'!J10-'Reglements  futurs'!I10</f>
         <v>2721.2985148134467</v>
       </c>
       <c r="J8" s="9">
-        <f>'Reglements  futurs'!J8-'Reglements  futurs'!I8</f>
+        <f>'Reglements  futurs'!K10-'Reglements  futurs'!J10</f>
         <v>1478.9342292119254</v>
       </c>
       <c r="K8" s="9">
-        <f>'Reglements  futurs'!K8-'Reglements  futurs'!J8</f>
+        <f>'Reglements  futurs'!L10-'Reglements  futurs'!K10</f>
         <v>1137.0874730012656</v>
       </c>
       <c r="L8" s="9">
-        <f>'Reglements  futurs'!L8-'Reglements  futurs'!K8</f>
+        <f>'Reglements  futurs'!M10-'Reglements  futurs'!L10</f>
         <v>1076.6602969322703</v>
       </c>
       <c r="M8" s="10">
@@ -5496,7 +5674,7 @@
       </c>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
@@ -5505,43 +5683,43 @@
         <v>7690</v>
       </c>
       <c r="C9" s="8">
-        <f>'Reglements  futurs'!C9-'Reglements  futurs'!B9</f>
+        <f>'Reglements  futurs'!D11-'Reglements  futurs'!C11</f>
         <v>21750.545599999994</v>
       </c>
       <c r="D9" s="8">
-        <f>'Reglements  futurs'!D9-'Reglements  futurs'!C9</f>
+        <f>'Reglements  futurs'!E11-'Reglements  futurs'!D11</f>
         <v>13587.42827</v>
       </c>
       <c r="E9" s="8">
-        <f>'Reglements  futurs'!E9-'Reglements  futurs'!D9</f>
+        <f>'Reglements  futurs'!F11-'Reglements  futurs'!E11</f>
         <v>13842.712330000009</v>
       </c>
       <c r="F9" s="9">
-        <f>'Reglements  futurs'!F9-'Reglements  futurs'!E9</f>
+        <f>'Reglements  futurs'!G11-'Reglements  futurs'!F11</f>
         <v>10066.305681329344</v>
       </c>
       <c r="G9" s="9">
-        <f>'Reglements  futurs'!G9-'Reglements  futurs'!F9</f>
+        <f>'Reglements  futurs'!H11-'Reglements  futurs'!G11</f>
         <v>7769.5123128311534</v>
       </c>
       <c r="H9" s="9">
-        <f>'Reglements  futurs'!H9-'Reglements  futurs'!G9</f>
+        <f>'Reglements  futurs'!I11-'Reglements  futurs'!H11</f>
         <v>4370.0435029553919</v>
       </c>
       <c r="I9" s="9">
-        <f>'Reglements  futurs'!I9-'Reglements  futurs'!H9</f>
+        <f>'Reglements  futurs'!J11-'Reglements  futurs'!I11</f>
         <v>3558.992201570145</v>
       </c>
       <c r="J9" s="9">
-        <f>'Reglements  futurs'!J9-'Reglements  futurs'!I9</f>
+        <f>'Reglements  futurs'!K11-'Reglements  futurs'!J11</f>
         <v>1934.1925774582778</v>
       </c>
       <c r="K9" s="9">
-        <f>'Reglements  futurs'!K9-'Reglements  futurs'!J9</f>
+        <f>'Reglements  futurs'!L11-'Reglements  futurs'!K11</f>
         <v>1487.1155909156223</v>
       </c>
       <c r="L9" s="9">
-        <f>'Reglements  futurs'!L9-'Reglements  futurs'!K9</f>
+        <f>'Reglements  futurs'!M11-'Reglements  futurs'!L11</f>
         <v>1408.0871979547665</v>
       </c>
       <c r="M9" s="10">
@@ -5550,7 +5728,7 @@
       </c>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -5559,43 +5737,43 @@
         <v>8935</v>
       </c>
       <c r="C10" s="8">
-        <f>'Reglements  futurs'!C10-'Reglements  futurs'!B10</f>
+        <f>'Reglements  futurs'!D12-'Reglements  futurs'!C12</f>
         <v>19050.558659999999</v>
       </c>
       <c r="D10" s="8">
-        <f>'Reglements  futurs'!D10-'Reglements  futurs'!C10</f>
+        <f>'Reglements  futurs'!E12-'Reglements  futurs'!D12</f>
         <v>14689.93953</v>
       </c>
       <c r="E10" s="9">
-        <f>'Reglements  futurs'!E10-'Reglements  futurs'!D10</f>
+        <f>'Reglements  futurs'!F12-'Reglements  futurs'!E12</f>
         <v>13923.625177089176</v>
       </c>
       <c r="F10" s="9">
-        <f>'Reglements  futurs'!F10-'Reglements  futurs'!E10</f>
+        <f>'Reglements  futurs'!G12-'Reglements  futurs'!F12</f>
         <v>10018.238132466744</v>
       </c>
       <c r="G10" s="9">
-        <f>'Reglements  futurs'!G10-'Reglements  futurs'!F10</f>
+        <f>'Reglements  futurs'!H12-'Reglements  futurs'!G12</f>
         <v>7732.4121666048886</v>
       </c>
       <c r="H10" s="9">
-        <f>'Reglements  futurs'!H10-'Reglements  futurs'!G10</f>
+        <f>'Reglements  futurs'!I12-'Reglements  futurs'!H12</f>
         <v>4349.1761374829221</v>
       </c>
       <c r="I10" s="9">
-        <f>'Reglements  futurs'!I10-'Reglements  futurs'!H10</f>
+        <f>'Reglements  futurs'!J12-'Reglements  futurs'!I12</f>
         <v>3541.9976817367278</v>
       </c>
       <c r="J10" s="9">
-        <f>'Reglements  futurs'!J10-'Reglements  futurs'!I10</f>
+        <f>'Reglements  futurs'!K12-'Reglements  futurs'!J12</f>
         <v>1924.9566274315293</v>
       </c>
       <c r="K10" s="9">
-        <f>'Reglements  futurs'!K10-'Reglements  futurs'!J10</f>
+        <f>'Reglements  futurs'!L12-'Reglements  futurs'!K12</f>
         <v>1480.0144752140332</v>
       </c>
       <c r="L10" s="9">
-        <f>'Reglements  futurs'!L10-'Reglements  futurs'!K10</f>
+        <f>'Reglements  futurs'!M12-'Reglements  futurs'!L12</f>
         <v>1401.3634502032946</v>
       </c>
       <c r="M10" s="10">
@@ -5604,7 +5782,7 @@
       </c>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -5613,43 +5791,43 @@
         <v>4979.9748699999936</v>
       </c>
       <c r="C11" s="8">
-        <f>'Reglements  futurs'!C11-'Reglements  futurs'!B11</f>
+        <f>'Reglements  futurs'!D13-'Reglements  futurs'!C13</f>
         <v>16174.834459999998</v>
       </c>
       <c r="D11" s="9">
-        <f>'Reglements  futurs'!D11-'Reglements  futurs'!C11</f>
+        <f>'Reglements  futurs'!E13-'Reglements  futurs'!D13</f>
         <v>14576.631437361695</v>
       </c>
       <c r="E11" s="9">
-        <f>'Reglements  futurs'!E11-'Reglements  futurs'!D11</f>
+        <f>'Reglements  futurs'!F13-'Reglements  futurs'!E13</f>
         <v>11658.005398486195</v>
       </c>
       <c r="F11" s="9">
-        <f>'Reglements  futurs'!F11-'Reglements  futurs'!E11</f>
+        <f>'Reglements  futurs'!G13-'Reglements  futurs'!F13</f>
         <v>8388.0938150931906</v>
       </c>
       <c r="G11" s="9">
-        <f>'Reglements  futurs'!G11-'Reglements  futurs'!F11</f>
+        <f>'Reglements  futurs'!H13-'Reglements  futurs'!G13</f>
         <v>6474.2121132310858</v>
       </c>
       <c r="H11" s="9">
-        <f>'Reglements  futurs'!H11-'Reglements  futurs'!G11</f>
+        <f>'Reglements  futurs'!I13-'Reglements  futurs'!H13</f>
         <v>3641.4883512644883</v>
       </c>
       <c r="I11" s="9">
-        <f>'Reglements  futurs'!I11-'Reglements  futurs'!H11</f>
+        <f>'Reglements  futurs'!J13-'Reglements  futurs'!I13</f>
         <v>2965.6520891597902</v>
       </c>
       <c r="J11" s="9">
-        <f>'Reglements  futurs'!J11-'Reglements  futurs'!I11</f>
+        <f>'Reglements  futurs'!K13-'Reglements  futurs'!J13</f>
         <v>1611.7321795888856</v>
       </c>
       <c r="K11" s="9">
-        <f>'Reglements  futurs'!K11-'Reglements  futurs'!J11</f>
+        <f>'Reglements  futurs'!L13-'Reglements  futurs'!K13</f>
         <v>1239.1899754866754</v>
       </c>
       <c r="L11" s="9">
-        <f>'Reglements  futurs'!L11-'Reglements  futurs'!K11</f>
+        <f>'Reglements  futurs'!M13-'Reglements  futurs'!L13</f>
         <v>1173.3368616237422</v>
       </c>
       <c r="M11" s="10">
@@ -5658,7 +5836,7 @@
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
@@ -5667,43 +5845,43 @@
         <v>5818.6407599999984</v>
       </c>
       <c r="C12" s="9">
-        <f>'Reglements  futurs'!C12-'Reglements  futurs'!B12</f>
+        <f>'Reglements  futurs'!D14-'Reglements  futurs'!C14</f>
         <v>15891.712219316021</v>
       </c>
       <c r="D12" s="9">
-        <f>'Reglements  futurs'!D12-'Reglements  futurs'!C12</f>
+        <f>'Reglements  futurs'!E14-'Reglements  futurs'!D14</f>
         <v>14959.42642724434</v>
       </c>
       <c r="E12" s="9">
-        <f>'Reglements  futurs'!E12-'Reglements  futurs'!D12</f>
+        <f>'Reglements  futurs'!F14-'Reglements  futurs'!E14</f>
         <v>11964.154736057229</v>
       </c>
       <c r="F12" s="9">
-        <f>'Reglements  futurs'!F12-'Reglements  futurs'!E12</f>
+        <f>'Reglements  futurs'!G14-'Reglements  futurs'!F14</f>
         <v>8608.3724371384305</v>
       </c>
       <c r="G12" s="9">
-        <f>'Reglements  futurs'!G12-'Reglements  futurs'!F12</f>
+        <f>'Reglements  futurs'!H14-'Reglements  futurs'!G14</f>
         <v>6644.2305410847475</v>
       </c>
       <c r="H12" s="9">
-        <f>'Reglements  futurs'!H12-'Reglements  futurs'!G12</f>
+        <f>'Reglements  futurs'!I14-'Reglements  futurs'!H14</f>
         <v>3737.1169951367119</v>
       </c>
       <c r="I12" s="9">
-        <f>'Reglements  futurs'!I12-'Reglements  futurs'!H12</f>
+        <f>'Reglements  futurs'!J14-'Reglements  futurs'!I14</f>
         <v>3043.5326863570081</v>
       </c>
       <c r="J12" s="9">
-        <f>'Reglements  futurs'!J12-'Reglements  futurs'!I12</f>
+        <f>'Reglements  futurs'!K14-'Reglements  futurs'!J14</f>
         <v>1654.0576651463925</v>
       </c>
       <c r="K12" s="9">
-        <f>'Reglements  futurs'!K12-'Reglements  futurs'!J12</f>
+        <f>'Reglements  futurs'!L14-'Reglements  futurs'!K14</f>
         <v>1271.73217950463</v>
       </c>
       <c r="L12" s="9">
-        <f>'Reglements  futurs'!L12-'Reglements  futurs'!K12</f>
+        <f>'Reglements  futurs'!M14-'Reglements  futurs'!L14</f>
         <v>1204.1497057300294</v>
       </c>
       <c r="M12" s="10">
@@ -5712,7 +5890,7 @@
       </c>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <f t="shared" ref="B13:L13" si="1">SUM(B2:B12)</f>
         <v>60322.776199999993</v>
@@ -5758,7 +5936,7 @@
         <v>12483.611930365783</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -5771,7 +5949,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>0</v>
       </c>
@@ -5806,7 +5984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>5</v>
       </c>
@@ -5852,7 +6030,7 @@
       </c>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -5901,7 +6079,7 @@
         <v>1.609887658052141E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -5950,7 +6128,7 @@
         <v>11266.324678241283</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
         <v>8.8999999999999996E-2</v>
       </c>
@@ -5986,7 +6164,7 @@
       </c>
       <c r="M19" s="23"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6024,7 +6202,7 @@
         <v>2.4140000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <f>B19/((1+B20)^B15)</f>
         <v>8.8999999999999996E-2</v>
@@ -6074,7 +6252,7 @@
         <v>1.6173951712101613</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -6087,7 +6265,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -6100,7 +6278,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -6113,7 +6291,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -6126,7 +6304,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -6139,7 +6317,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -6152,7 +6330,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -6178,117 +6356,117 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2011</v>
       </c>
       <c r="B2" s="11">
-        <f>'Reglements  futurs'!L2-'Reglements  futurs'!L2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <f>'Reglements  futurs'!M4-'Reglements  futurs'!M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
       <c r="B3" s="11">
-        <f>'Reglements  futurs'!L3-'Reglements  futurs'!K3</f>
+        <f>'Reglements  futurs'!M5-'Reglements  futurs'!L5</f>
         <v>1052.198830690817</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
       <c r="B4" s="11">
-        <f>'Reglements  futurs'!L4-'Reglements  futurs'!J4</f>
+        <f>'Reglements  futurs'!M6-'Reglements  futurs'!K6</f>
         <v>1909.2928366477499</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
       <c r="B5" s="11">
-        <f>'Reglements  futurs'!L5-'Reglements  futurs'!I5</f>
+        <f>'Reglements  futurs'!M7-'Reglements  futurs'!J7</f>
         <v>3779.6598744182047</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
       <c r="B6" s="11">
-        <f>'Reglements  futurs'!L6-'Reglements  futurs'!H6</f>
+        <f>'Reglements  futurs'!M8-'Reglements  futurs'!I8</f>
         <v>7388.1668008956476</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2016</v>
       </c>
       <c r="B7" s="11">
-        <f>'Reglements  futurs'!L7-'Reglements  futurs'!G7</f>
+        <f>'Reglements  futurs'!M9-'Reglements  futurs'!H9</f>
         <v>7112.9173509111934</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2017</v>
       </c>
       <c r="B8" s="11">
-        <f>'Reglements  futurs'!L8-'Reglements  futurs'!F8</f>
+        <f>'Reglements  futurs'!M10-'Reglements  futurs'!G10</f>
         <v>15696.202373680993</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2018</v>
       </c>
       <c r="B9" s="11">
-        <f>'Reglements  futurs'!L9-'Reglements  futurs'!E9</f>
+        <f>'Reglements  futurs'!M11-'Reglements  futurs'!F11</f>
         <v>30594.249065014701</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
       <c r="B10" s="11">
-        <f>'Reglements  futurs'!L10-'Reglements  futurs'!D10</f>
+        <f>'Reglements  futurs'!M12-'Reglements  futurs'!E12</f>
         <v>44371.783848229315</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
       <c r="B11" s="11">
-        <f>'Reglements  futurs'!L11-'Reglements  futurs'!C11</f>
+        <f>'Reglements  futurs'!M13-'Reglements  futurs'!D13</f>
         <v>51728.342221295752</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
       <c r="B12" s="11">
-        <f>'Reglements  futurs'!L12-'Reglements  futurs'!B12</f>
+        <f>'Reglements  futurs'!M14-'Reglements  futurs'!C14</f>
         <v>68978.485592715544</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -6297,7 +6475,7 @@
         <v>232611.29879449995</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="14"/>
     </row>
   </sheetData>
